--- a/data/xlsx_new/SymptomNew.xlsx
+++ b/data/xlsx_new/SymptomNew.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用真珠末一两、白蜜二合、鲤鱼胆二枚，和匀，煎过，滤取汁，频频点眼。</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用杏仁去皮、熬黄，取三分，加桂末一分，研泥裹含咽汁。</t>
         </is>
       </c>
     </row>
@@ -6639,7 +6639,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>治法同上。对久病者亦有效。</t>
+          <t>用状如刺猥的大贯众一个，全用不锉，只去毛，以好醋蘸湿，慢火灸令香熟，冷后研细。每服三钱，空心服，米汤送下。此方名“独对汤”。对久病者亦有效。</t>
         </is>
       </c>
     </row>
@@ -22075,7 +22075,7 @@
       </c>
       <c r="C1278" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用翻白草根五、七个，煎酒服。</t>
         </is>
       </c>
     </row>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="C1618" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用海蛤、川乌头各一两，穿山甲二两，共研为末，滴酒做成丸子，如弹子大。捏扁，放足心下，外以葱白包住，扎好，在热水中浸脚，浸至膝部最好。水冷须换热。以遍身出汗为度。每隔三天，照此方治疗一次。</t>
         </is>
       </c>
     </row>
@@ -39925,7 +39925,7 @@
       </c>
       <c r="C2328" t="inlineStr">
         <is>
-          <t>治方同上。此方名“二圣丸”。</t>
+          <t>用湿漆一两，熬一顿饭时间，加入干漆末一两，调成丸子，如梧子大。每服三、四丸，温酒送下。怕漆人不可服。此方名“二圣丸”。</t>
         </is>
       </c>
     </row>
@@ -41812,7 +41812,7 @@
       </c>
       <c r="C2439" t="inlineStr">
         <is>
-          <t>治方同上，加缩砂仁半两。</t>
+          <t>用橡实二两、楮叶（炙）一两，缩砂仁半两，共研为末，每服一钱，饭前服，乌梅汤调下。</t>
         </is>
       </c>
     </row>
@@ -51349,7 +51349,7 @@
       </c>
       <c r="C3000" t="inlineStr">
         <is>
-          <t>治方如上。</t>
+          <t>用地榆三两，加米醋一升，煮沸十多次，去渣汁，饭前热服一合。</t>
         </is>
       </c>
     </row>
@@ -58812,7 +58812,7 @@
       </c>
       <c r="C3439" t="inlineStr">
         <is>
-          <t>治法同上。</t>
+          <t>用硭硝末二钱，热童便送下。</t>
         </is>
       </c>
     </row>
@@ -62858,7 +62858,7 @@
       </c>
       <c r="C3677" t="inlineStr">
         <is>
-          <t>治方同上，但以铜绿代盐。</t>
+          <t>用大田螺七个，洗净，在水中养去泥秽。换水一升，再次浸洗，取出放碗中加铜绿少许。从壳内吸自然汁点眼。</t>
         </is>
       </c>
     </row>
@@ -69862,7 +69862,7 @@
       </c>
       <c r="C4089" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用芭蕉根捣烂涂患处。</t>
         </is>
       </c>
     </row>
@@ -75625,7 +75625,7 @@
       </c>
       <c r="C4428" t="inlineStr">
         <is>
-          <t>治方同上，但不用朱砂。每服三十丸，空心服，冷水送下。</t>
+          <t>用龙骨、远志，等分为末，加炼蜜做成丸子，如梧子大。每服三十丸，空心服，冷水送下。</t>
         </is>
       </c>
     </row>
@@ -76305,7 +76305,7 @@
       </c>
       <c r="C4468" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用薯蓣半生半炒为末。每服二钱，米汤关定。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -77716,7 +77716,7 @@
       </c>
       <c r="C4551" t="inlineStr">
         <is>
-          <t>治方同上。</t>
+          <t>用半边莲、雄黄各二钱，共捣成泥，放碗内，盖好，等颜色变青后，加饭做成丸子，如梧子大。每服九丸，空心服，盐汤送下。</t>
         </is>
       </c>
     </row>

--- a/data/xlsx_new/SymptomNew.xlsx
+++ b/data/xlsx_new/SymptomNew.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4692"/>
+  <dimension ref="A1:C4699"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20693,12 +20693,12 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>青盲内障，用白羊肝一具、黄连一两、熟地黄二两，同捣匀做成丸子，如梧子大</t>
+          <t>青盲内障</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
         <is>
-          <t>饭后稍久，茶送服七十丸。一天服三次。</t>
+          <t>用白羊肝一具、黄连一两、熟地黄二两，同捣匀做成丸子，如梧子大，饭后稍久，茶送服七十丸。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -25946,12 +25946,12 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>五种黄病（黄疸、谷疸、酒疸、女疸、劳疸</t>
+          <t>五种黄病（黄疸、谷疸、酒疸、女疸、劳疸，身体微胖，汗出如黄汁）</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
         <is>
-          <t>身体微胖，汗出如黄汁）。用生茅根一把，切细，和猪肉一斤同煨汤吃。</t>
+          <t>用生茅根一把，切细，和猪肉一斤同煨汤吃。</t>
         </is>
       </c>
     </row>
@@ -27238,12 +27238,12 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>容易小产，用车前子研为末，每服一匙，酒送下</t>
+          <t>容易小产</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
         <is>
-          <t>不饮酒者，可改用水送下。</t>
+          <t>用车前子研为末，每服一匙，酒送下，不饮酒者，可改用水送下。</t>
         </is>
       </c>
     </row>
@@ -35211,7 +35211,7 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>肺损吐血用</t>
+          <t>肺损吐血</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -55016,12 +55016,12 @@
       </c>
       <c r="B3216" t="inlineStr">
         <is>
-          <t>腹中鳖瘕，用蓝叶一升捣烂，加水三升绞汁</t>
+          <t>腹中鳖瘕</t>
         </is>
       </c>
       <c r="C3216" t="inlineStr">
         <is>
-          <t>每服一升，一天服二次。</t>
+          <t>用蓝叶一升捣烂，加水三升绞汁，每服一升，一天服二次。</t>
         </is>
       </c>
     </row>
@@ -58382,12 +58382,12 @@
       </c>
       <c r="B3414" t="inlineStr">
         <is>
-          <t>水肿，小便不利，用浮萍晒干，研为末</t>
+          <t>水肿，小便不利</t>
         </is>
       </c>
       <c r="C3414" t="inlineStr">
         <is>
-          <t>每服一匙，开水送下。一天服二次。</t>
+          <t>用浮萍晒干，研为末，每服一匙，开水送下。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -65471,12 +65471,12 @@
       </c>
       <c r="B3831" t="inlineStr">
         <is>
-          <t>难产催生用龟甲烧存性，研为末，酒送服一匙</t>
+          <t>难产催生</t>
         </is>
       </c>
       <c r="C3831" t="inlineStr">
         <is>
-          <t>又方：治经过三、五天还分娩不出以及女子交骨不开，用干龟壳一个（酥炙），妇女头发一把（烧灰），川芎、当归各一两。每取七钱水煎服。隔半小时左右，再服药一次，生胞死胎都能产下。</t>
+          <t>用龟甲烧存性，研为末，酒送服一匙。又方：治经过三、五天还分娩不出以及女子交骨不开，用干龟壳一个（酥炙），妇女头发一把（烧灰），川芎、当归各一两。每取七钱水煎服。隔半小时左右，再服药一次，生胞死胎都能产下。</t>
         </is>
       </c>
     </row>
@@ -65760,7 +65760,7 @@
       </c>
       <c r="B3848" t="inlineStr">
         <is>
-          <t>耳出汁用</t>
+          <t>耳出汁</t>
         </is>
       </c>
       <c r="C3848" t="inlineStr">
@@ -72453,17 +72453,17 @@
     <row r="4242">
       <c r="A4242" t="inlineStr">
         <is>
-          <t>旋花</t>
+          <t>树柳</t>
         </is>
       </c>
       <c r="B4242" t="inlineStr">
         <is>
-          <t>腹中寒热邪气（用根），脸上黑痣</t>
+          <t>腹中痞积</t>
         </is>
       </c>
       <c r="C4242" t="inlineStr">
         <is>
-          <t>亦利小便，续筋骨，合刀伤，治丹毒，补劳损，益精气。</t>
+          <t>用柽构枝煎汤，露一夜。五更时空心饮几次。痞渐消去。</t>
         </is>
       </c>
     </row>
@@ -72475,12 +72475,12 @@
       </c>
       <c r="B4243" t="inlineStr">
         <is>
-          <t>腹中痞积</t>
+          <t>各种风疾</t>
         </is>
       </c>
       <c r="C4243" t="inlineStr">
         <is>
-          <t>用柽构枝煎汤，露一夜。五更时空心饮几次。痞渐消去。</t>
+          <t>用柽柳枝或叶半斤，切细，加荆芥半斤，以水五升，煮成二升，澄清后，再加白蜜五合，竹沥五合，封入瓶中，放锅内隔水煮过。每服一小碗，一天服三次。</t>
         </is>
       </c>
     </row>
@@ -72492,29 +72492,29 @@
       </c>
       <c r="B4244" t="inlineStr">
         <is>
-          <t>各种风疾</t>
+          <t>解酒毒</t>
         </is>
       </c>
       <c r="C4244" t="inlineStr">
         <is>
-          <t>用柽柳枝或叶半斤，切细，加荆芥半斤，以水五升，煮成二升，澄清后，再加白蜜五合，竹沥五合，封入瓶中，放锅内隔水煮过。每服一小碗，一天服三次。</t>
+          <t>用柽柳枝晒干，研为末，每服一钱，温酒调下。</t>
         </is>
       </c>
     </row>
     <row r="4245">
       <c r="A4245" t="inlineStr">
         <is>
-          <t>树柳</t>
+          <t>楝</t>
         </is>
       </c>
       <c r="B4245" t="inlineStr">
         <is>
-          <t>解酒毒</t>
+          <t>腹中有虫</t>
         </is>
       </c>
       <c r="C4245" t="inlineStr">
         <is>
-          <t>用柽柳枝晒干，研为末，每服一钱，温酒调下。</t>
+          <t>用楝实在苦酒中浸一夜，棉裹好，塞入肛门内。一天换二次。</t>
         </is>
       </c>
     </row>
@@ -72526,12 +72526,12 @@
       </c>
       <c r="B4246" t="inlineStr">
         <is>
-          <t>腹中有虫</t>
+          <t>热厥心前（或发或止，身热足寒，长期不愈）</t>
         </is>
       </c>
       <c r="C4246" t="inlineStr">
         <is>
-          <t>用楝实在苦酒中浸一夜，棉裹好，塞入肛门内。一天换二次。</t>
+          <t>先灸大溪、昆仑两穴，引热下行，然后内服“金铃散”：用金铃子、元胡索各一两，共研为末，每服三钱，温酒调下。</t>
         </is>
       </c>
     </row>
@@ -72543,12 +72543,12 @@
       </c>
       <c r="B4247" t="inlineStr">
         <is>
-          <t>热厥心前（或发或止，身热足寒，长期不愈）</t>
+          <t>疝肿痛</t>
         </is>
       </c>
       <c r="C4247" t="inlineStr">
         <is>
-          <t>先灸大溪、昆仑两穴，引热下行，然后内服“金铃散”：用金铃子、元胡索各一两，共研为末，每服三钱，温酒调下。</t>
+          <t>阴囊偏坠。用楝子肉五两，分作五份：一两用破故纸二钱炒黄，一两用小茴香三钱、食盐半钱同炒，一两用莱菔子一钱同炒，一两用牵牛子三钱同炒，一两用斑蝥七枚（去头足）同炒。炒后，分别拣去食盐、莱菔、牵牛、班蝥，只留破故纸、茴香，与楝子同研为末，加酒、面糊为丸子，如梧子大。每服五十丸，窍主服，酒送下。又方：用楝子经酒润过，取肉一斤，分作四份：一份用小麦一合、斑蝥四十九个同炒熟，去蝥；一份用小麦合、巴豆四十九枚同炒熟，去豆；一份用小麦一合、巴戟肉一两同炒熟。去戟；一份用小茴香一合、食盐一两同炒熟，去盐。再加破故纸（酒炒）一两、广木香（不见火）一两，一起研为末，酒煮面糊成丸子，如梧子大。每服五十丸，空心服，盐汤送下。一天服三次。又方：有楝子肉四十九个，分作七份：一份用小茴香五钱同炒，一分同破故纸二钱半同炒，一份用黑牵牛二钱半同炒，一份用食盐二钱同炒，一份用萝卜子二钱半同炒，一份用巴豆十四个同炒，一份用斑蝥十四个（去头足）同炒。炒后，分别拣去萝卜子、巴豆、斑蝥三味，另加入青木香五钱，南木香、官桂各二钱半，各药共研为末，酒煮面糊成丸子，如梧子大。每服三十丸，饭前服，盐汤送下。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -72560,12 +72560,12 @@
       </c>
       <c r="B4248" t="inlineStr">
         <is>
-          <t>疝肿痛</t>
+          <t>蜈蚣或蜂螫伤</t>
         </is>
       </c>
       <c r="C4248" t="inlineStr">
         <is>
-          <t>阴囊偏坠。用楝子肉五两，分作五份：一两用破故纸二钱炒黄，一两用小茴香三钱、食盐半钱同炒，一两用莱菔子一钱同炒，一两用牵牛子三钱同炒，一两用斑蝥七枚（去头足）同炒。炒后，分别拣去食盐、莱菔、牵牛、班蝥，只留破故纸、茴香，与楝子同研为末，加酒、面糊为丸子，如梧子大。每服五十丸，窍主服，酒送下。又方：用楝子经酒润过，取肉一斤，分作四份：一份用小麦一合、斑蝥四十九个同炒熟，去蝥；一份用小麦合、巴豆四十九枚同炒熟，去豆；一份用小麦一合、巴戟肉一两同炒熟。去戟；一份用小茴香一合、食盐一两同炒熟，去盐。再加破故纸（酒炒）一两、广木香（不见火）一两，一起研为末，酒煮面糊成丸子，如梧子大。每服五十丸，空心服，盐汤送下。一天服三次。又方：有楝子肉四十九个，分作七份：一份用小茴香五钱同炒，一分同破故纸二钱半同炒，一份用黑牵牛二钱半同炒，一份用食盐二钱同炒，一份用萝卜子二钱半同炒，一份用巴豆十四个同炒，一份用斑蝥十四个（去头足）同炒。炒后，分别拣去萝卜子、巴豆、斑蝥三味，另加入青木香五钱，南木香、官桂各二钱半，各药共研为末，酒煮面糊成丸子，如梧子大。每服三十丸，饭前服，盐汤送下。一天服三次。</t>
+          <t>和楝树枝叶捣汁搽。</t>
         </is>
       </c>
     </row>
@@ -72577,12 +72577,12 @@
       </c>
       <c r="B4249" t="inlineStr">
         <is>
-          <t>蜈蚣或蜂螫伤</t>
+          <t>消渴有虫</t>
         </is>
       </c>
       <c r="C4249" t="inlineStr">
         <is>
-          <t>和楝树枝叶捣汁搽。</t>
+          <t>用苦楝根白皮一把。切细，焙干，加麝香少许，添水二碗，煎成一碗，空心服下。打下虫后，其渴自止。</t>
         </is>
       </c>
     </row>
@@ -72594,12 +72594,12 @@
       </c>
       <c r="B4250" t="inlineStr">
         <is>
-          <t>消渴有虫</t>
+          <t>小便如膏，排出困难</t>
         </is>
       </c>
       <c r="C4250" t="inlineStr">
         <is>
-          <t>用苦楝根白皮一把。切细，焙干，加麝香少许，添水二碗，煎成一碗，空心服下。打下虫后，其渴自止。</t>
+          <t>用苦楝子、茴香等分，炒研为末。每服一钱，温酒送下。</t>
         </is>
       </c>
     </row>
@@ -72611,12 +72611,12 @@
       </c>
       <c r="B4251" t="inlineStr">
         <is>
-          <t>小便如膏，排出困难</t>
+          <t>小儿疳疾</t>
         </is>
       </c>
       <c r="C4251" t="inlineStr">
         <is>
-          <t>用苦楝子、茴香等分，炒研为末。每服一钱，温酒送下。</t>
+          <t>用苦楝子、川芎，等分为末，加猪胆汁调成丸子，米汤帝服适量。</t>
         </is>
       </c>
     </row>
@@ -72628,12 +72628,12 @@
       </c>
       <c r="B4252" t="inlineStr">
         <is>
-          <t>小儿疳疾</t>
+          <t>小儿蛔虫</t>
         </is>
       </c>
       <c r="C4252" t="inlineStr">
         <is>
-          <t>用苦楝子、川芎，等分为末，加猪胆汁调成丸子，米汤帝服适量。</t>
+          <t>用楝木皮削去苍皮，加水煮汁，随小儿年龄适量饮食。又方：用楝木皮研末，米汤送服二钱。又方：用根皮同鸡蛋煮熟，空心吃睛，次日可将虫打邮。又方：用苦楝皮二两、白芜荑半两，共研为末，每取一、二钱，水煎服。此方“抵圣散”。又方：用楝白皮（去粗）二斤，切细，加不一斗，煮成汁三升，再熬成膏。五更时，温酒送服一匙，以虫下为度。</t>
         </is>
       </c>
     </row>
@@ -72645,12 +72645,12 @@
       </c>
       <c r="B4253" t="inlineStr">
         <is>
-          <t>小儿蛔虫</t>
+          <t>小儿冷疝（气痛、阴囊浮肿）</t>
         </is>
       </c>
       <c r="C4253" t="inlineStr">
         <is>
-          <t>用楝木皮削去苍皮，加水煮汁，随小儿年龄适量饮食。又方：用楝木皮研末，米汤送服二钱。又方：用根皮同鸡蛋煮熟，空心吃睛，次日可将虫打邮。又方：用苦楝皮二两、白芜荑半两，共研为末，每取一、二钱，水煎服。此方“抵圣散”。又方：用楝白皮（去粗）二斤，切细，加不一斗，煮成汁三升，再熬成膏。五更时，温酒送服一匙，以虫下为度。</t>
+          <t>用金铃子（去核）五钱、吴茱萸二钱半，共研为末，加酒、糊做成丸子，如黍米在。每服二、三十丸，盐汤送下。</t>
         </is>
       </c>
     </row>
@@ -72662,12 +72662,12 @@
       </c>
       <c r="B4254" t="inlineStr">
         <is>
-          <t>小儿冷疝（气痛、阴囊浮肿）</t>
+          <t>小儿诸疮（恶疮、秃疮、蠼螋疮、浸淫疮等）</t>
         </is>
       </c>
       <c r="C4254" t="inlineStr">
         <is>
-          <t>用金铃子（去核）五钱、吴茱萸二钱半，共研为末，加酒、糊做成丸子，如黍米在。每服二、三十丸，盐汤送下。</t>
+          <t>用楝树皮或枝烧灰敷疮上。如是干疮，则用猪油调灰涂搽。</t>
         </is>
       </c>
     </row>
@@ -72679,29 +72679,29 @@
       </c>
       <c r="B4255" t="inlineStr">
         <is>
-          <t>小儿诸疮（恶疮、秃疮、蠼螋疮、浸淫疮等）</t>
+          <t>脏毒下血</t>
         </is>
       </c>
       <c r="C4255" t="inlineStr">
         <is>
-          <t>用楝树皮或枝烧灰敷疮上。如是干疮，则用猪油调灰涂搽。</t>
+          <t>用苦楝子炒黄并研为末，加蜜做成丸子，如梧子大。每服十至二十丸，米汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4256">
       <c r="A4256" t="inlineStr">
         <is>
-          <t>楝</t>
+          <t>蓼</t>
         </is>
       </c>
       <c r="B4256" t="inlineStr">
         <is>
-          <t>脏毒下血</t>
+          <t>肝虚转筋，吐泻</t>
         </is>
       </c>
       <c r="C4256" t="inlineStr">
         <is>
-          <t>用苦楝子炒黄并研为末，加蜜做成丸子，如梧子大。每服十至二十丸，米汤送下。</t>
+          <t>用蓼茎、叶泻。用蓼茎、叶切三合，加水一碗、酒三合煎成四合，分二次服。</t>
         </is>
       </c>
     </row>
@@ -72713,12 +72713,12 @@
       </c>
       <c r="B4257" t="inlineStr">
         <is>
-          <t>肝虚转筋，吐泻</t>
+          <t>霍乱烦渴</t>
         </is>
       </c>
       <c r="C4257" t="inlineStr">
         <is>
-          <t>用蓼茎、叶泻。用蓼茎、叶切三合，加水一碗、酒三合煎成四合，分二次服。</t>
+          <t>用蓼子一两、香豉二两，每服二凶，水煎服。</t>
         </is>
       </c>
     </row>
@@ -72730,12 +72730,12 @@
       </c>
       <c r="B4258" t="inlineStr">
         <is>
-          <t>霍乱烦渴</t>
+          <t>胃冷不能饮食，冬卧脚冷</t>
         </is>
       </c>
       <c r="C4258" t="inlineStr">
         <is>
-          <t>用蓼子一两、香豉二两，每服二凶，水煎服。</t>
+          <t>秋日取蓼晒干，用六十把，加水六石煮成一石，去滓，拌米饭造酒，酒熟后，每日饮适量。十天以后，眼明气壮。这样制成的酒，称为“蓼汁酒”。</t>
         </is>
       </c>
     </row>
@@ -72747,29 +72747,29 @@
       </c>
       <c r="B4259" t="inlineStr">
         <is>
-          <t>胃冷不能饮食，冬卧脚冷</t>
+          <t>小儿冷痢</t>
         </is>
       </c>
       <c r="C4259" t="inlineStr">
         <is>
-          <t>秋日取蓼晒干，用六十把，加水六石煮成一石，去滓，拌米饭造酒，酒熟后，每日饮适量。十天以后，眼明气壮。这样制成的酒，称为“蓼汁酒”。</t>
+          <t>用蓼叶捣汁服。</t>
         </is>
       </c>
     </row>
     <row r="4260">
       <c r="A4260" t="inlineStr">
         <is>
-          <t>蓼</t>
+          <t>蒲公英</t>
         </is>
       </c>
       <c r="B4260" t="inlineStr">
         <is>
-          <t>小儿冷痢</t>
+          <t>疳疮疔毒</t>
         </is>
       </c>
       <c r="C4260" t="inlineStr">
         <is>
-          <t>用蓼叶捣汁服。</t>
+          <t>用蒲公项捣烂敷涂，同时又捣汁和酒煎服。</t>
         </is>
       </c>
     </row>
@@ -72781,29 +72781,29 @@
       </c>
       <c r="B4261" t="inlineStr">
         <is>
-          <t>疳疮疔毒</t>
+          <t>乳痈红肿</t>
         </is>
       </c>
       <c r="C4261" t="inlineStr">
         <is>
-          <t>用蒲公项捣烂敷涂，同时又捣汁和酒煎服。</t>
+          <t>用蒲公英一两，一起捣烂，加水二碗煎成一碗，饭前服。</t>
         </is>
       </c>
     </row>
     <row r="4262">
       <c r="A4262" t="inlineStr">
         <is>
-          <t>蒲公英</t>
+          <t>蛆</t>
         </is>
       </c>
       <c r="B4262" t="inlineStr">
         <is>
-          <t>乳痈红肿</t>
+          <t>疳疾</t>
         </is>
       </c>
       <c r="C4262" t="inlineStr">
         <is>
-          <t>用蒲公英一两，一起捣烂，加水二碗煎成一碗，饭前服。</t>
+          <t>在六月间取粪坑听蛆淘净，封竹筒中，干后研末。每服一、二钱，加麝香少许，米汤送服。又方：用淘米水泡蛆一天，逐日换汁，再以清水三天，也是逐日换汁，然后晒干火焙为末，加黄连末等分。每半两配麝香五分，一起和猪胆汁调成丸子，如黍米大。每服三、四十丸，米汤送下。极效。</t>
         </is>
       </c>
     </row>
@@ -72815,12 +72815,12 @@
       </c>
       <c r="B4263" t="inlineStr">
         <is>
-          <t>疳疾</t>
+          <t>热痢吐食（因服热药所致）</t>
         </is>
       </c>
       <c r="C4263" t="inlineStr">
         <is>
-          <t>在六月间取粪坑听蛆淘净，封竹筒中，干后研末。每服一、二钱，加麝香少许，米汤送服。又方：用淘米水泡蛆一天，逐日换汁，再以清水三天，也是逐日换汁，然后晒干火焙为末，加黄连末等分。每半两配麝香五分，一起和猪胆汁调成丸子，如黍米大。每服三、四十丸，米汤送下。极效。</t>
+          <t>取粪蛆用流水洗净，晒干，研为末，每服一钱，米汤送下。</t>
         </is>
       </c>
     </row>
@@ -72832,46 +72832,46 @@
       </c>
       <c r="B4264" t="inlineStr">
         <is>
-          <t>热痢吐食（因服热药所致）</t>
+          <t>小儿痹积</t>
         </is>
       </c>
       <c r="C4264" t="inlineStr">
         <is>
-          <t>取粪蛆用流水洗净，晒干，研为末，每服一钱，米汤送下。</t>
+          <t>用蛆洗泡后晒干，研为末，加甘草末少许，拌米糊做成丸子，如梧子大。每服五至七丸，米汤送下，甚效。</t>
         </is>
       </c>
     </row>
     <row r="4265">
       <c r="A4265" t="inlineStr">
         <is>
-          <t>蛆</t>
+          <t>地浆</t>
         </is>
       </c>
       <c r="B4265" t="inlineStr">
         <is>
-          <t>小儿痹积</t>
+          <t>干霍乱（欲吐吐不出，上膨下胀，闷苦万分）</t>
         </is>
       </c>
       <c r="C4265" t="inlineStr">
         <is>
-          <t>用蛆洗泡后晒干，研为末，加甘草末少许，拌米糊做成丸子，如梧子大。每服五至七丸，米汤送下，甚效。</t>
+          <t>饮地浆三至五杯，禁忌米汤，可以治好。</t>
         </is>
       </c>
     </row>
     <row r="4266">
       <c r="A4266" t="inlineStr">
         <is>
-          <t>地浆</t>
+          <t>芫花</t>
         </is>
       </c>
       <c r="B4266" t="inlineStr">
         <is>
-          <t>干霍乱（欲吐吐不出，上膨下胀，闷苦万分）</t>
+          <t>干呕胁痛（伤寒有时头痛，心下痞满，痛引两胁，干呕短气，汗出而不恶寒）</t>
         </is>
       </c>
       <c r="C4266" t="inlineStr">
         <is>
-          <t>饮地浆三至五杯，禁忌米汤，可以治好。</t>
+          <t>用芫花（熬过）、甘遂、大戟，等分为末。以大枣十枚、水一升半，煮成八合后，去渣纳药。体壮者服一钱，弱者半钱，清晨服下。能下泻则病除，否则次晨再服药。此方名“十枣汤”。</t>
         </is>
       </c>
     </row>
@@ -72883,12 +72883,12 @@
       </c>
       <c r="B4267" t="inlineStr">
         <is>
-          <t>干呕胁痛（伤寒有时头痛，心下痞满，痛引两胁，干呕短气，汗出而不恶寒）</t>
+          <t>久疟，腹胁坚痛</t>
         </is>
       </c>
       <c r="C4267" t="inlineStr">
         <is>
-          <t>用芫花（熬过）、甘遂、大戟，等分为末。以大枣十枚、水一升半，煮成八合后，去渣纳药。体壮者服一钱，弱者半钱，清晨服下。能下泻则病除，否则次晨再服药。此方名“十枣汤”。</t>
+          <t>用芫花（炒）二两，朱砂五钱，共研为末，加蜜做成丸子，如梧子大。每服十丸，枣汤送下。</t>
         </is>
       </c>
     </row>
@@ -72900,12 +72900,12 @@
       </c>
       <c r="B4268" t="inlineStr">
         <is>
-          <t>久疟，腹胁坚痛</t>
+          <t>咳嗽有痰</t>
         </is>
       </c>
       <c r="C4268" t="inlineStr">
         <is>
-          <t>用芫花（炒）二两，朱砂五钱，共研为末，加蜜做成丸子，如梧子大。每服十丸，枣汤送下。</t>
+          <t>用芫花一两（炒），加水一升，煮开四次，去渣，再加入白糖半斤。每服约一个枣子大的量。忌食酸咸物。</t>
         </is>
       </c>
     </row>
@@ -72917,12 +72917,12 @@
       </c>
       <c r="B4269" t="inlineStr">
         <is>
-          <t>咳嗽有痰</t>
+          <t>水盅胀满</t>
         </is>
       </c>
       <c r="C4269" t="inlineStr">
         <is>
-          <t>用芫花一两（炒），加水一升，煮开四次，去渣，再加入白糖半斤。每服约一个枣子大的量。忌食酸咸物。</t>
+          <t>用芫花、枳壳等分，先以醋把芫花煮烂，再加枳壳煮烂，一起捣匀做丸子，如梧子大。每服三十丸，白汤送下。</t>
         </is>
       </c>
     </row>
@@ -72934,12 +72934,12 @@
       </c>
       <c r="B4270" t="inlineStr">
         <is>
-          <t>水盅胀满</t>
+          <t>水肿</t>
         </is>
       </c>
       <c r="C4270" t="inlineStr">
         <is>
-          <t>用芫花、枳壳等分，先以醋把芫花煮烂，再加枳壳煮烂，一起捣匀做丸子，如梧子大。每服三十丸，白汤送下。</t>
+          <t>用上方（十枣汤）加大黄、甘草五物各一两，大枣十枚，同煮，如上法服。另方：药中再加硭硝一两。</t>
         </is>
       </c>
     </row>
@@ -72951,12 +72951,12 @@
       </c>
       <c r="B4271" t="inlineStr">
         <is>
-          <t>水肿</t>
+          <t>突发咳嗽</t>
         </is>
       </c>
       <c r="C4271" t="inlineStr">
         <is>
-          <t>用上方（十枣汤）加大黄、甘草五物各一两，大枣十枚，同煮，如上法服。另方：药中再加硭硝一两。</t>
+          <t>用芫花一升，加水三升煮汁一升，以枣十四枚，放入汁中煮干，一天吃五枚，必愈。</t>
         </is>
       </c>
     </row>
@@ -72968,12 +72968,12 @@
       </c>
       <c r="B4272" t="inlineStr">
         <is>
-          <t>突发咳嗽</t>
+          <t>牙痛难忍，诸药不效</t>
         </is>
       </c>
       <c r="C4272" t="inlineStr">
         <is>
-          <t>用芫花一升，加水三升煮汁一升，以枣十四枚，放入汁中煮干，一天吃五枚，必愈。</t>
+          <t>用芫花末擦牙令热。痛定后，以温水漱口。</t>
         </is>
       </c>
     </row>
@@ -72985,12 +72985,12 @@
       </c>
       <c r="B4273" t="inlineStr">
         <is>
-          <t>牙痛难忍，诸药不效</t>
+          <t>痈肿初起</t>
         </is>
       </c>
       <c r="C4273" t="inlineStr">
         <is>
-          <t>用芫花末擦牙令热。痛定后，以温水漱口。</t>
+          <t>用芫花末和胶涂搽。</t>
         </is>
       </c>
     </row>
@@ -73002,12 +73002,12 @@
       </c>
       <c r="B4274" t="inlineStr">
         <is>
-          <t>痈肿初起</t>
+          <t>痔疮</t>
         </is>
       </c>
       <c r="C4274" t="inlineStr">
         <is>
-          <t>用芫花末和胶涂搽。</t>
+          <t>用芫根一把，捣烂，慢火煎成膏，将丝线于膏内度过，以线系痔，当有微痛的感觉。等痔疮干落后，即以纸捻蘸膏纳入肛门中，可以便痔疮断根。另方：只捣汁浸线一夜即用，不必熬膏。</t>
         </is>
       </c>
     </row>
@@ -73019,29 +73019,29 @@
       </c>
       <c r="B4275" t="inlineStr">
         <is>
-          <t>痔疮</t>
+          <t>子宫结块，月经不通</t>
         </is>
       </c>
       <c r="C4275" t="inlineStr">
         <is>
-          <t>用芫根一把，捣烂，慢火煎成膏，将丝线于膏内度过，以线系痔，当有微痛的感觉。等痔疮干落后，即以纸捻蘸膏纳入肛门中，可以便痔疮断根。另方：只捣汁浸线一夜即用，不必熬膏。</t>
+          <t>用芫花根三两，锉细，炒黄，研为末。每服一钱，桃仁煎汤调下。泻下恶物即愈。</t>
         </is>
       </c>
     </row>
     <row r="4276">
       <c r="A4276" t="inlineStr">
         <is>
-          <t>芫花</t>
+          <t>黄药子</t>
         </is>
       </c>
       <c r="B4276" t="inlineStr">
         <is>
-          <t>子宫结块，月经不通</t>
+          <t>咯血、吐血</t>
         </is>
       </c>
       <c r="C4276" t="inlineStr">
         <is>
-          <t>用芫花根三两，锉细，炒黄，研为末。每服一钱，桃仁煎汤调下。泻下恶物即愈。</t>
+          <t>用蒲黄、黄药子，等分为末，放手掌上，频频舐食。又方：用黄药子、汉防已各一两，共研为末。每服一钱，饭后服，小麦汤调下。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -73053,12 +73053,12 @@
       </c>
       <c r="B4277" t="inlineStr">
         <is>
-          <t>咯血、吐血</t>
+          <t>天泡水疮</t>
         </is>
       </c>
       <c r="C4277" t="inlineStr">
         <is>
-          <t>用蒲黄、黄药子，等分为末，放手掌上，频频舐食。又方：用黄药子、汉防已各一两，共研为末。每服一钱，饭后服，小麦汤调下。一天服二次。</t>
+          <t>用黄药子研末涂搽。</t>
         </is>
       </c>
     </row>
@@ -73070,63 +73070,63 @@
       </c>
       <c r="B4278" t="inlineStr">
         <is>
-          <t>天泡水疮</t>
+          <t>项瘿</t>
         </is>
       </c>
       <c r="C4278" t="inlineStr">
         <is>
-          <t>用黄药子研末涂搽。</t>
+          <t>用黄药子一斤，洗净，锉细，泡酒一斗，每日早晚饮酒一杯。忌一切毒物，并须戒怒。</t>
         </is>
       </c>
     </row>
     <row r="4279">
       <c r="A4279" t="inlineStr">
         <is>
-          <t>黄药子</t>
+          <t>九香虫</t>
         </is>
       </c>
       <c r="B4279" t="inlineStr">
         <is>
-          <t>项瘿</t>
+          <t>膈脘滞气，脾肾亏损，元阳不足</t>
         </is>
       </c>
       <c r="C4279" t="inlineStr">
         <is>
-          <t>用黄药子一斤，洗净，锉细，泡酒一斗，每日早晚饮酒一杯。忌一切毒物，并须戒怒。</t>
+          <t>用九香虫一两（半生焙），车前子（微炒）、陈桔皮各四钱，白术（焙）五钱，杜仲（酥炙）八钱，人研为末，加炼蜜做成丸子，如梧子大。每服一钱五分，以盐开水或盐酒磅下，早晚各服一次。</t>
         </is>
       </c>
     </row>
     <row r="4280">
       <c r="A4280" t="inlineStr">
         <is>
-          <t>九香虫</t>
+          <t>及己</t>
         </is>
       </c>
       <c r="B4280" t="inlineStr">
         <is>
-          <t>膈脘滞气，脾肾亏损，元阳不足</t>
+          <t>各种恶疮、疥痂、瘘蚀、皮肤虫痒等</t>
         </is>
       </c>
       <c r="C4280" t="inlineStr">
         <is>
-          <t>用九香虫一两（半生焙），车前子（微炒）、陈桔皮各四钱，白术（焙）五钱，杜仲（酥炙）八钱，人研为末，加炼蜜做成丸子，如梧子大。每服一钱五分，以盐开水或盐酒磅下，早晚各服一次。</t>
+          <t>用及已煎汁浸洗。</t>
         </is>
       </c>
     </row>
     <row r="4281">
       <c r="A4281" t="inlineStr">
         <is>
-          <t>及己</t>
+          <t>空青</t>
         </is>
       </c>
       <c r="B4281" t="inlineStr">
         <is>
-          <t>各种恶疮、疥痂、瘘蚀、皮肤虫痒等</t>
+          <t>各种目疾（雀目、赤目、青盲、内外障翳、风眼等）</t>
         </is>
       </c>
       <c r="C4281" t="inlineStr">
         <is>
-          <t>用及已煎汁浸洗。</t>
+          <t>用空青（洗净）、胡黄连（洗）各二钱半，先取槐芽（天未明时乘露采得）适量，装于青竹筒内，悬挂起来，等候干燥。干后研细，取一钱半，与空青、胡黄连共研为末，再加龙脑少许，收存备用。病人每于睡前漱口后，仰头让人吹此药入两鼻内，随即安睡。效果显著。</t>
         </is>
       </c>
     </row>
@@ -73138,12 +73138,12 @@
       </c>
       <c r="B4282" t="inlineStr">
         <is>
-          <t>各种目疾（雀目、赤目、青盲、内外障翳、风眼等）</t>
+          <t>眼睛昏花不明</t>
         </is>
       </c>
       <c r="C4282" t="inlineStr">
         <is>
-          <t>用空青（洗净）、胡黄连（洗）各二钱半，先取槐芽（天未明时乘露采得）适量，装于青竹筒内，悬挂起来，等候干燥。干后研细，取一钱半，与空青、胡黄连共研为末，再加龙脑少许，收存备用。病人每于睡前漱口后，仰头让人吹此药入两鼻内，随即安睡。效果显著。</t>
+          <t>用空青少许，露一夜，次日，点眼。</t>
         </is>
       </c>
     </row>
@@ -73155,12 +73155,12 @@
       </c>
       <c r="B4283" t="inlineStr">
         <is>
-          <t>眼睛昏花不明</t>
+          <t>翳障</t>
         </is>
       </c>
       <c r="C4283" t="inlineStr">
         <is>
-          <t>用空青少许，露一夜，次日，点眼。</t>
+          <t>用空青、矾石（烧过）各一两，贝子四枚，共研细，每日点眼。又方：空青二钱，蕤仁（去皮）一两，片脑三钱，共研细，每日点眼。</t>
         </is>
       </c>
     </row>
@@ -73172,29 +73172,29 @@
       </c>
       <c r="B4284" t="inlineStr">
         <is>
-          <t>翳障</t>
+          <t>中风口</t>
         </is>
       </c>
       <c r="C4284" t="inlineStr">
         <is>
-          <t>用空青、矾石（烧过）各一两，贝子四枚，共研细，每日点眼。又方：空青二钱，蕤仁（去皮）一两，片脑三钱，共研细，每日点眼。</t>
+          <t>用豆大的空青一粒含口中，甚见效。</t>
         </is>
       </c>
     </row>
     <row r="4285">
       <c r="A4285" t="inlineStr">
         <is>
-          <t>空青</t>
+          <t>盐麸子</t>
         </is>
       </c>
       <c r="B4285" t="inlineStr">
         <is>
-          <t>中风口</t>
+          <t>骨鲠</t>
         </is>
       </c>
       <c r="C4285" t="inlineStr">
         <is>
-          <t>用豆大的空青一粒含口中，甚见效。</t>
+          <t>盐麸子根白皮加醋煎浓汁含吞，能治。</t>
         </is>
       </c>
     </row>
@@ -73206,29 +73206,29 @@
       </c>
       <c r="B4286" t="inlineStr">
         <is>
-          <t>骨鲠</t>
+          <t>蛔虫</t>
         </is>
       </c>
       <c r="C4286" t="inlineStr">
         <is>
-          <t>盐麸子根白皮加醋煎浓汁含吞，能治。</t>
+          <t>盐麸子的树白皮，以水煎服。</t>
         </is>
       </c>
     </row>
     <row r="4287">
       <c r="A4287" t="inlineStr">
         <is>
-          <t>盐麸子</t>
+          <t>浆水</t>
         </is>
       </c>
       <c r="B4287" t="inlineStr">
         <is>
-          <t>蛔虫</t>
+          <t>骨鲠在咽</t>
         </is>
       </c>
       <c r="C4287" t="inlineStr">
         <is>
-          <t>盐麸子的树白皮，以水煎服。</t>
+          <t>慈石经火煅醋淬后，加焙过的陈橘红和多年浆水脚，做成丸子，如芡子大，每次含咽一丸。</t>
         </is>
       </c>
     </row>
@@ -73240,12 +73240,12 @@
       </c>
       <c r="B4288" t="inlineStr">
         <is>
-          <t>骨鲠在咽</t>
+          <t>过食腊肉，致筋痛肚闷</t>
         </is>
       </c>
       <c r="C4288" t="inlineStr">
         <is>
-          <t>慈石经火煅醋淬后，加焙过的陈橘红和多年浆水脚，做成丸子，如芡子大，每次含咽一丸。</t>
+          <t>浆水煎粥吃，加少量老鹰屎，效果更好。</t>
         </is>
       </c>
     </row>
@@ -73257,12 +73257,12 @@
       </c>
       <c r="B4289" t="inlineStr">
         <is>
-          <t>过食腊肉，致筋痛肚闷</t>
+          <t>脸上黑痣</t>
         </is>
       </c>
       <c r="C4289" t="inlineStr">
         <is>
-          <t>浆水煎粥吃，加少量老鹰屎，效果更好。</t>
+          <t>每夜用热的浆水洗脸，再用布揩红，以白檀香磨汁涂擦。</t>
         </is>
       </c>
     </row>
@@ -73274,12 +73274,12 @@
       </c>
       <c r="B4290" t="inlineStr">
         <is>
-          <t>脸上黑痣</t>
+          <t>上吐下泻</t>
         </is>
       </c>
       <c r="C4290" t="inlineStr">
         <is>
-          <t>每夜用热的浆水洗脸，再用布揩红，以白檀香磨汁涂擦。</t>
+          <t>浆水煎干姜饮用。</t>
         </is>
       </c>
     </row>
@@ -73291,29 +73291,29 @@
       </c>
       <c r="B4291" t="inlineStr">
         <is>
-          <t>上吐下泻</t>
+          <t>手指肿痛</t>
         </is>
       </c>
       <c r="C4291" t="inlineStr">
         <is>
-          <t>浆水煎干姜饮用。</t>
+          <t>浆水加盐泡患处，水冷应换热。</t>
         </is>
       </c>
     </row>
     <row r="4292">
       <c r="A4292" t="inlineStr">
         <is>
-          <t>浆水</t>
+          <t>土茯苓</t>
         </is>
       </c>
       <c r="B4292" t="inlineStr">
         <is>
-          <t>手指肿痛</t>
+          <t>骨挛痈漏（筋骨疼痛，溃烂成痈，积年累月，终身成为废疾）</t>
         </is>
       </c>
       <c r="C4292" t="inlineStr">
         <is>
-          <t>浆水加盐泡患处，水冷应换热。</t>
+          <t>用土茯苓一两，有热加黄苓、黄连，气虚加四君子汤，血虚加四物汤，煎水代茶饮。又方：用土茯苓四两、四物汤一两、皂角子七个、川椒四十九粒、灯心七根，煎水代茶饮。</t>
         </is>
       </c>
     </row>
@@ -73325,12 +73325,12 @@
       </c>
       <c r="B4293" t="inlineStr">
         <is>
-          <t>骨挛痈漏（筋骨疼痛，溃烂成痈，积年累月，终身成为废疾）</t>
+          <t>瘰疬溃烂</t>
         </is>
       </c>
       <c r="C4293" t="inlineStr">
         <is>
-          <t>用土茯苓一两，有热加黄苓、黄连，气虚加四君子汤，血虚加四物汤，煎水代茶饮。又方：用土茯苓四两、四物汤一两、皂角子七个、川椒四十九粒、灯心七根，煎水代茶饮。</t>
+          <t>用土茯苓切片，或研为末，水煎服，或加在粥内吃下。多吃为好。</t>
         </is>
       </c>
     </row>
@@ -73342,29 +73342,29 @@
       </c>
       <c r="B4294" t="inlineStr">
         <is>
-          <t>瘰疬溃烂</t>
+          <t>梅毒</t>
         </is>
       </c>
       <c r="C4294" t="inlineStr">
         <is>
-          <t>用土茯苓切片，或研为末，水煎服，或加在粥内吃下。多吃为好。</t>
+          <t>用土茯苓四两、皂角子七个，煎水代茶饮。</t>
         </is>
       </c>
     </row>
     <row r="4295">
       <c r="A4295" t="inlineStr">
         <is>
-          <t>土茯苓</t>
+          <t>自然铜</t>
         </is>
       </c>
       <c r="B4295" t="inlineStr">
         <is>
-          <t>梅毒</t>
+          <t>骨折</t>
         </is>
       </c>
       <c r="C4295" t="inlineStr">
         <is>
-          <t>用土茯苓四两、皂角子七个，煎水代茶饮。</t>
+          <t>用自然铜磨酒服或用铜屑和酒服，均有效，但骨接之后，不可常服。</t>
         </is>
       </c>
     </row>
@@ -73376,12 +73376,12 @@
       </c>
       <c r="B4296" t="inlineStr">
         <is>
-          <t>骨折</t>
+          <t>暑湿瘫痪</t>
         </is>
       </c>
       <c r="C4296" t="inlineStr">
         <is>
-          <t>用自然铜磨酒服或用铜屑和酒服，均有效，但骨接之后，不可常服。</t>
+          <t>用自然铜烧红，酒浸一夜，加炮过的川乌头，五灵脂、苍术（酒浸）各一两，当归二钱，共浸酒里。浸后取出，做成丸子，如梧子大。每服七丸，酒送下。吃到四肢麻木，是瘫痪快好的表现，可以停止服药。</t>
         </is>
       </c>
     </row>
@@ -73393,12 +73393,12 @@
       </c>
       <c r="B4297" t="inlineStr">
         <is>
-          <t>暑湿瘫痪</t>
+          <t>项下气瘿（项下皮肤，伸张成囊，囊内不是水，而是气）</t>
         </is>
       </c>
       <c r="C4297" t="inlineStr">
         <is>
-          <t>用自然铜烧红，酒浸一夜，加炮过的川乌头，五灵脂、苍术（酒浸）各一两，当归二钱，共浸酒里。浸后取出，做成丸子，如梧子大。每服七丸，酒送下。吃到四肢麻木，是瘫痪快好的表现，可以停止服药。</t>
+          <t>用自然铜丢在水缸里，每天饮食，都用此水。日久，气瘿自消。或把自然铜烧成烟气，张口吸入亦可。</t>
         </is>
       </c>
     </row>
@@ -73410,29 +73410,29 @@
       </c>
       <c r="B4298" t="inlineStr">
         <is>
-          <t>项下气瘿（项下皮肤，伸张成囊，囊内不是水，而是气）</t>
+          <t>心气痛</t>
         </is>
       </c>
       <c r="C4298" t="inlineStr">
         <is>
-          <t>用自然铜丢在水缸里，每天饮食，都用此水。日久，气瘿自消。或把自然铜烧成烟气，张口吸入亦可。</t>
+          <t>用自然铜，先经火煅（即烧红），然后醋淬（即蘸醋酒上去，令红消热退），淬后又煅，反复九次，最后研为细末。每次取一小提撮，调醋服。</t>
         </is>
       </c>
     </row>
     <row r="4299">
       <c r="A4299" t="inlineStr">
         <is>
-          <t>自然铜</t>
+          <t>安息香</t>
         </is>
       </c>
       <c r="B4299" t="inlineStr">
         <is>
-          <t>心气痛</t>
+          <t>关节风痛</t>
         </is>
       </c>
       <c r="C4299" t="inlineStr">
         <is>
-          <t>用自然铜，先经火煅（即烧红），然后醋淬（即蘸醋酒上去，令红消热退），淬后又煅，反复九次，最后研为细末。每次取一小提撮，调醋服。</t>
+          <t>用精猪肉四两，切片，裹安息香二两，另以瓶装一层灰。药放灰上，在大火上（火与瓶之间隔一铜板）烧出烟，即将瓶口对痛处熏治，勿令烟散走。</t>
         </is>
       </c>
     </row>
@@ -73444,12 +73444,12 @@
       </c>
       <c r="B4300" t="inlineStr">
         <is>
-          <t>关节风痛</t>
+          <t>突然心痛</t>
         </is>
       </c>
       <c r="C4300" t="inlineStr">
         <is>
-          <t>用精猪肉四两，切片，裹安息香二两，另以瓶装一层灰。药放灰上，在大火上（火与瓶之间隔一铜板）烧出烟，即将瓶口对痛处熏治，勿令烟散走。</t>
+          <t>或时发时止。有安息香研为末，开水送服半钱。</t>
         </is>
       </c>
     </row>
@@ -73461,29 +73461,29 @@
       </c>
       <c r="B4301" t="inlineStr">
         <is>
-          <t>突然心痛</t>
+          <t>小儿肚痛</t>
         </is>
       </c>
       <c r="C4301" t="inlineStr">
         <is>
-          <t>或时发时止。有安息香研为末，开水送服半钱。</t>
+          <t>用安息香酒蒸成膏，另用沉香、木香、丁香、霍香、八角茴香各三钱，香附子、缩砂仁、炙甘草各五钱，共研为末，以膏和炼蜜调各药做成丸子，如芡子大。每服一丸，紫苏汤化下。此方名“安息香丸”。</t>
         </is>
       </c>
     </row>
     <row r="4302">
       <c r="A4302" t="inlineStr">
         <is>
-          <t>安息香</t>
+          <t>冬霜</t>
         </is>
       </c>
       <c r="B4302" t="inlineStr">
         <is>
-          <t>小儿肚痛</t>
+          <t>寒热疟疾</t>
         </is>
       </c>
       <c r="C4302" t="inlineStr">
         <is>
-          <t>用安息香酒蒸成膏，另用沉香、木香、丁香、霍香、八角茴香各三钱，香附子、缩砂仁、炙甘草各五钱，共研为末，以膏和炼蜜调各药做成丸子，如芡子大。每服一丸，紫苏汤化下。此方名“安息香丸”。</t>
+          <t>可秋后霜或冬霜一昆钱半，热酒送下，亦见效。</t>
         </is>
       </c>
     </row>
@@ -73495,12 +73495,12 @@
       </c>
       <c r="B4303" t="inlineStr">
         <is>
-          <t>寒热疟疾</t>
+          <t>酒后面热耳赤</t>
         </is>
       </c>
       <c r="C4303" t="inlineStr">
         <is>
-          <t>可秋后霜或冬霜一昆钱半，热酒送下，亦见效。</t>
+          <t>饮冬霜可解酒热，饮之立消。</t>
         </is>
       </c>
     </row>
@@ -73512,12 +73512,12 @@
       </c>
       <c r="B4304" t="inlineStr">
         <is>
-          <t>酒后面热耳赤</t>
+          <t>伤寒鼻塞</t>
         </is>
       </c>
       <c r="C4304" t="inlineStr">
         <is>
-          <t>饮冬霜可解酒热，饮之立消。</t>
+          <t>饮冬霜亦可通鼻。</t>
         </is>
       </c>
     </row>
@@ -73529,29 +73529,29 @@
       </c>
       <c r="B4305" t="inlineStr">
         <is>
-          <t>伤寒鼻塞</t>
+          <t>暑天长痱子及腋下红肿</t>
         </is>
       </c>
       <c r="C4305" t="inlineStr">
         <is>
-          <t>饮冬霜亦可通鼻。</t>
+          <t>用冬霜和蚌粉涂敷，有效。</t>
         </is>
       </c>
     </row>
     <row r="4306">
       <c r="A4306" t="inlineStr">
         <is>
-          <t>冬霜</t>
+          <t>丹参</t>
         </is>
       </c>
       <c r="B4306" t="inlineStr">
         <is>
-          <t>暑天长痱子及腋下红肿</t>
+          <t>寒疝腹痛（小腹和阴部牵引痛）</t>
         </is>
       </c>
       <c r="C4306" t="inlineStr">
         <is>
-          <t>用冬霜和蚌粉涂敷，有效。</t>
+          <t>用丹参一两，研细。每服二钱，热酒调下。</t>
         </is>
       </c>
     </row>
@@ -73563,12 +73563,12 @@
       </c>
       <c r="B4307" t="inlineStr">
         <is>
-          <t>寒疝腹痛（小腹和阴部牵引痛）</t>
+          <t>热油烫伤与火伤</t>
         </is>
       </c>
       <c r="C4307" t="inlineStr">
         <is>
-          <t>用丹参一两，研细。每服二钱，热酒调下。</t>
+          <t>用丹参八两，锉碎，加水稍稍调拌，放入羊油二斤中煎过。取以涂伤处。</t>
         </is>
       </c>
     </row>
@@ -73580,12 +73580,12 @@
       </c>
       <c r="B4308" t="inlineStr">
         <is>
-          <t>热油烫伤与火伤</t>
+          <t>乳痈</t>
         </is>
       </c>
       <c r="C4308" t="inlineStr">
         <is>
-          <t>用丹参八两，锉碎，加水稍稍调拌，放入羊油二斤中煎过。取以涂伤处。</t>
+          <t>用丹参、白芷、芍药各二钱，口咬细，醋淹一夜，加猪油半斤，微火煎成膏。去渣，取浓汁敷乳上。</t>
         </is>
       </c>
     </row>
@@ -73597,12 +73597,12 @@
       </c>
       <c r="B4309" t="inlineStr">
         <is>
-          <t>乳痈</t>
+          <t>小儿惊发热</t>
         </is>
       </c>
       <c r="C4309" t="inlineStr">
         <is>
-          <t>用丹参、白芷、芍药各二钱，口咬细，醋淹一夜，加猪油半斤，微火煎成膏。去渣，取浓汁敷乳上。</t>
+          <t>用丹参、雷丸各半两，与猪油二两，同煎几次，去渣，取汁收存。用时，摩汁在儿身。此方称“丹参摩膏”。</t>
         </is>
       </c>
     </row>
@@ -73614,12 +73614,12 @@
       </c>
       <c r="B4310" t="inlineStr">
         <is>
-          <t>小儿惊发热</t>
+          <t>小科下血</t>
         </is>
       </c>
       <c r="C4310" t="inlineStr">
         <is>
-          <t>用丹参、雷丸各半两，与猪油二两，同煎几次，去渣，取汁收存。用时，摩汁在儿身。此方称“丹参摩膏”。</t>
+          <t>用丹参十二两，加酒五升，煮成三升。每次温服一升，一日服三次。不能饮酒者，可用水煎服。</t>
         </is>
       </c>
     </row>
@@ -73631,29 +73631,29 @@
       </c>
       <c r="B4311" t="inlineStr">
         <is>
-          <t>小科下血</t>
+          <t>月经不调，产前胎动，产后恶血不下，冷热劳，腰脊痛，骨节烦疼等症</t>
         </is>
       </c>
       <c r="C4311" t="inlineStr">
         <is>
-          <t>用丹参十二两，加酒五升，煮成三升。每次温服一升，一日服三次。不能饮酒者，可用水煎服。</t>
+          <t>用丹参洗净，切片，晒干，研细。每服二钱，温酒调下。此方称“丹参散”。</t>
         </is>
       </c>
     </row>
     <row r="4312">
       <c r="A4312" t="inlineStr">
         <is>
-          <t>丹参</t>
+          <t>胡芦巴</t>
         </is>
       </c>
       <c r="B4312" t="inlineStr">
         <is>
-          <t>月经不调，产前胎动，产后恶血不下，冷热劳，腰脊痛，骨节烦疼等症</t>
+          <t>寒湿脚气（腿膝疼痛，行走无力）</t>
         </is>
       </c>
       <c r="C4312" t="inlineStr">
         <is>
-          <t>用丹参洗净，切片，晒干，研细。每服二钱，温酒调下。此方称“丹参散”。</t>
+          <t>用胡芦巴（酒浸一夜后焙干）、破故纸（炒香）各四两，共研为末；另取木瓜一个，切顶去瓤，放药入瓜内填满，将顶合上，蒸至极熟，然后捣烂做成丸子，如梧子大。每服七十丸，空心服，温酒送下。</t>
         </is>
       </c>
     </row>
@@ -73665,12 +73665,12 @@
       </c>
       <c r="B4313" t="inlineStr">
         <is>
-          <t>寒湿脚气（腿膝疼痛，行走无力）</t>
+          <t>偏坠或小肠疝气</t>
         </is>
       </c>
       <c r="C4313" t="inlineStr">
         <is>
-          <t>用胡芦巴（酒浸一夜后焙干）、破故纸（炒香）各四两，共研为末；另取木瓜一个，切顶去瓤，放药入瓜内填满，将顶合上，蒸至极熟，然后捣烂做成丸子，如梧子大。每服七十丸，空心服，温酒送下。</t>
+          <t>用沉香、木香各半两，胡芦巴（酒浸，炒）、小茴香（炒）各二两，共研为末，加酒、糊和成丸子，如梧子大。每服五十至七十丸，盐酒送下。此方名“沉香内消丸”。</t>
         </is>
       </c>
     </row>
@@ -73682,12 +73682,12 @@
       </c>
       <c r="B4314" t="inlineStr">
         <is>
-          <t>偏坠或小肠疝气</t>
+          <t>疝瘕</t>
         </is>
       </c>
       <c r="C4314" t="inlineStr">
         <is>
-          <t>用沉香、木香各半两，胡芦巴（酒浸，炒）、小茴香（炒）各二两，共研为末，加酒、糊和成丸子，如梧子大。每服五十至七十丸，盐酒送下。此方名“沉香内消丸”。</t>
+          <t>用胡芦巴（酒浸，晒）四两、荞麦面（炒）四两、小茴香一两，共研为末，加酒、糊和成丸子，如梧子大。每服五十丸，空心服，盐酒或盐汤送下。服至两月后，大便出血脓，表示病根已经除去。</t>
         </is>
       </c>
     </row>
@@ -73699,12 +73699,12 @@
       </c>
       <c r="B4315" t="inlineStr">
         <is>
-          <t>疝瘕</t>
+          <t>肾脏虚冷，腹胁胀满</t>
         </is>
       </c>
       <c r="C4315" t="inlineStr">
         <is>
-          <t>用胡芦巴（酒浸，晒）四两、荞麦面（炒）四两、小茴香一两，共研为末，加酒、糊和成丸子，如梧子大。每服五十丸，空心服，盐酒或盐汤送下。服至两月后，大便出血脓，表示病根已经除去。</t>
+          <t>用胡芦巴（炒）二两，熟附子、硫磺各七钱五分，共研为末，加酒煎曲糊做成丸子，如梧子大。每服三十至四十丸，盐汤送下。</t>
         </is>
       </c>
     </row>
@@ -73716,12 +73716,12 @@
       </c>
       <c r="B4316" t="inlineStr">
         <is>
-          <t>肾脏虚冷，腹胁胀满</t>
+          <t>小肠气痛</t>
         </is>
       </c>
       <c r="C4316" t="inlineStr">
         <is>
-          <t>用胡芦巴（炒）二两，熟附子、硫磺各七钱五分，共研为末，加酒煎曲糊做成丸子，如梧子大。每服三十至四十丸，盐汤送下。</t>
+          <t>用胡芦巴炒过，研细。每服二钱，茴香酒送下。</t>
         </is>
       </c>
     </row>
@@ -73733,29 +73733,29 @@
       </c>
       <c r="B4317" t="inlineStr">
         <is>
-          <t>小肠气痛</t>
+          <t>小腹有可动硬块，痛不可忍</t>
         </is>
       </c>
       <c r="C4317" t="inlineStr">
         <is>
-          <t>用胡芦巴炒过，研细。每服二钱，茴香酒送下。</t>
+          <t>用胡芦巴八钱，茴香六钱，巴戟（去心）、川乌头（炮，去皮）各二钱，楝实（去核）四钱，吴茱萸五钱，一起炒成细末，加酒、糊做成丸子，如梧子大。每服十五丸，小儿五丸，盐酒送下。</t>
         </is>
       </c>
     </row>
     <row r="4318">
       <c r="A4318" t="inlineStr">
         <is>
-          <t>胡芦巴</t>
+          <t>肉苁蓉</t>
         </is>
       </c>
       <c r="B4318" t="inlineStr">
         <is>
-          <t>小腹有可动硬块，痛不可忍</t>
+          <t>汗多便秘（年老或体虚的病人）</t>
         </is>
       </c>
       <c r="C4318" t="inlineStr">
         <is>
-          <t>用胡芦巴八钱，茴香六钱，巴戟（去心）、川乌头（炮，去皮）各二钱，楝实（去核）四钱，吴茱萸五钱，一起炒成细末，加酒、糊做成丸子，如梧子大。每服十五丸，小儿五丸，盐酒送下。</t>
+          <t>用肉苁蓉（酒浸，焙过）二两、沉香末一两，共研为末。加麻子杜汁糊成丸子，如梧子大。每服七、八丸。白开水送下。</t>
         </is>
       </c>
     </row>
@@ -73767,12 +73767,12 @@
       </c>
       <c r="B4319" t="inlineStr">
         <is>
-          <t>汗多便秘（年老或体虚的病人）</t>
+          <t>劳伤，精败面黑</t>
         </is>
       </c>
       <c r="C4319" t="inlineStr">
         <is>
-          <t>用肉苁蓉（酒浸，焙过）二两、沉香末一两，共研为末。加麻子杜汁糊成丸子，如梧子大。每服七、八丸。白开水送下。</t>
+          <t>用肉苁蓉四两，水煮烂，切薄研细，炖羊肉吃。</t>
         </is>
       </c>
     </row>
@@ -73784,12 +73784,12 @@
       </c>
       <c r="B4320" t="inlineStr">
         <is>
-          <t>劳伤，精败面黑</t>
+          <t>破伤风（口禁，身强直）</t>
         </is>
       </c>
       <c r="C4320" t="inlineStr">
         <is>
-          <t>用肉苁蓉四两，水煮烂，切薄研细，炖羊肉吃。</t>
+          <t>用肉苁蓉切片晒干，烧成烟熏伤处，累效。</t>
         </is>
       </c>
     </row>
@@ -73801,12 +73801,12 @@
       </c>
       <c r="B4321" t="inlineStr">
         <is>
-          <t>破伤风（口禁，身强直）</t>
+          <t>肾虚白浊</t>
         </is>
       </c>
       <c r="C4321" t="inlineStr">
         <is>
-          <t>用肉苁蓉切片晒干，烧成烟熏伤处，累效。</t>
+          <t>用肉苁蓉、鹿茸、山药、白茯苓，等分为末，加米糊做成丸子，如梧子大，每服三十丸，枣汤送下。</t>
         </is>
       </c>
     </row>
@@ -73818,29 +73818,29 @@
       </c>
       <c r="B4322" t="inlineStr">
         <is>
-          <t>肾虚白浊</t>
+          <t>消中易饥（按：患此病者常多食，但身体很消瘦）</t>
         </is>
       </c>
       <c r="C4322" t="inlineStr">
         <is>
-          <t>用肉苁蓉、鹿茸、山药、白茯苓，等分为末，加米糊做成丸子，如梧子大，每服三十丸，枣汤送下。</t>
+          <t>用肉苁蓉、山萸、五味子等分，共研为末，加蜜做成丸子，如梧子大。每服二十丸，盐酒送下。</t>
         </is>
       </c>
     </row>
     <row r="4323">
       <c r="A4323" t="inlineStr">
         <is>
-          <t>肉苁蓉</t>
+          <t>樗鸡</t>
         </is>
       </c>
       <c r="B4323" t="inlineStr">
         <is>
-          <t>消中易饥（按：患此病者常多食，但身体很消瘦）</t>
+          <t>横痃便毒</t>
         </is>
       </c>
       <c r="C4323" t="inlineStr">
         <is>
-          <t>用肉苁蓉、山萸、五味子等分，共研为末，加蜜做成丸子，如梧子大。每服二十丸，盐酒送下。</t>
+          <t>用鸡蛋一个，开孔，放入樗鸡六个，纸饮煨熟。去樗鸡，只吃鸡蛋，酒送下。</t>
         </is>
       </c>
     </row>
@@ -73852,12 +73852,12 @@
       </c>
       <c r="B4324" t="inlineStr">
         <is>
-          <t>横痃便毒</t>
+          <t>瘰疬结核</t>
         </is>
       </c>
       <c r="C4324" t="inlineStr">
         <is>
-          <t>用鸡蛋一个，开孔，放入樗鸡六个，纸饮煨熟。去樗鸡，只吃鸡蛋，酒送下。</t>
+          <t>用樗鸡十四枚，乳香、砒霜各一钱，硇砂残半，黄丹五分，共研为末，加糯米粥和药作饼，贴患处。一月病愈。</t>
         </is>
       </c>
     </row>
@@ -73869,29 +73869,29 @@
       </c>
       <c r="B4325" t="inlineStr">
         <is>
-          <t>瘰疬结核</t>
+          <t>子宫虚寒，月经不调</t>
         </is>
       </c>
       <c r="C4325" t="inlineStr">
         <is>
-          <t>用樗鸡十四枚，乳香、砒霜各一钱，硇砂残半，黄丹五分，共研为末，加糯米粥和药作饼，贴患处。一月病愈。</t>
+          <t>用樗鸡六十枚，大黄、皂荚、葶苈各一两，巴豆一百二十枚，共研为末，加枣肉做成丸子，如弹子大。棉裹塞阴道内，三日取出。每日以鸡蛋三枚、胡椒末二分，同炒吃，酒送下。久则子宫变暖。</t>
         </is>
       </c>
     </row>
     <row r="4326">
       <c r="A4326" t="inlineStr">
         <is>
-          <t>樗鸡</t>
+          <t>络石</t>
         </is>
       </c>
       <c r="B4326" t="inlineStr">
         <is>
-          <t>子宫虚寒，月经不调</t>
+          <t>喉痹肿塞，喘息不通</t>
         </is>
       </c>
       <c r="C4326" t="inlineStr">
         <is>
-          <t>用樗鸡六十枚，大黄、皂荚、葶苈各一两，巴豆一百二十枚，共研为末，加枣肉做成丸子，如弹子大。棉裹塞阴道内，三日取出。每日以鸡蛋三枚、胡椒末二分，同炒吃，酒送下。久则子宫变暖。</t>
+          <t>用络石草一两，加水一升，煎成一大碗，细细饮下。</t>
         </is>
       </c>
     </row>
@@ -73903,12 +73903,12 @@
       </c>
       <c r="B4327" t="inlineStr">
         <is>
-          <t>喉痹肿塞，喘息不通</t>
+          <t>小便白浊</t>
         </is>
       </c>
       <c r="C4327" t="inlineStr">
         <is>
-          <t>用络石草一两，加水一升，煎成一大碗，细细饮下。</t>
+          <t>用络石、人参、茯苓各二两，龙骨（煅）一两，共研为末。每服二钱，空心服，米汤送下。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -73920,29 +73920,29 @@
       </c>
       <c r="B4328" t="inlineStr">
         <is>
-          <t>小便白浊</t>
+          <t>痈疽热痛</t>
         </is>
       </c>
       <c r="C4328" t="inlineStr">
         <is>
-          <t>用络石、人参、茯苓各二两，龙骨（煅）一两，共研为末。每服二钱，空心服，米汤送下。一天服二次。</t>
+          <t>用络石茎叶一两，洗净晒干，皂荚刺一两，新瓦上炒黄，甘草节半两，大栝楼一个（取仁，炒香），乳香、没药各三钱。各药混合后，每取二钱，加水一碗、酒半碗，慢火煎成一碗，温服。</t>
         </is>
       </c>
     </row>
     <row r="4329">
       <c r="A4329" t="inlineStr">
         <is>
-          <t>络石</t>
+          <t>大青</t>
         </is>
       </c>
       <c r="B4329" t="inlineStr">
         <is>
-          <t>痈疽热痛</t>
+          <t>喉风喉痹</t>
         </is>
       </c>
       <c r="C4329" t="inlineStr">
         <is>
-          <t>用络石茎叶一两，洗净晒干，皂荚刺一两，新瓦上炒黄，甘草节半两，大栝楼一个（取仁，炒香），乳香、没药各三钱。各药混合后，每取二钱，加水一碗、酒半碗，慢火煎成一碗，温服。</t>
+          <t>用大青叶捣汁灌服。</t>
         </is>
       </c>
     </row>
@@ -73954,12 +73954,12 @@
       </c>
       <c r="B4330" t="inlineStr">
         <is>
-          <t>喉风喉痹</t>
+          <t>热病发狂</t>
         </is>
       </c>
       <c r="C4330" t="inlineStr">
         <is>
-          <t>用大青叶捣汁灌服。</t>
+          <t>用大青一两，阿胶、甘草各二钱半，鼓二合，分三次煎服。此方名“大青四物汤”。又方：大青七钱半，犀角二钱半，栀子十枚，鼓二撮，分二次煎服（每服以水一碗半，煎至八成）。此方名“犀角大青汤”。</t>
         </is>
       </c>
     </row>
@@ -73971,12 +73971,12 @@
       </c>
       <c r="B4331" t="inlineStr">
         <is>
-          <t>热病发狂</t>
+          <t>热病下痢</t>
         </is>
       </c>
       <c r="C4331" t="inlineStr">
         <is>
-          <t>用大青一两，阿胶、甘草各二钱半，鼓二合，分三次煎服。此方名“大青四物汤”。又方：大青七钱半，犀角二钱半，栀子十枚，鼓二撮，分二次煎服（每服以水一碗半，煎至八成）。此方名“犀角大青汤”。</t>
+          <t>用大青四两，甘草、赤石脂各三两，胶二两，鼓八合，加水一斗，煮成三升，分三次服。此方名“大青汤”。</t>
         </is>
       </c>
     </row>
@@ -73988,29 +73988,29 @@
       </c>
       <c r="B4332" t="inlineStr">
         <is>
-          <t>热病下痢</t>
+          <t>小儿口疮</t>
         </is>
       </c>
       <c r="C4332" t="inlineStr">
         <is>
-          <t>用大青四两，甘草、赤石脂各三两，胶二两，鼓八合，加水一斗，煮成三升，分三次服。此方名“大青汤”。</t>
+          <t>用大青七钱五分、黄连五钱，加水三升，煮成一升服下。一天服二次，病愈为止。</t>
         </is>
       </c>
     </row>
     <row r="4333">
       <c r="A4333" t="inlineStr">
         <is>
-          <t>大青</t>
+          <t>虎掌</t>
         </is>
       </c>
       <c r="B4333" t="inlineStr">
         <is>
-          <t>小儿口疮</t>
+          <t>喉风喉痹</t>
         </is>
       </c>
       <c r="C4333" t="inlineStr">
         <is>
-          <t>用大青七钱五分、黄连五钱，加水三升，煮成一升服下。一天服二次，病愈为止。</t>
+          <t>用天南星一个，挖空，放入白僵蚕七枚，纸包煨熟，研为末，姜汁调服一钱。病重者灌下，吐涎即愈。此方名“如圣散”。</t>
         </is>
       </c>
     </row>
@@ -74022,12 +74022,12 @@
       </c>
       <c r="B4334" t="inlineStr">
         <is>
-          <t>喉风喉痹</t>
+          <t>角弓反张</t>
         </is>
       </c>
       <c r="C4334" t="inlineStr">
         <is>
-          <t>用天南星一个，挖空，放入白僵蚕七枚，纸包煨熟，研为末，姜汁调服一钱。病重者灌下，吐涎即愈。此方名“如圣散”。</t>
+          <t>用天南星、半夏，等分为末，姜汁、竹沥灌下一钱。同时烘炙印堂。</t>
         </is>
       </c>
     </row>
@@ -74039,12 +74039,12 @@
       </c>
       <c r="B4335" t="inlineStr">
         <is>
-          <t>角弓反张</t>
+          <t>口眼斜</t>
         </is>
       </c>
       <c r="C4335" t="inlineStr">
         <is>
-          <t>用天南星、半夏，等分为末，姜汁、竹沥灌下一钱。同时烘炙印堂。</t>
+          <t>用天南星（生）研为末，自然姜汁调匀。病在左，敷右侧；病在右，敷左侧。</t>
         </is>
       </c>
     </row>
@@ -74056,12 +74056,12 @@
       </c>
       <c r="B4336" t="inlineStr">
         <is>
-          <t>口眼斜</t>
+          <t>身面疣子</t>
         </is>
       </c>
       <c r="C4336" t="inlineStr">
         <is>
-          <t>用天南星（生）研为末，自然姜汁调匀。病在左，敷右侧；病在右，敷左侧。</t>
+          <t>用醋调天南星末涂搽。</t>
         </is>
       </c>
     </row>
@@ -74073,12 +74073,12 @@
       </c>
       <c r="B4337" t="inlineStr">
         <is>
-          <t>身面疣子</t>
+          <t>痰迷心窍（心胆被惊，神不守舍，恍惚健忘，妄言妄见）</t>
         </is>
       </c>
       <c r="C4337" t="inlineStr">
         <is>
-          <t>用醋调天南星末涂搽。</t>
+          <t>用天南星一斤，先掘一土坑，以炭火三十斤烧红，倒入酒五升，渗干后，把天南星安放在内，用盆盖住，勿令走气。次日取出研为末，加琥珀一两、朱砂二两，共研细，以生姜汁调面将药做成丸子，如梧子大。每服三十至五十丸，煎人参、石菖蒲汤送下。一天服三次此方名“寿星丸”。</t>
         </is>
       </c>
     </row>
@@ -74090,12 +74090,12 @@
       </c>
       <c r="B4338" t="inlineStr">
         <is>
-          <t>痰迷心窍（心胆被惊，神不守舍，恍惚健忘，妄言妄见）</t>
+          <t>吐泄不止，四肢厥逆，甚至不省人事</t>
         </is>
       </c>
       <c r="C4338" t="inlineStr">
         <is>
-          <t>用天南星一斤，先掘一土坑，以炭火三十斤烧红，倒入酒五升，渗干后，把天南星安放在内，用盆盖住，勿令走气。次日取出研为末，加琥珀一两、朱砂二两，共研细，以生姜汁调面将药做成丸子，如梧子大。每服三十至五十丸，煎人参、石菖蒲汤送下。一天服三次此方名“寿星丸”。</t>
+          <t>用天南星研为末，每服三钱，加枣二枚，水二盅，煎取八成，温服。无效，可再服。此方名“回阳散”。</t>
         </is>
       </c>
     </row>
@@ -74107,12 +74107,12 @@
       </c>
       <c r="B4339" t="inlineStr">
         <is>
-          <t>吐泄不止，四肢厥逆，甚至不省人事</t>
+          <t>下颚脱</t>
         </is>
       </c>
       <c r="C4339" t="inlineStr">
         <is>
-          <t>用天南星研为末，每服三钱，加枣二枚，水二盅，煎取八成，温服。无效，可再服。此方名“回阳散”。</t>
+          <t>用天南星末，调姜汁涂两颊，一夜即能使关节处长原。</t>
         </is>
       </c>
     </row>
@@ -74124,12 +74124,12 @@
       </c>
       <c r="B4340" t="inlineStr">
         <is>
-          <t>下颚脱</t>
+          <t>小儿解颅（囟门不合，鼻塞不通）</t>
         </is>
       </c>
       <c r="C4340" t="inlineStr">
         <is>
-          <t>用天南星末，调姜汁涂两颊，一夜即能使关节处长原。</t>
+          <t>用天南星炮过，去皮，研为末，加淡醋调匀摊布上，贴囟门，再把手烘热，频频在囟门处摩熨。</t>
         </is>
       </c>
     </row>
@@ -74141,12 +74141,12 @@
       </c>
       <c r="B4341" t="inlineStr">
         <is>
-          <t>小儿解颅（囟门不合，鼻塞不通）</t>
+          <t>小儿惊风</t>
         </is>
       </c>
       <c r="C4341" t="inlineStr">
         <is>
-          <t>用天南星炮过，去皮，研为末，加淡醋调匀摊布上，贴囟门，再把手烘热，频频在囟门处摩熨。</t>
+          <t>用一两重的天南星一个，放酒中浸透。取出，安新瓦上，周围用炭火炙裂。放冷，出火毒。研为末，加朱砂一分。每服半钱，荆芥汤调下。每日空心服一次。午时再服一次。此主名“坠涎散”。</t>
         </is>
       </c>
     </row>
@@ -74158,29 +74158,29 @@
       </c>
       <c r="B4342" t="inlineStr">
         <is>
-          <t>小儿惊风</t>
+          <t>中风口噤目闭</t>
         </is>
       </c>
       <c r="C4342" t="inlineStr">
         <is>
-          <t>用一两重的天南星一个，放酒中浸透。取出，安新瓦上，周围用炭火炙裂。放冷，出火毒。研为末，加朱砂一分。每服半钱，荆芥汤调下。每日空心服一次。午时再服一次。此主名“坠涎散”。</t>
+          <t>用天南星研为末，加白龙脑等分，调匀。每次用手指点末擦啮二、三十遍，口自开。此方名“开失散”或“破棺散”。</t>
         </is>
       </c>
     </row>
     <row r="4343">
       <c r="A4343" t="inlineStr">
         <is>
-          <t>虎掌</t>
+          <t>蓑荷</t>
         </is>
       </c>
       <c r="B4343" t="inlineStr">
         <is>
-          <t>中风口噤目闭</t>
+          <t>喉舌疮烂</t>
         </is>
       </c>
       <c r="C4343" t="inlineStr">
         <is>
-          <t>用天南星研为末，加白龙脑等分，调匀。每次用手指点末擦啮二、三十遍，口自开。此方名“开失散”或“破棺散”。</t>
+          <t>用荷根泡酒半日，取汁含漱。</t>
         </is>
       </c>
     </row>
@@ -74192,12 +74192,12 @@
       </c>
       <c r="B4344" t="inlineStr">
         <is>
-          <t>喉舌疮烂</t>
+          <t>伤寒时症（温病初起，头痛，发热，脉盛）</t>
         </is>
       </c>
       <c r="C4344" t="inlineStr">
         <is>
-          <t>用荷根泡酒半日，取汁含漱。</t>
+          <t>用荷根、叶一起捣烂，榨汁服三至四升。</t>
         </is>
       </c>
     </row>
@@ -74209,12 +74209,12 @@
       </c>
       <c r="B4345" t="inlineStr">
         <is>
-          <t>伤寒时症（温病初起，头痛，发热，脉盛）</t>
+          <t>受寒声哑</t>
         </is>
       </c>
       <c r="C4345" t="inlineStr">
         <is>
-          <t>用荷根、叶一起捣烂，榨汁服三至四升。</t>
+          <t>用荷根二两，捣烂取汁，加酒一碗，和匀，细细饮服。</t>
         </is>
       </c>
     </row>
@@ -74226,12 +74226,12 @@
       </c>
       <c r="B4346" t="inlineStr">
         <is>
-          <t>受寒声哑</t>
+          <t>吐血、痔血</t>
         </is>
       </c>
       <c r="C4346" t="inlineStr">
         <is>
-          <t>用荷根二两，捣烂取汁，加酒一碗，和匀，细细饮服。</t>
+          <t>用荷根一把，捣汁三升内服。</t>
         </is>
       </c>
     </row>
@@ -74243,12 +74243,12 @@
       </c>
       <c r="B4347" t="inlineStr">
         <is>
-          <t>吐血、痔血</t>
+          <t>月经不调</t>
         </is>
       </c>
       <c r="C4347" t="inlineStr">
         <is>
-          <t>用荷根一把，捣汁三升内服。</t>
+          <t>用荷根，切细，加水煎取二升，再加一点酒，空心服。</t>
         </is>
       </c>
     </row>
@@ -74260,29 +74260,29 @@
       </c>
       <c r="B4348" t="inlineStr">
         <is>
-          <t>月经不调</t>
+          <t>杂物入目</t>
         </is>
       </c>
       <c r="C4348" t="inlineStr">
         <is>
-          <t>用荷根，切细，加水煎取二升，再加一点酒，空心服。</t>
+          <t>用白荷根取心捣出汁，取汁滴入目中，杂物自出。</t>
         </is>
       </c>
     </row>
     <row r="4349">
       <c r="A4349" t="inlineStr">
         <is>
-          <t>蓑荷</t>
+          <t>萎蕤</t>
         </is>
       </c>
       <c r="B4349" t="inlineStr">
         <is>
-          <t>杂物入目</t>
+          <t>后虚肿</t>
         </is>
       </c>
       <c r="C4349" t="inlineStr">
         <is>
-          <t>用白荷根取心捣出汁，取汁滴入目中，杂物自出。</t>
+          <t>用萎蕤、葵子龙胆、茯苓、前胡，等分为末。每服一钱，水煎服。</t>
         </is>
       </c>
     </row>
@@ -74294,12 +74294,12 @@
       </c>
       <c r="B4350" t="inlineStr">
         <is>
-          <t>后虚肿</t>
+          <t>小便淋</t>
         </is>
       </c>
       <c r="C4350" t="inlineStr">
         <is>
-          <t>用萎蕤、葵子龙胆、茯苓、前胡，等分为末。每服一钱，水煎服。</t>
+          <t>用萎蕤一两、芭蕉根四两、滑石二钱，水煎，分三次服。</t>
         </is>
       </c>
     </row>
@@ -74311,12 +74311,12 @@
       </c>
       <c r="B4351" t="inlineStr">
         <is>
-          <t>小便淋</t>
+          <t>小便涩，发热口干</t>
         </is>
       </c>
       <c r="C4351" t="inlineStr">
         <is>
-          <t>用萎蕤一两、芭蕉根四两、滑石二钱，水煎，分三次服。</t>
+          <t>用萎蕤五两，煎水服。</t>
         </is>
       </c>
     </row>
@@ -74328,12 +74328,12 @@
       </c>
       <c r="B4352" t="inlineStr">
         <is>
-          <t>小便涩，发热口干</t>
+          <t>眼红兼有涩、痛</t>
         </is>
       </c>
       <c r="C4352" t="inlineStr">
         <is>
-          <t>用萎蕤五两，煎水服。</t>
+          <t>用萎蕤、赤芍、当归、黄连等分，煎汤熏洗。</t>
         </is>
       </c>
     </row>
@@ -74345,29 +74345,29 @@
       </c>
       <c r="B4353" t="inlineStr">
         <is>
-          <t>眼红兼有涩、痛</t>
+          <t>眼见黑花，红痛昏暗</t>
         </is>
       </c>
       <c r="C4353" t="inlineStr">
         <is>
-          <t>用萎蕤、赤芍、当归、黄连等分，煎汤熏洗。</t>
+          <t>用萎蕤（焙）四两，每取二钱，略加薄荷、生姜、蜂蜜，同煎汤。睡前温服，一天服一次。此方名“甘露汤”。</t>
         </is>
       </c>
     </row>
     <row r="4354">
       <c r="A4354" t="inlineStr">
         <is>
-          <t>萎蕤</t>
+          <t>茯苓</t>
         </is>
       </c>
       <c r="B4354" t="inlineStr">
         <is>
-          <t>眼见黑花，红痛昏暗</t>
+          <t>滑痢不止</t>
         </is>
       </c>
       <c r="C4354" t="inlineStr">
         <is>
-          <t>用萎蕤（焙）四两，每取二钱，略加薄荷、生姜、蜂蜜，同煎汤。睡前温服，一天服一次。此方名“甘露汤”。</t>
+          <t>用白茯苓一两、木香（煨）半两，共研为末，每服二钱，紫苏木瓜汤送下。</t>
         </is>
       </c>
     </row>
@@ -74379,12 +74379,12 @@
       </c>
       <c r="B4355" t="inlineStr">
         <is>
-          <t>滑痢不止</t>
+          <t>妊娠水肿，小便不利，恶寒</t>
         </is>
       </c>
       <c r="C4355" t="inlineStr">
         <is>
-          <t>用白茯苓一两、木香（煨）半两，共研为末，每服二钱，紫苏木瓜汤送下。</t>
+          <t>用赤茯苓（去皮）、葵子各半两，共研为末。每服二钱，水送下。</t>
         </is>
       </c>
     </row>
@@ -74396,12 +74396,12 @@
       </c>
       <c r="B4356" t="inlineStr">
         <is>
-          <t>妊娠水肿，小便不利，恶寒</t>
+          <t>水肿尿涩</t>
         </is>
       </c>
       <c r="C4356" t="inlineStr">
         <is>
-          <t>用赤茯苓（去皮）、葵子各半两，共研为末。每服二钱，水送下。</t>
+          <t>用茯苓皮、椒目，等分煎汤，每日饮服。有效为止。</t>
         </is>
       </c>
     </row>
@@ -74413,12 +74413,12 @@
       </c>
       <c r="B4357" t="inlineStr">
         <is>
-          <t>水肿尿涩</t>
+          <t>突然耳聋</t>
         </is>
       </c>
       <c r="C4357" t="inlineStr">
         <is>
-          <t>用茯苓皮、椒目，等分煎汤，每日饮服。有效为止。</t>
+          <t>用黄蜡不拘多少，和茯苓末细嚼。茶汤送下。</t>
         </is>
       </c>
     </row>
@@ -74430,12 +74430,12 @@
       </c>
       <c r="B4358" t="inlineStr">
         <is>
-          <t>突然耳聋</t>
+          <t>小便淋沥不禁</t>
         </is>
       </c>
       <c r="C4358" t="inlineStr">
         <is>
-          <t>用黄蜡不拘多少，和茯苓末细嚼。茶汤送下。</t>
+          <t>用白茯苓、示茯苓，等分为末，加不揉洗去筋，控干，以酒煮地黄汁捣成膏调为丸子，如梧子在。每嚼一丸，空心服，盐酒送下。</t>
         </is>
       </c>
     </row>
@@ -74447,12 +74447,12 @@
       </c>
       <c r="B4359" t="inlineStr">
         <is>
-          <t>小便淋沥不禁</t>
+          <t>小便频多</t>
         </is>
       </c>
       <c r="C4359" t="inlineStr">
         <is>
-          <t>用白茯苓、示茯苓，等分为末，加不揉洗去筋，控干，以酒煮地黄汁捣成膏调为丸子，如梧子在。每嚼一丸，空心服，盐酒送下。</t>
+          <t>用白茯苓（去皮）、干山药（去皮），在白矾水中渍过，焙干，等分为末。每服二钱，米汤送下。</t>
         </is>
       </c>
     </row>
@@ -74464,12 +74464,12 @@
       </c>
       <c r="B4360" t="inlineStr">
         <is>
-          <t>小便频多</t>
+          <t>心神不定，恍惚健忘</t>
         </is>
       </c>
       <c r="C4360" t="inlineStr">
         <is>
-          <t>用白茯苓（去皮）、干山药（去皮），在白矾水中渍过，焙干，等分为末。每服二钱，米汤送下。</t>
+          <t>用茯苓二两（去皮）、沉香半两，共研为末，加炼蜜做成丸子，如小豆大。每服三十丸，饭后服，人参汤送下。</t>
         </is>
       </c>
     </row>
@@ -74481,12 +74481,12 @@
       </c>
       <c r="B4361" t="inlineStr">
         <is>
-          <t>心神不定，恍惚健忘</t>
+          <t>虚滑遗精</t>
         </is>
       </c>
       <c r="C4361" t="inlineStr">
         <is>
-          <t>用茯苓二两（去皮）、沉香半两，共研为末，加炼蜜做成丸子，如小豆大。每服三十丸，饭后服，人参汤送下。</t>
+          <t>用白茯苓二两、缩砂仁一两，共研为末，加盐二钱，将瘦羊肉切薄片蘸药炙熟吃，酒送下。</t>
         </is>
       </c>
     </row>
@@ -74498,12 +74498,12 @@
       </c>
       <c r="B4362" t="inlineStr">
         <is>
-          <t>虚滑遗精</t>
+          <t>痔漏</t>
         </is>
       </c>
       <c r="C4362" t="inlineStr">
         <is>
-          <t>用白茯苓二两、缩砂仁一两，共研为末，加盐二钱，将瘦羊肉切薄片蘸药炙熟吃，酒送下。</t>
+          <t>用赤、白茯苓（去皮）、没药各二两，破故纸四两，在石臼中捣成一块，酒浸数日，取出，放入木笼蒸熟，晒干为末，加酒，糊做成丸，如梧子大。每服二十丸，酒送下。</t>
         </is>
       </c>
     </row>
@@ -74515,29 +74515,29 @@
       </c>
       <c r="B4363" t="inlineStr">
         <is>
-          <t>痔漏</t>
+          <t>浊遗带下（男子元阳虚损，精气不固，小便下浊，余沥常流，梦寐我惊，频频遗泄，妇人白带）</t>
         </is>
       </c>
       <c r="C4363" t="inlineStr">
         <is>
-          <t>用赤、白茯苓（去皮）、没药各二两，破故纸四两，在石臼中捣成一块，酒浸数日，取出，放入木笼蒸熟，晒干为末，加酒，糊做成丸，如梧子大。每服二十丸，酒送下。</t>
+          <t>用白茯苓（去皮）四两，挖空一处，填入猪苓四钱半，煮开多次人，取出晒干，去掉猪苓，研为末，化黄蜡调成丸子如弹子大。每嚼服一丸，空心服，唾液送下。以尿清为度，忌米醋。此方名“威喜丸”。</t>
         </is>
       </c>
     </row>
     <row r="4364">
       <c r="A4364" t="inlineStr">
         <is>
-          <t>茯苓</t>
+          <t>贝母</t>
         </is>
       </c>
       <c r="B4364" t="inlineStr">
         <is>
-          <t>浊遗带下（男子元阳虚损，精气不固，小便下浊，余沥常流，梦寐我惊，频频遗泄，妇人白带）</t>
+          <t>化痰降气，止咳解郁</t>
         </is>
       </c>
       <c r="C4364" t="inlineStr">
         <is>
-          <t>用白茯苓（去皮）四两，挖空一处，填入猪苓四钱半，煮开多次人，取出晒干，去掉猪苓，研为末，化黄蜡调成丸子如弹子大。每嚼服一丸，空心服，唾液送下。以尿清为度，忌米醋。此方名“威喜丸”。</t>
+          <t>用贝母（去心）一两、姜制厚朴半两，加蜜做成丸子，如梧子大。每服五十丸，开水送下。</t>
         </is>
       </c>
     </row>
@@ -74549,12 +74549,12 @@
       </c>
       <c r="B4365" t="inlineStr">
         <is>
-          <t>化痰降气，止咳解郁</t>
+          <t>目昏，流冷泪</t>
         </is>
       </c>
       <c r="C4365" t="inlineStr">
         <is>
-          <t>用贝母（去心）一两、姜制厚朴半两，加蜜做成丸子，如梧子大。每服五十丸，开水送下。</t>
+          <t>用贝母一枚、胡椒七料，共研为细末，点眼。</t>
         </is>
       </c>
     </row>
@@ -74566,12 +74566,12 @@
       </c>
       <c r="B4366" t="inlineStr">
         <is>
-          <t>目昏，流冷泪</t>
+          <t>目生弩肉</t>
         </is>
       </c>
       <c r="C4366" t="inlineStr">
         <is>
-          <t>用贝母一枚、胡椒七料，共研为细末，点眼。</t>
+          <t>用贝母、丁香，等分为末，加乳汁调匀点眼。</t>
         </is>
       </c>
     </row>
@@ -74583,12 +74583,12 @@
       </c>
       <c r="B4367" t="inlineStr">
         <is>
-          <t>目生弩肉</t>
+          <t>乳痈</t>
         </is>
       </c>
       <c r="C4367" t="inlineStr">
         <is>
-          <t>用贝母、丁香，等分为末，加乳汁调匀点眼。</t>
+          <t>用酒送服贝母二钱，另找人吮乳，使之通畅。</t>
         </is>
       </c>
     </row>
@@ -74600,12 +74600,12 @@
       </c>
       <c r="B4368" t="inlineStr">
         <is>
-          <t>乳痈</t>
+          <t>乳汁不下</t>
         </is>
       </c>
       <c r="C4368" t="inlineStr">
         <is>
-          <t>用酒送服贝母二钱，另找人吮乳，使之通畅。</t>
+          <t>用贝母、知母、牡蛎粉等分，研为细末。每服二钱，猪蹄汤调服。此方名“二母散”。</t>
         </is>
       </c>
     </row>
@@ -74617,12 +74617,12 @@
       </c>
       <c r="B4369" t="inlineStr">
         <is>
-          <t>乳汁不下</t>
+          <t>吐血、鼻血不止</t>
         </is>
       </c>
       <c r="C4369" t="inlineStr">
         <is>
-          <t>用贝母、知母、牡蛎粉等分，研为细末。每服二钱，猪蹄汤调服。此方名“二母散”。</t>
+          <t>用贝母（炮过），研为细末。每服二钱，温浆水送下。</t>
         </is>
       </c>
     </row>
@@ -74634,12 +74634,12 @@
       </c>
       <c r="B4370" t="inlineStr">
         <is>
-          <t>吐血、鼻血不止</t>
+          <t>小儿百日咳</t>
         </is>
       </c>
       <c r="C4370" t="inlineStr">
         <is>
-          <t>用贝母（炮过），研为细末。每服二钱，温浆水送下。</t>
+          <t>用贝母五钱、甘草（半生半灸）二钱，共研为末，加沙糖调成丸子，如芡子大，每次以米汤化服一丸。</t>
         </is>
       </c>
     </row>
@@ -74651,12 +74651,12 @@
       </c>
       <c r="B4371" t="inlineStr">
         <is>
-          <t>小儿百日咳</t>
+          <t>小儿鹅口，满口白烂</t>
         </is>
       </c>
       <c r="C4371" t="inlineStr">
         <is>
-          <t>用贝母五钱、甘草（半生半灸）二钱，共研为末，加沙糖调成丸子，如芡子大，每次以米汤化服一丸。</t>
+          <t>用贝母（去心，研细）半钱，加水五分、蜜少许，煎三沸。取抹患处。</t>
         </is>
       </c>
     </row>
@@ -74668,12 +74668,12 @@
       </c>
       <c r="B4372" t="inlineStr">
         <is>
-          <t>小儿鹅口，满口白烂</t>
+          <t>胸膈郁积</t>
         </is>
       </c>
       <c r="C4372" t="inlineStr">
         <is>
-          <t>用贝母（去心，研细）半钱，加水五分、蜜少许，煎三沸。取抹患处。</t>
+          <t>用贝母（去心），加姜汁炒后研细，再和姜汁、面糊做成丸子。每服七十丸。</t>
         </is>
       </c>
     </row>
@@ -74685,29 +74685,29 @@
       </c>
       <c r="B4373" t="inlineStr">
         <is>
-          <t>胸膈郁积</t>
+          <t>紫白瘢</t>
         </is>
       </c>
       <c r="C4373" t="inlineStr">
         <is>
-          <t>用贝母（去心），加姜汁炒后研细，再和姜汁、面糊做成丸子。每服七十丸。</t>
+          <t>用贝母、南星，等分为末。生姜带汁调药搽瘢上。</t>
         </is>
       </c>
     </row>
     <row r="4374">
       <c r="A4374" t="inlineStr">
         <is>
-          <t>贝母</t>
+          <t>蜀羊泉</t>
         </is>
       </c>
       <c r="B4374" t="inlineStr">
         <is>
-          <t>紫白瘢</t>
+          <t>黄疸</t>
         </is>
       </c>
       <c r="C4374" t="inlineStr">
         <is>
-          <t>用贝母、南星，等分为末。生姜带汁调药搽瘢上。</t>
+          <t>用蜀羊泉的把，捣汁和酒服，三、五次之后，即可见效。</t>
         </is>
       </c>
     </row>
@@ -74719,29 +74719,29 @@
       </c>
       <c r="B4375" t="inlineStr">
         <is>
-          <t>黄疸</t>
+          <t>漆疮</t>
         </is>
       </c>
       <c r="C4375" t="inlineStr">
         <is>
-          <t>用蜀羊泉的把，捣汁和酒服，三、五次之后，即可见效。</t>
+          <t>用蜀羊泉捣烂涂搽。漆姑之名，由此而来。</t>
         </is>
       </c>
     </row>
     <row r="4376">
       <c r="A4376" t="inlineStr">
         <is>
-          <t>蜀羊泉</t>
+          <t>胡瓜</t>
         </is>
       </c>
       <c r="B4376" t="inlineStr">
         <is>
-          <t>漆疮</t>
+          <t>火眼赤痛</t>
         </is>
       </c>
       <c r="C4376" t="inlineStr">
         <is>
-          <t>用蜀羊泉捣烂涂搽。漆姑之名，由此而来。</t>
+          <t>用老黄瓜一条，上开小孔，去瓤，填满硭硝，悬挂阴凉处，等硝透出来后，刮下收存。点眼，甚效。</t>
         </is>
       </c>
     </row>
@@ -74753,12 +74753,12 @@
       </c>
       <c r="B4377" t="inlineStr">
         <is>
-          <t>火眼赤痛</t>
+          <t>水病肚胀，四肢浮肿</t>
         </is>
       </c>
       <c r="C4377" t="inlineStr">
         <is>
-          <t>用老黄瓜一条，上开小孔，去瓤，填满硭硝，悬挂阴凉处，等硝透出来后，刮下收存。点眼，甚效。</t>
+          <t>用胡瓜一个，破开，连了以醋煮一半至烂，空心服，一次吃完。不久即可把水排出。</t>
         </is>
       </c>
     </row>
@@ -74770,29 +74770,29 @@
       </c>
       <c r="B4378" t="inlineStr">
         <is>
-          <t>水病肚胀，四肢浮肿</t>
+          <t>咽喉肿痛</t>
         </is>
       </c>
       <c r="C4378" t="inlineStr">
         <is>
-          <t>用胡瓜一个，破开，连了以醋煮一半至烂，空心服，一次吃完。不久即可把水排出。</t>
+          <t>用老黄瓜一个，去子，填满硭硝，阴干为末。每取少许吹喉内。</t>
         </is>
       </c>
     </row>
     <row r="4379">
       <c r="A4379" t="inlineStr">
         <is>
-          <t>胡瓜</t>
+          <t>粱</t>
         </is>
       </c>
       <c r="B4379" t="inlineStr">
         <is>
-          <t>咽喉肿痛</t>
+          <t>霍乱不止</t>
         </is>
       </c>
       <c r="C4379" t="inlineStr">
         <is>
-          <t>用老黄瓜一个，去子，填满硭硝，阴干为末。每取少许吹喉内。</t>
+          <t>用白粱米五合，加水一升，煮粥吃。</t>
         </is>
       </c>
     </row>
@@ -74804,12 +74804,12 @@
       </c>
       <c r="B4380" t="inlineStr">
         <is>
-          <t>霍乱不止</t>
+          <t>老人血淋</t>
         </is>
       </c>
       <c r="C4380" t="inlineStr">
         <is>
-          <t>用白粱米五合，加水一升，煮粥吃。</t>
+          <t>用车前五合，棉裹煮汁，加青粱米四合粥饮汁此方亦能明目。</t>
         </is>
       </c>
     </row>
@@ -74821,12 +74821,12 @@
       </c>
       <c r="B4381" t="inlineStr">
         <is>
-          <t>老人血淋</t>
+          <t>冷气心痛</t>
         </is>
       </c>
       <c r="C4381" t="inlineStr">
         <is>
-          <t>用车前五合，棉裹煮汁，加青粱米四合粥饮汁此方亦能明目。</t>
+          <t>用桃仁二两，去皮，加水研磨，绞取汁，倒入青粱米四合，煮粥吃。</t>
         </is>
       </c>
     </row>
@@ -74838,12 +74838,12 @@
       </c>
       <c r="B4382" t="inlineStr">
         <is>
-          <t>冷气心痛</t>
+          <t>脾虚泄痢</t>
         </is>
       </c>
       <c r="C4382" t="inlineStr">
         <is>
-          <t>用桃仁二两，去皮，加水研磨，绞取汁，倒入青粱米四合，煮粥吃。</t>
+          <t>用青粱米半升、神曲一合，每日煮粥食。</t>
         </is>
       </c>
     </row>
@@ -74855,12 +74855,12 @@
       </c>
       <c r="B4383" t="inlineStr">
         <is>
-          <t>脾虚泄痢</t>
+          <t>手足生疣</t>
         </is>
       </c>
       <c r="C4383" t="inlineStr">
         <is>
-          <t>用青粱米半升、神曲一合，每日煮粥食。</t>
+          <t>用白粱米粉炒红，和唾液涂搽。</t>
         </is>
       </c>
     </row>
@@ -74872,29 +74872,29 @@
       </c>
       <c r="B4384" t="inlineStr">
         <is>
-          <t>手足生疣</t>
+          <t>胃虚呕吐</t>
         </is>
       </c>
       <c r="C4384" t="inlineStr">
         <is>
-          <t>用白粱米粉炒红，和唾液涂搽。</t>
+          <t>用白粱米汁二合、姜汁一合，和匀服下。</t>
         </is>
       </c>
     </row>
     <row r="4385">
       <c r="A4385" t="inlineStr">
         <is>
-          <t>粱</t>
+          <t>藿香</t>
         </is>
       </c>
       <c r="B4385" t="inlineStr">
         <is>
-          <t>胃虚呕吐</t>
+          <t>霍乱吐泻</t>
         </is>
       </c>
       <c r="C4385" t="inlineStr">
         <is>
-          <t>用白粱米汁二合、姜汁一合，和匀服下。</t>
+          <t>用藿香叶、陈皮各半两，加水二碗，煎成一碗，温服。</t>
         </is>
       </c>
     </row>
@@ -74906,12 +74906,12 @@
       </c>
       <c r="B4386" t="inlineStr">
         <is>
-          <t>霍乱吐泻</t>
+          <t>口臭</t>
         </is>
       </c>
       <c r="C4386" t="inlineStr">
         <is>
-          <t>用藿香叶、陈皮各半两，加水二碗，煎成一碗，温服。</t>
+          <t>用藿香洗净，煎汤，随进嗽口。烂疮。用藿香中、细茶等分，烧灰，油调涂叶片贴疮上。</t>
         </is>
       </c>
     </row>
@@ -74923,12 +74923,12 @@
       </c>
       <c r="B4387" t="inlineStr">
         <is>
-          <t>口臭</t>
+          <t>暑天吐泻</t>
         </is>
       </c>
       <c r="C4387" t="inlineStr">
         <is>
-          <t>用藿香洗净，煎汤，随进嗽口。烂疮。用藿香中、细茶等分，烧灰，油调涂叶片贴疮上。</t>
+          <t>用滑石（炒）二两、藿香二钱半、丁香五分，共研为末。每服一、二钱，淘米水调服。</t>
         </is>
       </c>
     </row>
@@ -74940,29 +74940,29 @@
       </c>
       <c r="B4388" t="inlineStr">
         <is>
-          <t>暑天吐泻</t>
+          <t>胎气不安（气不升降，呕吐酸水）</t>
         </is>
       </c>
       <c r="C4388" t="inlineStr">
         <is>
-          <t>用滑石（炒）二两、藿香二钱半、丁香五分，共研为末。每服一、二钱，淘米水调服。</t>
+          <t>用香附、藿香、甘草各二钱，共研为末。每服二钱，加一点盐，以开水调下。</t>
         </is>
       </c>
     </row>
     <row r="4389">
       <c r="A4389" t="inlineStr">
         <is>
-          <t>藿香</t>
+          <t>醋</t>
         </is>
       </c>
       <c r="B4389" t="inlineStr">
         <is>
-          <t>胎气不安（气不升降，呕吐酸水）</t>
+          <t>霍乱吐泻</t>
         </is>
       </c>
       <c r="C4389" t="inlineStr">
         <is>
-          <t>用香附、藿香、甘草各二钱，共研为末。每服二钱，加一点盐，以开水调下。</t>
+          <t>用盐醋煎服。</t>
         </is>
       </c>
     </row>
@@ -74974,12 +74974,12 @@
       </c>
       <c r="B4390" t="inlineStr">
         <is>
-          <t>霍乱吐泻</t>
+          <t>脚转筋</t>
         </is>
       </c>
       <c r="C4390" t="inlineStr">
         <is>
-          <t>用盐醋煎服。</t>
+          <t>用旧棉泡醋中。蒸热裹痛处，棉冷即换。直至痛止。</t>
         </is>
       </c>
     </row>
@@ -74991,12 +74991,12 @@
       </c>
       <c r="B4391" t="inlineStr">
         <is>
-          <t>脚转筋</t>
+          <t>蠼螋尿疮</t>
         </is>
       </c>
       <c r="C4391" t="inlineStr">
         <is>
-          <t>用旧棉泡醋中。蒸热裹痛处，棉冷即换。直至痛止。</t>
+          <t>用醋和胡粉敷搽。</t>
         </is>
       </c>
     </row>
@@ -75008,12 +75008,12 @@
       </c>
       <c r="B4392" t="inlineStr">
         <is>
-          <t>蠼螋尿疮</t>
+          <t>乳痈坚硬</t>
         </is>
       </c>
       <c r="C4392" t="inlineStr">
         <is>
-          <t>用醋和胡粉敷搽。</t>
+          <t>用罐装醋，烧热石投入二次，即以热醋敷痈，醋冷则再次烧石热之。如此热敷数次即愈。</t>
         </is>
       </c>
     </row>
@@ -75025,12 +75025,12 @@
       </c>
       <c r="B4393" t="inlineStr">
         <is>
-          <t>乳痈坚硬</t>
+          <t>汤火伤</t>
         </is>
       </c>
       <c r="C4393" t="inlineStr">
         <is>
-          <t>用罐装醋，烧热石投入二次，即以热醋敷痈，醋冷则再次烧石热之。如此热敷数次即愈。</t>
+          <t>用酸醋淋洗，并以醋泥涂伤处，有效，亦无瘢痕。</t>
         </is>
       </c>
     </row>
@@ -75042,12 +75042,12 @@
       </c>
       <c r="B4394" t="inlineStr">
         <is>
-          <t>汤火伤</t>
+          <t>蜈蚣咬毒</t>
         </is>
       </c>
       <c r="C4394" t="inlineStr">
         <is>
-          <t>用酸醋淋洗，并以醋泥涂伤处，有效，亦无瘢痕。</t>
+          <t>用醋磨生铁敷搽。</t>
         </is>
       </c>
     </row>
@@ -75059,12 +75059,12 @@
       </c>
       <c r="B4395" t="inlineStr">
         <is>
-          <t>蜈蚣咬毒</t>
+          <t>牙齿疼痛</t>
         </is>
       </c>
       <c r="C4395" t="inlineStr">
         <is>
-          <t>用醋磨生铁敷搽。</t>
+          <t>用米醋煮枸杞白皮一升，取半升含漱。</t>
         </is>
       </c>
     </row>
@@ -75076,12 +75076,12 @@
       </c>
       <c r="B4396" t="inlineStr">
         <is>
-          <t>牙齿疼痛</t>
+          <t>腋下狐臭</t>
         </is>
       </c>
       <c r="C4396" t="inlineStr">
         <is>
-          <t>用米醋煮枸杞白皮一升，取半升含漱。</t>
+          <t>用三年酽醋，和石灰敷涂。</t>
         </is>
       </c>
     </row>
@@ -75093,29 +75093,29 @@
       </c>
       <c r="B4397" t="inlineStr">
         <is>
-          <t>腋下狐臭</t>
+          <t>痈疽不溃</t>
         </is>
       </c>
       <c r="C4397" t="inlineStr">
         <is>
-          <t>用三年酽醋，和石灰敷涂。</t>
+          <t>用醋调雀屎，取小豆敷疮头上，疮即可穿。</t>
         </is>
       </c>
     </row>
     <row r="4398">
       <c r="A4398" t="inlineStr">
         <is>
-          <t>醋</t>
+          <t>马勃</t>
         </is>
       </c>
       <c r="B4398" t="inlineStr">
         <is>
-          <t>痈疽不溃</t>
+          <t>积热吐血</t>
         </is>
       </c>
       <c r="C4398" t="inlineStr">
         <is>
-          <t>用醋调雀屎，取小豆敷疮头上，疮即可穿。</t>
+          <t>用马勃研为末，加沙糖做成丸大，如弹子大。每服半丸，冷水化下。</t>
         </is>
       </c>
     </row>
@@ -75127,12 +75127,12 @@
       </c>
       <c r="B4399" t="inlineStr">
         <is>
-          <t>积热吐血</t>
+          <t>久咳</t>
         </is>
       </c>
       <c r="C4399" t="inlineStr">
         <is>
-          <t>用马勃研为末，加沙糖做成丸大，如弹子大。每服半丸，冷水化下。</t>
+          <t>用马勃研为末，加蜜做成丸子，如梧子大。每服二十丸，白汤送下。</t>
         </is>
       </c>
     </row>
@@ -75144,12 +75144,12 @@
       </c>
       <c r="B4400" t="inlineStr">
         <is>
-          <t>久咳</t>
+          <t>妊娠吐血及鼻血</t>
         </is>
       </c>
       <c r="C4400" t="inlineStr">
         <is>
-          <t>用马勃研为末，加蜜做成丸子，如梧子大。每服二十丸，白汤送下。</t>
+          <t>用马勃研为末，浓米汤送服半钱。</t>
         </is>
       </c>
     </row>
@@ -75161,12 +75161,12 @@
       </c>
       <c r="B4401" t="inlineStr">
         <is>
-          <t>妊娠吐血及鼻血</t>
+          <t>失音</t>
         </is>
       </c>
       <c r="C4401" t="inlineStr">
         <is>
-          <t>用马勃研为末，浓米汤送服半钱。</t>
+          <t>用马勃、马牙硝，等分为末，加沙糖和成丸子，如芡子大。噙口内。</t>
         </is>
       </c>
     </row>
@@ -75178,29 +75178,29 @@
       </c>
       <c r="B4402" t="inlineStr">
         <is>
-          <t>失音</t>
+          <t>咽喉肿痛，不能咽物</t>
         </is>
       </c>
       <c r="C4402" t="inlineStr">
         <is>
-          <t>用马勃、马牙硝，等分为末，加沙糖和成丸子，如芡子大。噙口内。</t>
+          <t>用马勃一分、蛇蜕一条，浇为末，棉裹一钱，含咽。</t>
         </is>
       </c>
     </row>
     <row r="4403">
       <c r="A4403" t="inlineStr">
         <is>
-          <t>马勃</t>
+          <t>茈胡（柴胡）</t>
         </is>
       </c>
       <c r="B4403" t="inlineStr">
         <is>
-          <t>咽喉肿痛，不能咽物</t>
+          <t>积热下痢</t>
         </is>
       </c>
       <c r="C4403" t="inlineStr">
         <is>
-          <t>用马勃一分、蛇蜕一条，浇为末，棉裹一钱，含咽。</t>
+          <t>用柴胡、黄芩等分，半酒半水煎至七成，待冷定后空心服下。</t>
         </is>
       </c>
     </row>
@@ -75212,12 +75212,12 @@
       </c>
       <c r="B4404" t="inlineStr">
         <is>
-          <t>积热下痢</t>
+          <t>伤寒余热（伤寒之后，体瘦肌热）</t>
         </is>
       </c>
       <c r="C4404" t="inlineStr">
         <is>
-          <t>用柴胡、黄芩等分，半酒半水煎至七成，待冷定后空心服下。</t>
+          <t>用柴胡四两、甘草一两，每用二钱，煎服。</t>
         </is>
       </c>
     </row>
@@ -75229,12 +75229,12 @@
       </c>
       <c r="B4405" t="inlineStr">
         <is>
-          <t>伤寒余热（伤寒之后，体瘦肌热）</t>
+          <t>湿热黄疸</t>
         </is>
       </c>
       <c r="C4405" t="inlineStr">
         <is>
-          <t>用柴胡四两、甘草一两，每用二钱，煎服。</t>
+          <t>用柴胡一两、甘草二钱半，白茅根一小把，加水一碗，煎至七成，适当分次服完。</t>
         </is>
       </c>
     </row>
@@ -75246,12 +75246,12 @@
       </c>
       <c r="B4406" t="inlineStr">
         <is>
-          <t>湿热黄疸</t>
+          <t>小儿骨热（十五岁以下小儿遍身如火，盗汗、咳嗽、烦渴，日渐黄瘦）</t>
         </is>
       </c>
       <c r="C4406" t="inlineStr">
         <is>
-          <t>用柴胡一两、甘草二钱半，白茅根一小把，加水一碗，煎至七成，适当分次服完。</t>
+          <t>用柴胡四两、丹砂三钱，共研为末，拌猪胆汁和饭蒸熟，做成丸子，如绿豆大。每服一丸，桃仁、乌梅汤送下。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75263,12 +75263,12 @@
       </c>
       <c r="B4407" t="inlineStr">
         <is>
-          <t>小儿骨热（十五岁以下小儿遍身如火，盗汗、咳嗽、烦渴，日渐黄瘦）</t>
+          <t>虚劳发热</t>
         </is>
       </c>
       <c r="C4407" t="inlineStr">
         <is>
-          <t>用柴胡四两、丹砂三钱，共研为末，拌猪胆汁和饭蒸熟，做成丸子，如绿豆大。每服一丸，桃仁、乌梅汤送下。一天服三次。</t>
+          <t>用柴胡、人参等分，每服三钱，加姜枣同水煎服。</t>
         </is>
       </c>
     </row>
@@ -75280,29 +75280,29 @@
       </c>
       <c r="B4408" t="inlineStr">
         <is>
-          <t>虚劳发热</t>
+          <t>眼睛昏暗</t>
         </is>
       </c>
       <c r="C4408" t="inlineStr">
         <is>
-          <t>用柴胡、人参等分，每服三钱，加姜枣同水煎服。</t>
+          <t>用柴胡二钱半、决明子七钱半，共研为末，人乳调匀，敷眼上。</t>
         </is>
       </c>
     </row>
     <row r="4409">
       <c r="A4409" t="inlineStr">
         <is>
-          <t>茈胡（柴胡）</t>
+          <t>石钟乳</t>
         </is>
       </c>
       <c r="B4409" t="inlineStr">
         <is>
-          <t>眼睛昏暗</t>
+          <t>急喘不停</t>
         </is>
       </c>
       <c r="C4409" t="inlineStr">
         <is>
-          <t>用柴胡二钱半、决明子七钱半，共研为末，人乳调匀，敷眼上。</t>
+          <t>用钟乳粉五钱、蜡三两，和匀，蒸在饭甑里。蒸熟取出，合成丸子，如梧子大。每服一丸，温开水送下。</t>
         </is>
       </c>
     </row>
@@ -75314,12 +75314,12 @@
       </c>
       <c r="B4410" t="inlineStr">
         <is>
-          <t>急喘不停</t>
+          <t>劳嗽（胸膈痞满，咳嗽不已）</t>
         </is>
       </c>
       <c r="C4410" t="inlineStr">
         <is>
-          <t>用钟乳粉五钱、蜡三两，和匀，蒸在饭甑里。蒸熟取出，合成丸子，如梧子大。每服一丸，温开水送下。</t>
+          <t>用石钟乳、雄黄、佛耳草、款冬花，等分为末。每用一钱，细烧成烟，以筒吸烟入喉。一天两次。</t>
         </is>
       </c>
     </row>
@@ -75331,12 +75331,12 @@
       </c>
       <c r="B4411" t="inlineStr">
         <is>
-          <t>劳嗽（胸膈痞满，咳嗽不已）</t>
+          <t>冷泻水止</t>
         </is>
       </c>
       <c r="C4411" t="inlineStr">
         <is>
-          <t>用石钟乳、雄黄、佛耳草、款冬花，等分为末。每用一钱，细烧成烟，以筒吸烟入喉。一天两次。</t>
+          <t>用钟乳粉一两、肉豆蔻（煨过）半两，共研为末，加枣肉（煮肉）做成丸子，如梧子大。每服七十丸，空心服，米汤送下。</t>
         </is>
       </c>
     </row>
@@ -75348,12 +75348,12 @@
       </c>
       <c r="B4412" t="inlineStr">
         <is>
-          <t>冷泻水止</t>
+          <t>乳汁不通（气少血虚，脉涩不行，故乳少）</t>
         </is>
       </c>
       <c r="C4412" t="inlineStr">
         <is>
-          <t>用钟乳粉一两、肉豆蔻（煨过）半两，共研为末，加枣肉（煮肉）做成丸子，如梧子大。每服七十丸，空心服，米汤送下。</t>
+          <t>用钟乳粉二钱，服时以漏芦煎成的浓汤送下。又方：钟乳粉、通草，等分为末，每服一茶匙，米汤送下。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75365,29 +75365,29 @@
       </c>
       <c r="B4413" t="inlineStr">
         <is>
-          <t>乳汁不通（气少血虚，脉涩不行，故乳少）</t>
+          <t>吐血损肺</t>
         </is>
       </c>
       <c r="C4413" t="inlineStr">
         <is>
-          <t>用钟乳粉二钱，服时以漏芦煎成的浓汤送下。又方：钟乳粉、通草，等分为末，每服一茶匙，米汤送下。一天服三次。</t>
+          <t>用钟乳粉，每服二钱，糯米汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4414">
       <c r="A4414" t="inlineStr">
         <is>
-          <t>石钟乳</t>
+          <t>礞石</t>
         </is>
       </c>
       <c r="B4414" t="inlineStr">
         <is>
-          <t>吐血损肺</t>
+          <t>急慢惊风</t>
         </is>
       </c>
       <c r="C4414" t="inlineStr">
         <is>
-          <t>用钟乳粉，每服二钱，糯米汤送下。</t>
+          <t>风礞石一两、焰消一两，同煅过，研细。每服半钱至一钱。急惊风痰热者，用薄荷汁和生蜜调匀送下。慢惊风脾虚者，用木香汤和熟蜜调匀送下。此方名“夺名散”。凡痰壅咽喉，命在旦夕者，服此都有效。</t>
         </is>
       </c>
     </row>
@@ -75399,12 +75399,12 @@
       </c>
       <c r="B4415" t="inlineStr">
         <is>
-          <t>急慢惊风</t>
+          <t>湿热痰症</t>
         </is>
       </c>
       <c r="C4415" t="inlineStr">
         <is>
-          <t>风礞石一两、焰消一两，同煅过，研细。每服半钱至一钱。急惊风痰热者，用薄荷汁和生蜜调匀送下。慢惊风脾虚者，用木香汤和熟蜜调匀送下。此方名“夺名散”。凡痰壅咽喉，命在旦夕者，服此都有效。</t>
+          <t>用礞石、焰消各二两，煅过，研细，水飞，晒干。取一两，加酒蒸大黄八两、酒洗黄芩八两、沉得五钱，共研为末。水调成丸子，如梧子大。平常只服一、二十丸。如大便结，可增至一、二百丸，温开水送下。妊妇和患水泻者忌服。此方名“滚痰丸”。</t>
         </is>
       </c>
     </row>
@@ -75416,29 +75416,29 @@
       </c>
       <c r="B4416" t="inlineStr">
         <is>
-          <t>湿热痰症</t>
+          <t>虚冷久积（滑痢，腹有癖块，妇女月经过多而又持久）</t>
         </is>
       </c>
       <c r="C4416" t="inlineStr">
         <is>
-          <t>用礞石、焰消各二两，煅过，研细，水飞，晒干。取一两，加酒蒸大黄八两、酒洗黄芩八两、沉得五钱，共研为末。水调成丸子，如梧子大。平常只服一、二十丸。如大便结，可增至一、二百丸，温开水送下。妊妇和患水泻者忌服。此方名“滚痰丸”。</t>
+          <t>用礞石半斤，研细；硝石二两，也研细。共放坩锅内，盖严，炭火煅过，以尽灰二十斤左右为度。冷后取出，再加入赤石脂末二两，滴水为丸，如芡子大。等干后，又放坩锅内以小火煅过，待冷即收存备用。每服一丸至三丸。空心服，温水送下。泻痢日久者，可加至七丸。此方名“金宝神丹”。</t>
         </is>
       </c>
     </row>
     <row r="4417">
       <c r="A4417" t="inlineStr">
         <is>
-          <t>礞石</t>
+          <t>知母</t>
         </is>
       </c>
       <c r="B4417" t="inlineStr">
         <is>
-          <t>虚冷久积（滑痢，腹有癖块，妇女月经过多而又持久）</t>
+          <t>甲疽</t>
         </is>
       </c>
       <c r="C4417" t="inlineStr">
         <is>
-          <t>用礞石半斤，研细；硝石二两，也研细。共放坩锅内，盖严，炭火煅过，以尽灰二十斤左右为度。冷后取出，再加入赤石脂末二两，滴水为丸，如芡子大。等干后，又放坩锅内以小火煅过，待冷即收存备用。每服一丸至三丸。空心服，温水送下。泻痢日久者，可加至七丸。此方名“金宝神丹”。</t>
+          <t>用知母，烧存性，研末敷患处。</t>
         </is>
       </c>
     </row>
@@ -75450,12 +75450,12 @@
       </c>
       <c r="B4418" t="inlineStr">
         <is>
-          <t>甲疽</t>
+          <t>久嗽气急</t>
         </is>
       </c>
       <c r="C4418" t="inlineStr">
         <is>
-          <t>用知母，烧存性，研末敷患处。</t>
+          <t>用知母五钱（去毛切片，隔纸炒过）、杏仁五钱（姜水泡，去皮尖，焙过），同煎服。另以萝卜子、杏仁，等分为末，加米糊做成丸子。每服五十丸，姜汤送下，以绝病根。</t>
         </is>
       </c>
     </row>
@@ -75467,12 +75467,12 @@
       </c>
       <c r="B4419" t="inlineStr">
         <is>
-          <t>久嗽气急</t>
+          <t>妊娠不足月，腹痛欲产</t>
         </is>
       </c>
       <c r="C4419" t="inlineStr">
         <is>
-          <t>用知母五钱（去毛切片，隔纸炒过）、杏仁五钱（姜水泡，去皮尖，焙过），同煎服。另以萝卜子、杏仁，等分为末，加米糊做成丸子。每服五十丸，姜汤送下，以绝病根。</t>
+          <t>用知母二两，研细，和蜜做成丸子，如梧子大。每服二十丸，米粥送下。</t>
         </is>
       </c>
     </row>
@@ -75484,12 +75484,12 @@
       </c>
       <c r="B4420" t="inlineStr">
         <is>
-          <t>妊娠不足月，腹痛欲产</t>
+          <t>痰嗽</t>
         </is>
       </c>
       <c r="C4420" t="inlineStr">
         <is>
-          <t>用知母二两，研细，和蜜做成丸子，如梧子大。每服二十丸，米粥送下。</t>
+          <t>用知母、贝母各一两，研细：巴豆三十枚，去油，研匀。每夜，切生姜三片，二面蘸上药末，放在口里细嚼咽下，随即睡觉。次日必泻，痰嗽渐止。体弱者，不用巴豆。</t>
         </is>
       </c>
     </row>
@@ -75501,29 +75501,29 @@
       </c>
       <c r="B4421" t="inlineStr">
         <is>
-          <t>痰嗽</t>
+          <t>紫癜风疾</t>
         </is>
       </c>
       <c r="C4421" t="inlineStr">
         <is>
-          <t>用知母、贝母各一两，研细：巴豆三十枚，去油，研匀。每夜，切生姜三片，二面蘸上药末，放在口里细嚼咽下，随即睡觉。次日必泻，痰嗽渐止。体弱者，不用巴豆。</t>
+          <t>用醋磨知母涂搽。</t>
         </is>
       </c>
     </row>
     <row r="4422">
       <c r="A4422" t="inlineStr">
         <is>
-          <t>知母</t>
+          <t>龙</t>
         </is>
       </c>
       <c r="B4422" t="inlineStr">
         <is>
-          <t>紫癜风疾</t>
+          <t>健忘</t>
         </is>
       </c>
       <c r="C4422" t="inlineStr">
         <is>
-          <t>用醋磨知母涂搽。</t>
+          <t>用白龙骨、远志，等分为末，每服一匙，饭后服，酒送下。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75535,12 +75535,12 @@
       </c>
       <c r="B4423" t="inlineStr">
         <is>
-          <t>健忘</t>
+          <t>久痢脱肛</t>
         </is>
       </c>
       <c r="C4423" t="inlineStr">
         <is>
-          <t>用白龙骨、远志，等分为末，每服一匙，饭后服，酒送下。一天服三次。</t>
+          <t>用白龙骨粉扑患处。</t>
         </is>
       </c>
     </row>
@@ -75552,12 +75552,12 @@
       </c>
       <c r="B4424" t="inlineStr">
         <is>
-          <t>久痢脱肛</t>
+          <t>老疟不止</t>
         </is>
       </c>
       <c r="C4424" t="inlineStr">
         <is>
-          <t>用白龙骨粉扑患处。</t>
+          <t>用龙骨末是匙，加酒一升半、煮开三次，于发病前一时，乘热服下，盖上铺盖发汗，有效。</t>
         </is>
       </c>
     </row>
@@ -75569,12 +75569,12 @@
       </c>
       <c r="B4425" t="inlineStr">
         <is>
-          <t>老疟不止</t>
+          <t>梦遗</t>
         </is>
       </c>
       <c r="C4425" t="inlineStr">
         <is>
-          <t>用龙骨末是匙，加酒一升半、煮开三次，于发病前一时，乘热服下，盖上铺盖发汗，有效。</t>
+          <t>用龙骨、远志，等分为末，加炼蜜做成丸子，如梧子大，朱砂为衣。每服三十丸，莲子汤送下。</t>
         </is>
       </c>
     </row>
@@ -75586,12 +75586,12 @@
       </c>
       <c r="B4426" t="inlineStr">
         <is>
-          <t>梦遗</t>
+          <t>尿血</t>
         </is>
       </c>
       <c r="C4426" t="inlineStr">
         <is>
-          <t>用龙骨、远志，等分为末，加炼蜜做成丸子，如梧子大，朱砂为衣。每服三十丸，莲子汤送下。</t>
+          <t>用龙骨研末，水送服一匙。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75603,12 +75603,12 @@
       </c>
       <c r="B4427" t="inlineStr">
         <is>
-          <t>尿血</t>
+          <t>暖精益阳</t>
         </is>
       </c>
       <c r="C4427" t="inlineStr">
         <is>
-          <t>用龙骨研末，水送服一匙。一天服三次。</t>
+          <t>用龙骨、远志，等分为末，加炼蜜做成丸子，如梧子大。每服三十丸，空心服，冷水送下。</t>
         </is>
       </c>
     </row>
@@ -75620,12 +75620,12 @@
       </c>
       <c r="B4428" t="inlineStr">
         <is>
-          <t>暖精益阳</t>
+          <t>热病下痢</t>
         </is>
       </c>
       <c r="C4428" t="inlineStr">
         <is>
-          <t>用龙骨、远志，等分为末，加炼蜜做成丸子，如梧子大。每服三十丸，空心服，冷水送下。</t>
+          <t>用龙骨半斤，研细，加水一斗，煮取五程式，冷后饮服，得汗即愈。</t>
         </is>
       </c>
     </row>
@@ -75637,12 +75637,12 @@
       </c>
       <c r="B4429" t="inlineStr">
         <is>
-          <t>热病下痢</t>
+          <t>小儿脐疮</t>
         </is>
       </c>
       <c r="C4429" t="inlineStr">
         <is>
-          <t>用龙骨半斤，研细，加水一斗，煮取五程式，冷后饮服，得汗即愈。</t>
+          <t>有龙骨煅过，研末敷涂。</t>
         </is>
       </c>
     </row>
@@ -75654,12 +75654,12 @@
       </c>
       <c r="B4430" t="inlineStr">
         <is>
-          <t>小儿脐疮</t>
+          <t>泄泻不止</t>
         </is>
       </c>
       <c r="C4430" t="inlineStr">
         <is>
-          <t>有龙骨煅过，研末敷涂。</t>
+          <t>用龙骨、白石脂，等分为末，滴水做成丸子，如梧子大。每服看病人情况用适量，紫苏、木瓜汤送下。</t>
         </is>
       </c>
     </row>
@@ -75671,12 +75671,12 @@
       </c>
       <c r="B4431" t="inlineStr">
         <is>
-          <t>泄泻不止</t>
+          <t>星即泄精</t>
         </is>
       </c>
       <c r="C4431" t="inlineStr">
         <is>
-          <t>用龙骨、白石脂，等分为末，滴水做成丸子，如梧子大。每服看病人情况用适量，紫苏、木瓜汤送下。</t>
+          <t>用白龙骨四分、韭子五合，共研为末。每服一匙，空心服，酒送下。</t>
         </is>
       </c>
     </row>
@@ -75688,12 +75688,12 @@
       </c>
       <c r="B4432" t="inlineStr">
         <is>
-          <t>星即泄精</t>
+          <t>休息痢（屡发屡止，经久不愈）</t>
         </is>
       </c>
       <c r="C4432" t="inlineStr">
         <is>
-          <t>用白龙骨四分、韭子五合，共研为末。每服一匙，空心服，酒送下。</t>
+          <t>用龙骨四两打碎，加水五程式，煮取二升半，分五次冷服。</t>
         </is>
       </c>
     </row>
@@ -75705,12 +75705,12 @@
       </c>
       <c r="B4433" t="inlineStr">
         <is>
-          <t>休息痢（屡发屡止，经久不愈）</t>
+          <t>遗尿淋漓</t>
         </is>
       </c>
       <c r="C4433" t="inlineStr">
         <is>
-          <t>用龙骨四两打碎，加水五程式，煮取二升半，分五次冷服。</t>
+          <t>用白龙骨、桑螵蛸，等分为末。每服二钱，盐汤送下。</t>
         </is>
       </c>
     </row>
@@ -75722,29 +75722,29 @@
       </c>
       <c r="B4434" t="inlineStr">
         <is>
-          <t>遗尿淋漓</t>
+          <t>阴囊汗痒</t>
         </is>
       </c>
       <c r="C4434" t="inlineStr">
         <is>
-          <t>用白龙骨、桑螵蛸，等分为末。每服二钱，盐汤送下。</t>
+          <t>用龙骨、牡蛎，共研为细粉，扑患处。</t>
         </is>
       </c>
     </row>
     <row r="4435">
       <c r="A4435" t="inlineStr">
         <is>
-          <t>龙</t>
+          <t>蛞蝓</t>
         </is>
       </c>
       <c r="B4435" t="inlineStr">
         <is>
-          <t>阴囊汗痒</t>
+          <t>脚胫烂疮</t>
         </is>
       </c>
       <c r="C4435" t="inlineStr">
         <is>
-          <t>用龙骨、牡蛎，共研为细粉，扑患处。</t>
+          <t>用蛞蝓十个，瓦上焙干，研为末，调油敷患处，立效。</t>
         </is>
       </c>
     </row>
@@ -75756,12 +75756,12 @@
       </c>
       <c r="B4436" t="inlineStr">
         <is>
-          <t>脚胫烂疮</t>
+          <t>蜈蚣咬伤</t>
         </is>
       </c>
       <c r="C4436" t="inlineStr">
         <is>
-          <t>用蛞蝓十个，瓦上焙干，研为末，调油敷患处，立效。</t>
+          <t>用蛞蝓生捣敷涂。</t>
         </is>
       </c>
     </row>
@@ -75773,29 +75773,29 @@
       </c>
       <c r="B4437" t="inlineStr">
         <is>
-          <t>蜈蚣咬伤</t>
+          <t>痔热肿痛</t>
         </is>
       </c>
       <c r="C4437" t="inlineStr">
         <is>
-          <t>用蛞蝓生捣敷涂。</t>
+          <t>用大蛞蝓一个捣中泥，加龙脑三分、胭脂坯子半钱，敷患处。敷药前。以石薜煮水熏洗更好。</t>
         </is>
       </c>
     </row>
     <row r="4438">
       <c r="A4438" t="inlineStr">
         <is>
-          <t>蛞蝓</t>
+          <t>茵芋</t>
         </is>
       </c>
       <c r="B4438" t="inlineStr">
         <is>
-          <t>痔热肿痛</t>
+          <t>脚气病（风气积滞而成，发时甚疼）</t>
         </is>
       </c>
       <c r="C4438" t="inlineStr">
         <is>
-          <t>用大蛞蝓一个捣中泥，加龙脑三分、胭脂坯子半钱，敷患处。敷药前。以石薜煮水熏洗更好。</t>
+          <t>用茵芋叶（炒）、薏苡仁各半两，郁李仁一两，牵牛子三两（生，研末），共研为末，加炼蜜做成丸子，如梧子大。每服二十丸，五更时以姜、枣煎汤送下。以泻为验。未泻再服。此方名“茵芋丸”。</t>
         </is>
       </c>
     </row>
@@ -75807,29 +75807,29 @@
       </c>
       <c r="B4439" t="inlineStr">
         <is>
-          <t>脚气病（风气积滞而成，发时甚疼）</t>
+          <t>手足枯痹拘挛</t>
         </is>
       </c>
       <c r="C4439" t="inlineStr">
         <is>
-          <t>用茵芋叶（炒）、薏苡仁各半两，郁李仁一两，牵牛子三两（生，研末），共研为末，加炼蜜做成丸子，如梧子大。每服二十丸，五更时以姜、枣煎汤送下。以泻为验。未泻再服。此方名“茵芋丸”。</t>
+          <t>用茵芋、附子、天雄、乌头、秦艽、女萎、防风、防己、石南叶、踯躅花、细辛、桂心各一两，切细，装薄布袋中，以酒一斗浸渍。几日后，取酒饮服。每服一合，一天两次。手足只感微痹即止。此方名“茵芋酒”。</t>
         </is>
       </c>
     </row>
     <row r="4440">
       <c r="A4440" t="inlineStr">
         <is>
-          <t>茵芋</t>
+          <t>泽漆</t>
         </is>
       </c>
       <c r="B4440" t="inlineStr">
         <is>
-          <t>手足枯痹拘挛</t>
+          <t>脚气赤肿，走路疼痛</t>
         </is>
       </c>
       <c r="C4440" t="inlineStr">
         <is>
-          <t>用茵芋、附子、天雄、乌头、秦艽、女萎、防风、防己、石南叶、踯躅花、细辛、桂心各一两，切细，装薄布袋中，以酒一斗浸渍。几日后，取酒饮服。每服一合，一天两次。手足只感微痹即止。此方名“茵芋酒”。</t>
+          <t>用泽漆鹭鸶藤、蜂窠，等分为末。每取一两，加水五碗煎成三碗，熏洗痛处。</t>
         </is>
       </c>
     </row>
@@ -75841,12 +75841,12 @@
       </c>
       <c r="B4441" t="inlineStr">
         <is>
-          <t>脚气赤肿，走路疼痛</t>
+          <t>咳嗽上气、脉沉</t>
         </is>
       </c>
       <c r="C4441" t="inlineStr">
         <is>
-          <t>用泽漆鹭鸶藤、蜂窠，等分为末。每取一两，加水五碗煎成三碗，熏洗痛处。</t>
+          <t>用泽漆三斤，加水五斗，煮取一斗五升，去渣，汁中再加半夏半升，紫参、白前、生姜各五两，甘草黄芩、人参、桂心各三两，最后煎成药汁五升。每服五合，一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75858,12 +75858,12 @@
       </c>
       <c r="B4442" t="inlineStr">
         <is>
-          <t>咳嗽上气、脉沉</t>
+          <t>瘰疬</t>
         </is>
       </c>
       <c r="C4442" t="inlineStr">
         <is>
-          <t>用泽漆三斤，加水五斗，煮取一斗五升，去渣，汁中再加半夏半升，紫参、白前、生姜各五两，甘草黄芩、人参、桂心各三两，最后煎成药汁五升。每服五合，一天服三次。</t>
+          <t>用泽漆一、二捆，加水二桶，熬成一桶。去渣，再熬成膏一碗，收存瓶中。用时先以椒、葱、槐枝把患处洗净，然后用膏涂搽，几次之后好可见效。</t>
         </is>
       </c>
     </row>
@@ -75875,12 +75875,12 @@
       </c>
       <c r="B4443" t="inlineStr">
         <is>
-          <t>瘰疬</t>
+          <t>水所蛊病（按：此病的病象是腹满，喘息、浮肿）</t>
         </is>
       </c>
       <c r="C4443" t="inlineStr">
         <is>
-          <t>用泽漆一、二捆，加水二桶，熬成一桶。去渣，再熬成膏一碗，收存瓶中。用时先以椒、葱、槐枝把患处洗净，然后用膏涂搽，几次之后好可见效。</t>
+          <t>用泽漆晒干，研为末，加枣肉和成丸子，如弹子大。每服二丸，白开水送下。一天服二次。如腹中觉暖、小便通畅，即为服药见效。</t>
         </is>
       </c>
     </row>
@@ -75892,12 +75892,12 @@
       </c>
       <c r="B4444" t="inlineStr">
         <is>
-          <t>水所蛊病（按：此病的病象是腹满，喘息、浮肿）</t>
+          <t>心下伏瘕（大如杯，不能进食）</t>
         </is>
       </c>
       <c r="C4444" t="inlineStr">
         <is>
-          <t>用泽漆晒干，研为末，加枣肉和成丸子，如弹子大。每服二丸，白开水送下。一天服二次。如腹中觉暖、小便通畅，即为服药见效。</t>
+          <t>用泽漆四两，大黄、葶苈各三两，捣烂筛细，加蜜成丸，如梧子大。每服二丸，一天服三次。</t>
         </is>
       </c>
     </row>
@@ -75909,12 +75909,12 @@
       </c>
       <c r="B4445" t="inlineStr">
         <is>
-          <t>心下伏瘕（大如杯，不能进食）</t>
+          <t>癣疮</t>
         </is>
       </c>
       <c r="C4445" t="inlineStr">
         <is>
-          <t>用泽漆四两，大黄、葶苈各三两，捣烂筛细，加蜜成丸，如梧子大。每服二丸，一天服三次。</t>
+          <t>用泽漆晒干，研为末，调油涂搽。</t>
         </is>
       </c>
     </row>
@@ -75926,29 +75926,29 @@
       </c>
       <c r="B4446" t="inlineStr">
         <is>
-          <t>癣疮</t>
+          <t>牙痛</t>
         </is>
       </c>
       <c r="C4446" t="inlineStr">
         <is>
-          <t>用泽漆晒干，研为末，调油涂搽。</t>
+          <t>用泽漆研为末，开水泡汁漱口。</t>
         </is>
       </c>
     </row>
     <row r="4447">
       <c r="A4447" t="inlineStr">
         <is>
-          <t>泽漆</t>
+          <t>杉</t>
         </is>
       </c>
       <c r="B4447" t="inlineStr">
         <is>
-          <t>牙痛</t>
+          <t>脚气肿满</t>
         </is>
       </c>
       <c r="C4447" t="inlineStr">
         <is>
-          <t>用泽漆研为末，开水泡汁漱口。</t>
+          <t>用杉木节一升、桔叶（切细）一升（无叶可用皮代）、大腹槟榔大一枚（连子打碎），童便三升，共煮成一升半，分两次服。若初服即见效。则不必再服。此方名“杉木汤”。</t>
         </is>
       </c>
     </row>
@@ -75960,29 +75960,29 @@
       </c>
       <c r="B4448" t="inlineStr">
         <is>
-          <t>脚气肿满</t>
+          <t>小儿阴肿</t>
         </is>
       </c>
       <c r="C4448" t="inlineStr">
         <is>
-          <t>用杉木节一升、桔叶（切细）一升（无叶可用皮代）、大腹槟榔大一枚（连子打碎），童便三升，共煮成一升半，分两次服。若初服即见效。则不必再服。此方名“杉木汤”。</t>
+          <t>用老杉木烧灰，加腻粉，调清油敷涂。杉皮：刀伤、汤火伤。取老树皮烧存性，研末敷搽。或调鸡蛋清涂搽。杉叶：风虫牙痛（同芎、细辛煎酒含漱）。</t>
         </is>
       </c>
     </row>
     <row r="4449">
       <c r="A4449" t="inlineStr">
         <is>
-          <t>杉</t>
+          <t>樟脑</t>
         </is>
       </c>
       <c r="B4449" t="inlineStr">
         <is>
-          <t>小儿阴肿</t>
+          <t>脚气肿痛</t>
         </is>
       </c>
       <c r="C4449" t="inlineStr">
         <is>
-          <t>用老杉木烧灰，加腻粉，调清油敷涂。杉皮：刀伤、汤火伤。取老树皮烧存性，研末敷搽。或调鸡蛋清涂搽。杉叶：风虫牙痛（同芎、细辛煎酒含漱）。</t>
+          <t>用樟脑二两、乌头三两，共研为末，加醋、糊做成丸子，如弹子大。每次取一丸，放足心下踏住，再和微火烘脚，脚上盖覆加暖，汗出如涎，即见效。</t>
         </is>
       </c>
     </row>
@@ -75994,12 +75994,12 @@
       </c>
       <c r="B4450" t="inlineStr">
         <is>
-          <t>脚气肿痛</t>
+          <t>小儿秃疮</t>
         </is>
       </c>
       <c r="C4450" t="inlineStr">
         <is>
-          <t>用樟脑二两、乌头三两，共研为末，加醋、糊做成丸子，如弹子大。每次取一丸，放足心下踏住，再和微火烘脚，脚上盖覆加暖，汗出如涎，即见效。</t>
+          <t>用樟脑一钱、花椒二钱、芝麻二两，共研为末涂，搽患处。</t>
         </is>
       </c>
     </row>
@@ -76011,29 +76011,29 @@
       </c>
       <c r="B4451" t="inlineStr">
         <is>
-          <t>小儿秃疮</t>
+          <t>牙齿虫痛</t>
         </is>
       </c>
       <c r="C4451" t="inlineStr">
         <is>
-          <t>用樟脑一钱、花椒二钱、芝麻二两，共研为末涂，搽患处。</t>
+          <t>用樟脑、朱砂等分擦牙、有特效。又方：用樟脑、黄丹、肥皂（去皮核）等分研匀，加蜜调成丸子，塞病齿孔中。</t>
         </is>
       </c>
     </row>
     <row r="4452">
       <c r="A4452" t="inlineStr">
         <is>
-          <t>樟脑</t>
+          <t>水蓼</t>
         </is>
       </c>
       <c r="B4452" t="inlineStr">
         <is>
-          <t>牙齿虫痛</t>
+          <t>脚气肿痛成疮</t>
         </is>
       </c>
       <c r="C4452" t="inlineStr">
         <is>
-          <t>用樟脑、朱砂等分擦牙、有特效。又方：用樟脑、黄丹、肥皂（去皮核）等分研匀，加蜜调成丸子，塞病齿孔中。</t>
+          <t>用水蓼汁搽洗。</t>
         </is>
       </c>
     </row>
@@ -76045,29 +76045,29 @@
       </c>
       <c r="B4453" t="inlineStr">
         <is>
-          <t>脚气肿痛成疮</t>
+          <t>蛇咬伤</t>
         </is>
       </c>
       <c r="C4453" t="inlineStr">
         <is>
-          <t>用水蓼汁搽洗。</t>
+          <t>用水蓼茎、叶捣敷。</t>
         </is>
       </c>
     </row>
     <row r="4454">
       <c r="A4454" t="inlineStr">
         <is>
-          <t>水蓼</t>
+          <t>蜀漆</t>
         </is>
       </c>
       <c r="B4454" t="inlineStr">
         <is>
-          <t>蛇咬伤</t>
+          <t>截疟诸酒</t>
         </is>
       </c>
       <c r="C4454" t="inlineStr">
         <is>
-          <t>用水蓼茎、叶捣敷。</t>
+          <t>用常山一两，酒一升，泡二、三日后，分三次服完：清早一服，过一会再服，发病前第三次服。又方：治间日疟：常山一钱二分、大黄二钱半、炙甘草一钱二分，加水一碗半，煎至五成，叫做“醇”，发病日蝗五更温服；原药再加水一碗，煎至五成，叫做“”，未发病之日温服。此方名“醇汤”，甚验。又方：治久疟不止：常山一钱半、槟榔一钱、丁香五分、乌梅一个，酒一盏，泡药一夜，五更时饮下。一服便止，永不发病。</t>
         </is>
       </c>
     </row>
@@ -76079,12 +76079,12 @@
       </c>
       <c r="B4455" t="inlineStr">
         <is>
-          <t>截疟诸酒</t>
+          <t>截疟诸汤</t>
         </is>
       </c>
       <c r="C4455" t="inlineStr">
         <is>
-          <t>用常山一两，酒一升，泡二、三日后，分三次服完：清早一服，过一会再服，发病前第三次服。又方：治间日疟：常山一钱二分、大黄二钱半、炙甘草一钱二分，加水一碗半，煎至五成，叫做“醇”，发病日蝗五更温服；原药再加水一碗，煎至五成，叫做“”，未发病之日温服。此方名“醇汤”，甚验。又方：治久疟不止：常山一钱半、槟榔一钱、丁香五分、乌梅一个，酒一盏，泡药一夜，五更时饮下。一服便止，永不发病。</t>
+          <t>用常山三两、浆水三升，泡一夜，煎取一升，发病前一次服完，能吐为好。又方：用常山一两秫米一百粒，加水六升，煮成三升，分三次服（先一夜、未发时、临发时各一次）。又方：常山（酒煮后晒干）、知母、贝母草果各一钱半，加水一杯，煎半熟，五更时热服。药渣泡酒，发病前取饮。</t>
         </is>
       </c>
     </row>
@@ -76096,12 +76096,12 @@
       </c>
       <c r="B4456" t="inlineStr">
         <is>
-          <t>截疟诸汤</t>
+          <t>截疟诸丸</t>
         </is>
       </c>
       <c r="C4456" t="inlineStr">
         <is>
-          <t>用常山三两、浆水三升，泡一夜，煎取一升，发病前一次服完，能吐为好。又方：用常山一两秫米一百粒，加水六升，煮成三升，分三次服（先一夜、未发时、临发时各一次）。又方：常山（酒煮后晒干）、知母、贝母草果各一钱半，加水一杯，煎半熟，五更时热服。药渣泡酒，发病前取饮。</t>
+          <t>常山三两，研为末。加鸡蛋白和成丸子，如梧子在。瓦器内煮熟，取出晒干收存。每服二十丸，竹叶汤送上，五更一服，天明后一服，发病前一服，此方名“恒山丸”。数年不愈的疟疾，服两剂即愈；一月左右者，只须一剂。又方；常山捣成末，取三两，黄丹一两，加白蜜共捣匀，做成丸子，如梧子大。病发前服三丸，过一会再服三丸，临归病时又服三丸，酒送下。此方名“丹砂丸”。又方：常山二两、黄丹半两、乌梅（连核瓦焙）一两，共研为末，加糯米粉糊成丸子，如梧子大。每服三、五十丸，凉酒送下。先一夜一服，天明时一服，午后才进食，此方名“黄丹丸”。又方：用常山三两、知母一两、甘划昱两，共研为末，加蜜和丸，如梧子大。发病前服十丸，稍后服七丸，再后服五、六丸。又方：治一切疟，用常山四两，炒存性，草果二两，炒存性，共研为末，加薄糊做成丸子，如梧子大。每卧时服五十丸，冷酒送下。五更时再服一次。忌鹅羊热物。此方名“瞻仰丸”。又方：常山八两，酒浸后先蒸后焙，加要槟榔二两，生研末，拦糊作丸，如梧子大。如上方服法服丸子，此方名“胜金丸”。又方：常山、槟榔各一两，生研，加穿山甲的甲片（煨焦）一两半，共三工业区末。以糯米粉和末做成丸子，如绿豆大，黄丹为衣。每服三十至五十丸，服法同上此方名“二圣丸”。</t>
         </is>
       </c>
     </row>
@@ -76113,12 +76113,12 @@
       </c>
       <c r="B4457" t="inlineStr">
         <is>
-          <t>截疟诸丸</t>
+          <t>牡疟（只热不寒）</t>
         </is>
       </c>
       <c r="C4457" t="inlineStr">
         <is>
-          <t>常山三两，研为末。加鸡蛋白和成丸子，如梧子在。瓦器内煮熟，取出晒干收存。每服二十丸，竹叶汤送上，五更一服，天明后一服，发病前一服，此方名“恒山丸”。数年不愈的疟疾，服两剂即愈；一月左右者，只须一剂。又方；常山捣成末，取三两，黄丹一两，加白蜜共捣匀，做成丸子，如梧子大。病发前服三丸，过一会再服三丸，临归病时又服三丸，酒送下。此方名“丹砂丸”。又方：常山二两、黄丹半两、乌梅（连核瓦焙）一两，共研为末，加糯米粉糊成丸子，如梧子大。每服三、五十丸，凉酒送下。先一夜一服，天明时一服，午后才进食，此方名“黄丹丸”。又方：用常山三两、知母一两、甘划昱两，共研为末，加蜜和丸，如梧子大。发病前服十丸，稍后服七丸，再后服五、六丸。又方：治一切疟，用常山四两，炒存性，草果二两，炒存性，共研为末，加薄糊做成丸子，如梧子大。每卧时服五十丸，冷酒送下。五更时再服一次。忌鹅羊热物。此方名“瞻仰丸”。又方：常山八两，酒浸后先蒸后焙，加要槟榔二两，生研末，拦糊作丸，如梧子大。如上方服法服丸子，此方名“胜金丸”。又方：常山、槟榔各一两，生研，加穿山甲的甲片（煨焦）一两半，共三工业区末。以糯米粉和末做成丸子，如绿豆大，黄丹为衣。每服三十至五十丸，服法同上此方名“二圣丸”。</t>
+          <t>用蟓漆一钱半、甘草一钱、麻黄二钱、牡蛎粉二钱，先以水二杯，煎麻黄、蜀漆，去沫，再将其余各药倒入同煎至一杯，未发病前温服，得吐则疟止。</t>
         </is>
       </c>
     </row>
@@ -76130,12 +76130,12 @@
       </c>
       <c r="B4458" t="inlineStr">
         <is>
-          <t>牡疟（只热不寒）</t>
+          <t>牝疟（只寒不热）</t>
         </is>
       </c>
       <c r="C4458" t="inlineStr">
         <is>
-          <t>用蟓漆一钱半、甘草一钱、麻黄二钱、牡蛎粉二钱，先以水二杯，煎麻黄、蜀漆，去沫，再将其余各药倒入同煎至一杯，未发病前温服，得吐则疟止。</t>
+          <t>用蜀漆（去母煅三日暗伤）龙骨各二钱，共研为末。每服半钱，临发病之昌早晨一服，发病前再一服，浆水调下。如系温疟（热多于寒）又加蜀漆一钱，此方名“蜀漆散”。</t>
         </is>
       </c>
     </row>
@@ -76147,12 +76147,12 @@
       </c>
       <c r="B4459" t="inlineStr">
         <is>
-          <t>牝疟（只寒不热）</t>
+          <t>妊娠疟疾</t>
         </is>
       </c>
       <c r="C4459" t="inlineStr">
         <is>
-          <t>用蜀漆（去母煅三日暗伤）龙骨各二钱，共研为末。每服半钱，临发病之昌早晨一服，发病前再一服，浆水调下。如系温疟（热多于寒）又加蜀漆一钱，此方名“蜀漆散”。</t>
+          <t>用常山（酒蒸）、石膏（煅）各残，乌梅（炒）五分，甘草四分，加水一碗、酒一碗泡一夜，天明时温服。</t>
         </is>
       </c>
     </row>
@@ -76164,63 +76164,63 @@
       </c>
       <c r="B4460" t="inlineStr">
         <is>
-          <t>妊娠疟疾</t>
+          <t>小儿惊风暴死</t>
         </is>
       </c>
       <c r="C4460" t="inlineStr">
         <is>
-          <t>用常山（酒蒸）、石膏（煅）各残，乌梅（炒）五分，甘草四分，加水一碗、酒一碗泡一夜，天明时温服。</t>
+          <t>用蜀漆（炒）二钱、牡蛎一钱二分，浆米煎服。吐出痰涎即愈。此方名“千金汤”。</t>
         </is>
       </c>
     </row>
     <row r="4461">
       <c r="A4461" t="inlineStr">
         <is>
-          <t>蜀漆</t>
+          <t>乌木</t>
         </is>
       </c>
       <c r="B4461" t="inlineStr">
         <is>
-          <t>小儿惊风暴死</t>
+          <t>解毒，亦治霍乱吐利</t>
         </is>
       </c>
       <c r="C4461" t="inlineStr">
         <is>
-          <t>用蜀漆（炒）二钱、牡蛎一钱二分，浆米煎服。吐出痰涎即愈。此方名“千金汤”。</t>
+          <t>取木片研为末，温酒冲服。</t>
         </is>
       </c>
     </row>
     <row r="4462">
       <c r="A4462" t="inlineStr">
         <is>
-          <t>乌木</t>
+          <t>金星草</t>
         </is>
       </c>
       <c r="B4462" t="inlineStr">
         <is>
-          <t>解毒，亦治霍乱吐利</t>
+          <t>解热，通淋，消痈疮，解硫磺中毒</t>
         </is>
       </c>
       <c r="C4462" t="inlineStr">
         <is>
-          <t>取木片研为末，温酒冲服。</t>
+          <t>用根泡油涂头上，能大生毛发。</t>
         </is>
       </c>
     </row>
     <row r="4463">
       <c r="A4463" t="inlineStr">
         <is>
-          <t>金星草</t>
+          <t>闾茹</t>
         </is>
       </c>
       <c r="B4463" t="inlineStr">
         <is>
-          <t>解热，通淋，消痈疮，解硫磺中毒</t>
+          <t>疥疮</t>
         </is>
       </c>
       <c r="C4463" t="inlineStr">
         <is>
-          <t>用根泡油涂头上，能大生毛发。</t>
+          <t>用闾茹研为末，加轻粉、香油调匀敷涂。</t>
         </is>
       </c>
     </row>
@@ -76232,12 +76232,12 @@
       </c>
       <c r="B4464" t="inlineStr">
         <is>
-          <t>疥疮</t>
+          <t>伤寒咽痛（毒气上攻发肿）</t>
         </is>
       </c>
       <c r="C4464" t="inlineStr">
         <is>
-          <t>用闾茹研为末，加轻粉、香油调匀敷涂。</t>
+          <t>用指甲大小的闾茹一块，放口中嚼汁咽下。</t>
         </is>
       </c>
     </row>
@@ -76249,46 +76249,46 @@
       </c>
       <c r="B4465" t="inlineStr">
         <is>
-          <t>伤寒咽痛（毒气上攻发肿）</t>
+          <t>痈疽肿痛</t>
         </is>
       </c>
       <c r="C4465" t="inlineStr">
         <is>
-          <t>用指甲大小的闾茹一块，放口中嚼汁咽下。</t>
+          <t>用闾茹一两，研为末，每服一匙，温水送下。</t>
         </is>
       </c>
     </row>
     <row r="4466">
       <c r="A4466" t="inlineStr">
         <is>
-          <t>闾茹</t>
+          <t>温汤</t>
         </is>
       </c>
       <c r="B4466" t="inlineStr">
         <is>
-          <t>痈疽肿痛</t>
+          <t>筋骨挛缩，肌皮顽痹，手足不遂，眉发脱落以及各种疥癣等症</t>
         </is>
       </c>
       <c r="C4466" t="inlineStr">
         <is>
-          <t>用闾茹一两，研为末，每服一匙，温水送下。</t>
+          <t>上列气味与主治，主要是就硫磺泉而言，其他温泉，大都无毒（含砒石的温泉除外），即可烹茶，洗浴亦好。</t>
         </is>
       </c>
     </row>
     <row r="4467">
       <c r="A4467" t="inlineStr">
         <is>
-          <t>温汤</t>
+          <t>薯蓣</t>
         </is>
       </c>
       <c r="B4467" t="inlineStr">
         <is>
-          <t>筋骨挛缩，肌皮顽痹，手足不遂，眉发脱落以及各种疥癣等症</t>
+          <t>禁口痢</t>
         </is>
       </c>
       <c r="C4467" t="inlineStr">
         <is>
-          <t>上列气味与主治，主要是就硫磺泉而言，其他温泉，大都无毒（含砒石的温泉除外），即可烹茶，洗浴亦好。</t>
+          <t>用薯蓣半生半炒为末。每服二钱，米汤关定。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -76300,12 +76300,12 @@
       </c>
       <c r="B4468" t="inlineStr">
         <is>
-          <t>禁口痢</t>
+          <t>脾胃虚弱，不思饮食</t>
         </is>
       </c>
       <c r="C4468" t="inlineStr">
         <is>
-          <t>用薯蓣半生半炒为末。每服二钱，米汤关定。一天服二次。</t>
+          <t>用薯蓣、白术各一两，人参七钱半，共研为末，加水和糊做成丸子，如小豆大。每服四十至五十丸，米汤送下。</t>
         </is>
       </c>
     </row>
@@ -76317,12 +76317,12 @@
       </c>
       <c r="B4469" t="inlineStr">
         <is>
-          <t>脾胃虚弱，不思饮食</t>
+          <t>湿热虚泄</t>
         </is>
       </c>
       <c r="C4469" t="inlineStr">
         <is>
-          <t>用薯蓣、白术各一两，人参七钱半，共研为末，加水和糊做成丸子，如小豆大。每服四十至五十丸，米汤送下。</t>
+          <t>用薯蓣、苍术等分，加饭做成丸子米汤送服。</t>
         </is>
       </c>
     </row>
@@ -76334,12 +76334,12 @@
       </c>
       <c r="B4470" t="inlineStr">
         <is>
-          <t>湿热虚泄</t>
+          <t>手足冻疮</t>
         </is>
       </c>
       <c r="C4470" t="inlineStr">
         <is>
-          <t>用薯蓣、苍术等分，加饭做成丸子米汤送服。</t>
+          <t>有薯蓣一截，磨泥敷上。</t>
         </is>
       </c>
     </row>
@@ -76351,12 +76351,12 @@
       </c>
       <c r="B4471" t="inlineStr">
         <is>
-          <t>手足冻疮</t>
+          <t>痰风喘急</t>
         </is>
       </c>
       <c r="C4471" t="inlineStr">
         <is>
-          <t>有薯蓣一截，磨泥敷上。</t>
+          <t>用生薯蓣（捣烂）半碗，加甘蔗汁半碗，和匀，一次饮服。</t>
         </is>
       </c>
     </row>
@@ -76368,12 +76368,12 @@
       </c>
       <c r="B4472" t="inlineStr">
         <is>
-          <t>痰风喘急</t>
+          <t>小便数多</t>
         </is>
       </c>
       <c r="C4472" t="inlineStr">
         <is>
-          <t>用生薯蓣（捣烂）半碗，加甘蔗汁半碗，和匀，一次饮服。</t>
+          <t>用薯蓣（矾水煮过）、白茯苓，等分为末。每服二钱，水送下。</t>
         </is>
       </c>
     </row>
@@ -76385,12 +76385,12 @@
       </c>
       <c r="B4473" t="inlineStr">
         <is>
-          <t>小便数多</t>
+          <t>心腹虚胀，手足厥逆，不思饮食</t>
         </is>
       </c>
       <c r="C4473" t="inlineStr">
         <is>
-          <t>用薯蓣（矾水煮过）、白茯苓，等分为末。每服二钱，水送下。</t>
+          <t>用薯蓣半生半炒为末。每服二钱，米汤关定。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -76402,46 +76402,46 @@
       </c>
       <c r="B4474" t="inlineStr">
         <is>
-          <t>心腹虚胀，手足厥逆，不思饮食</t>
+          <t>肿毒初起</t>
         </is>
       </c>
       <c r="C4474" t="inlineStr">
         <is>
-          <t>用薯蓣半生半炒为末。每服二钱，米汤关定。一天服二次。</t>
+          <t>用带泥的薯蓣、蓖麻子、糯米等分，水泡过，研细敷涂即散。</t>
         </is>
       </c>
     </row>
     <row r="4475">
       <c r="A4475" t="inlineStr">
         <is>
-          <t>薯蓣</t>
+          <t>蚤休</t>
         </is>
       </c>
       <c r="B4475" t="inlineStr">
         <is>
-          <t>肿毒初起</t>
+          <t>惊阐、瘰疬、痈肿</t>
         </is>
       </c>
       <c r="C4475" t="inlineStr">
         <is>
-          <t>用带泥的薯蓣、蓖麻子、糯米等分，水泡过，研细敷涂即散。</t>
+          <t>磨醋敷痈肿蛇毒，甚有效。</t>
         </is>
       </c>
     </row>
     <row r="4476">
       <c r="A4476" t="inlineStr">
         <is>
-          <t>蚤休</t>
+          <t>预知子</t>
         </is>
       </c>
       <c r="B4476" t="inlineStr">
         <is>
-          <t>惊阐、瘰疬、痈肿</t>
+          <t>精神病（心气不足，精神恍惚，语言错妄，忪悸烦郁，忧悉惨戚，喜怒多风扇，健忘少睡，夜多异梦，狂不知人）</t>
         </is>
       </c>
       <c r="C4476" t="inlineStr">
         <is>
-          <t>磨醋敷痈肿蛇毒，甚有效。</t>
+          <t>用预知子（去皮）、白茯苓、枸杞子石草蒲、茯神、柏子仁、人胡、地骨皮、远志、山药、黄精（蒸熟）、朱砂（水飞），等分为末，加炼蜜和成丸子，发芡子大。每嚼服一丸，人参汤送人。</t>
         </is>
       </c>
     </row>
@@ -76453,29 +76453,29 @@
       </c>
       <c r="B4477" t="inlineStr">
         <is>
-          <t>精神病（心气不足，精神恍惚，语言错妄，忪悸烦郁，忧悉惨戚，喜怒多风扇，健忘少睡，夜多异梦，狂不知人）</t>
+          <t>疠风（眉落、声变）</t>
         </is>
       </c>
       <c r="C4477" t="inlineStr">
         <is>
-          <t>用预知子（去皮）、白茯苓、枸杞子石草蒲、茯神、柏子仁、人胡、地骨皮、远志、山药、黄精（蒸熟）、朱砂（水飞），等分为末，加炼蜜和成丸子，发芡子大。每嚼服一丸，人参汤送人。</t>
+          <t>用预知子、雄璜各二两，共研为末。另以乳香三两，同水一斗，煮成五升后，加入药末熬成膏，收存瓶。饭前一匙，温酒调下。</t>
         </is>
       </c>
     </row>
     <row r="4478">
       <c r="A4478" t="inlineStr">
         <is>
-          <t>预知子</t>
+          <t>秦椒</t>
         </is>
       </c>
       <c r="B4478" t="inlineStr">
         <is>
-          <t>疠风（眉落、声变）</t>
+          <t>久患口疮</t>
         </is>
       </c>
       <c r="C4478" t="inlineStr">
         <is>
-          <t>用预知子、雄璜各二两，共研为末。另以乳香三两，同水一斗，煮成五升后，加入药末熬成膏，收存瓶。饭前一匙，温酒调下。</t>
+          <t>用秦椒去掉闭口的颗粒然后水海洗面拌煮为粥，空心腹，以饭压下。重者可多服几次，以愈为度。</t>
         </is>
       </c>
     </row>
@@ -76487,12 +76487,12 @@
       </c>
       <c r="B4479" t="inlineStr">
         <is>
-          <t>久患口疮</t>
+          <t>手足心肿</t>
         </is>
       </c>
       <c r="C4479" t="inlineStr">
         <is>
-          <t>用秦椒去掉闭口的颗粒然后水海洗面拌煮为粥，空心腹，以饭压下。重者可多服几次，以愈为度。</t>
+          <t>用椒和盐末等分，醋调匀敷肿处。</t>
         </is>
       </c>
     </row>
@@ -76504,12 +76504,12 @@
       </c>
       <c r="B4480" t="inlineStr">
         <is>
-          <t>手足心肿</t>
+          <t>牙齿风痛</t>
         </is>
       </c>
       <c r="C4480" t="inlineStr">
         <is>
-          <t>用椒和盐末等分，醋调匀敷肿处。</t>
+          <t>用秦椒煎醋含漱。</t>
         </is>
       </c>
     </row>
@@ -76521,29 +76521,29 @@
       </c>
       <c r="B4481" t="inlineStr">
         <is>
-          <t>牙齿风痛</t>
+          <t>饮少尿多</t>
         </is>
       </c>
       <c r="C4481" t="inlineStr">
         <is>
-          <t>用秦椒煎醋含漱。</t>
+          <t>用秦椒、瓜蒂各二分，研为末，每服一匙，水送下。一天服三次。</t>
         </is>
       </c>
     </row>
     <row r="4482">
       <c r="A4482" t="inlineStr">
         <is>
-          <t>秦椒</t>
+          <t>湍</t>
         </is>
       </c>
       <c r="B4482" t="inlineStr">
         <is>
-          <t>饮少尿多</t>
+          <t>久患水胀</t>
         </is>
       </c>
       <c r="C4482" t="inlineStr">
         <is>
-          <t>用秦椒、瓜蒂各二分，研为末，每服一匙，水送下。一天服三次。</t>
+          <t>用猪獾肉煮汤吃。</t>
         </is>
       </c>
     </row>
@@ -76555,29 +76555,29 @@
       </c>
       <c r="B4483" t="inlineStr">
         <is>
-          <t>久患水胀</t>
+          <t>咳逆劳热，上气虚乏</t>
         </is>
       </c>
       <c r="C4483" t="inlineStr">
         <is>
-          <t>用猪獾肉煮汤吃。</t>
+          <t>用猪獾肉调五味煮吃。又方：用猪獾骨研为末，每服三合，酒送下。一天服二次，直至病愈。</t>
         </is>
       </c>
     </row>
     <row r="4484">
       <c r="A4484" t="inlineStr">
         <is>
-          <t>湍</t>
+          <t>款冬花</t>
         </is>
       </c>
       <c r="B4484" t="inlineStr">
         <is>
-          <t>咳逆劳热，上气虚乏</t>
+          <t>久咳不愈</t>
         </is>
       </c>
       <c r="C4484" t="inlineStr">
         <is>
-          <t>用猪獾肉调五味煮吃。又方：用猪獾骨研为末，每服三合，酒送下。一天服二次，直至病愈。</t>
+          <t>用早晨取款冬花一小团，拌蜜少许，放有在瓦罐内烧烟，缺罐留一忆，让烟出，以口吸烟咽下。如此五日，至第六日，吃一餐羊肉包子，从此病愈。</t>
         </is>
       </c>
     </row>
@@ -76589,12 +76589,12 @@
       </c>
       <c r="B4485" t="inlineStr">
         <is>
-          <t>久咳不愈</t>
+          <t>口中疳疮</t>
         </is>
       </c>
       <c r="C4485" t="inlineStr">
         <is>
-          <t>用早晨取款冬花一小团，拌蜜少许，放有在瓦罐内烧烟，缺罐留一忆，让烟出，以口吸烟咽下。如此五日，至第六日，吃一餐羊肉包子，从此病愈。</t>
+          <t>用款冬花、黄连，等分为末，以唾液调成饼子，将蛇床子煎汤漱口将饼子敷患处。</t>
         </is>
       </c>
     </row>
@@ -76606,29 +76606,29 @@
       </c>
       <c r="B4486" t="inlineStr">
         <is>
-          <t>口中疳疮</t>
+          <t>痰嗽带血</t>
         </is>
       </c>
       <c r="C4486" t="inlineStr">
         <is>
-          <t>用款冬花、黄连，等分为末，以唾液调成饼子，将蛇床子煎汤漱口将饼子敷患处。</t>
+          <t>用款冬花、百俣，经蒸、焙后，等分为末，加蜜做成丸子，如龙眼大。每天临睡时嚼服一丸，姜汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4487">
       <c r="A4487" t="inlineStr">
         <is>
-          <t>款冬花</t>
+          <t>白前</t>
         </is>
       </c>
       <c r="B4487" t="inlineStr">
         <is>
-          <t>痰嗽带血</t>
+          <t>久咳气壅（体肿、短气、胀满、喉中呼吸有声，不能平躺卧下）</t>
         </is>
       </c>
       <c r="C4487" t="inlineStr">
         <is>
-          <t>用款冬花、百俣，经蒸、焙后，等分为末，加蜜做成丸子，如龙眼大。每天临睡时嚼服一丸，姜汤送下。</t>
+          <t>用白前二两，紫苑、半夏各三两，大戟七合，以水一斗浸一夜后煮成三升，分数次服。忌食羊内，饩糖。</t>
         </is>
       </c>
     </row>
@@ -76640,46 +76640,46 @@
       </c>
       <c r="B4488" t="inlineStr">
         <is>
-          <t>久咳气壅（体肿、短气、胀满、喉中呼吸有声，不能平躺卧下）</t>
+          <t>久嗽咳血</t>
         </is>
       </c>
       <c r="C4488" t="inlineStr">
         <is>
-          <t>用白前二两，紫苑、半夏各三两，大戟七合，以水一斗浸一夜后煮成三升，分数次服。忌食羊内，饩糖。</t>
+          <t>用白前、桔梗、桑白皮各三两（炒过），甘草一两（灸），加水六升，煮成一升，分三次服下。忌食猪肉、白菜。</t>
         </is>
       </c>
     </row>
     <row r="4489">
       <c r="A4489" t="inlineStr">
         <is>
-          <t>白前</t>
+          <t>金鱼</t>
         </is>
       </c>
       <c r="B4489" t="inlineStr">
         <is>
-          <t>久嗽咳血</t>
+          <t>久痢噤口</t>
         </is>
       </c>
       <c r="C4489" t="inlineStr">
         <is>
-          <t>用白前、桔梗、桑白皮各三两（炒过），甘草一两（灸），加水六升，煮成一升，分三次服下。忌食猪肉、白菜。</t>
+          <t>用金鱼一尾，加盐、酱、葱以及胡椒末三、四钱煮熟，放病人面前令嗅热气，欲想吃，可随意连汤吃尽，屡治有效。</t>
         </is>
       </c>
     </row>
     <row r="4490">
       <c r="A4490" t="inlineStr">
         <is>
-          <t>金鱼</t>
+          <t>鹜</t>
         </is>
       </c>
       <c r="B4490" t="inlineStr">
         <is>
-          <t>久痢噤口</t>
+          <t>久虚发热，吐痰咳血</t>
         </is>
       </c>
       <c r="C4490" t="inlineStr">
         <is>
-          <t>用金鱼一尾，加盐、酱、葱以及胡椒末三、四钱煮熟，放病人面前令嗅热气，欲想吃，可随意连汤吃尽，屡治有效。</t>
+          <t>用黑嘴白鸭一只，取血。加温酒饮适量。另将此鸭去毛，破腹去肠，拭净，放入大枣肉二升，参苓平胃散一升，扎定，半装沙锅中以炭火慢煨。取陈酒一瓶，分三次倒入锅内。待酒干后，食鸭及枣。此主名“白凤膏”，常吃，病好渐愈。</t>
         </is>
       </c>
     </row>
@@ -76691,46 +76691,46 @@
       </c>
       <c r="B4491" t="inlineStr">
         <is>
-          <t>久虚发热，吐痰咳血</t>
+          <t>瘰疬出水</t>
         </is>
       </c>
       <c r="C4491" t="inlineStr">
         <is>
-          <t>用黑嘴白鸭一只，取血。加温酒饮适量。另将此鸭去毛，破腹去肠，拭净，放入大枣肉二升，参苓平胃散一升，扎定，半装沙锅中以炭火慢煨。取陈酒一瓶，分三次倒入锅内。待酒干后，食鸭及枣。此主名“白凤膏”，常吃，病好渐愈。</t>
+          <t>可用鸭油调半夏末敷涂。</t>
         </is>
       </c>
     </row>
     <row r="4492">
       <c r="A4492" t="inlineStr">
         <is>
-          <t>鹜</t>
+          <t>卷柏</t>
         </is>
       </c>
       <c r="B4492" t="inlineStr">
         <is>
-          <t>瘰疬出水</t>
+          <t>咳逆，脱肛，淋结</t>
         </is>
       </c>
       <c r="C4492" t="inlineStr">
         <is>
-          <t>可用鸭油调半夏末敷涂。</t>
+          <t>生用破血。炙用止血。</t>
         </is>
       </c>
     </row>
     <row r="4493">
       <c r="A4493" t="inlineStr">
         <is>
-          <t>卷柏</t>
+          <t>西瓜</t>
         </is>
       </c>
       <c r="B4493" t="inlineStr">
         <is>
-          <t>咳逆，脱肛，淋结</t>
+          <t>口舌生疮</t>
         </is>
       </c>
       <c r="C4493" t="inlineStr">
         <is>
-          <t>生用破血。炙用止血。</t>
+          <t>用西瓜皮烧过，研末，放口内含噙。</t>
         </is>
       </c>
     </row>
@@ -76742,12 +76742,12 @@
       </c>
       <c r="B4494" t="inlineStr">
         <is>
-          <t>口舌生疮</t>
+          <t>闪挫腰痛</t>
         </is>
       </c>
       <c r="C4494" t="inlineStr">
         <is>
-          <t>用西瓜皮烧过，研末，放口内含噙。</t>
+          <t>用西瓜青皮阴干，研为末，盐酒调服三钱。</t>
         </is>
       </c>
     </row>
@@ -76759,29 +76759,29 @@
       </c>
       <c r="B4495" t="inlineStr">
         <is>
-          <t>闪挫腰痛</t>
+          <t>食瓜过多，人感适</t>
         </is>
       </c>
       <c r="C4495" t="inlineStr">
         <is>
-          <t>用西瓜青皮阴干，研为末，盐酒调服三钱。</t>
+          <t>用瓜皮煎汤饮服可解。</t>
         </is>
       </c>
     </row>
     <row r="4496">
       <c r="A4496" t="inlineStr">
         <is>
-          <t>西瓜</t>
+          <t>鳝鱼</t>
         </is>
       </c>
       <c r="B4496" t="inlineStr">
         <is>
-          <t>食瓜过多，人感适</t>
+          <t>口眼歪斜</t>
         </is>
       </c>
       <c r="C4496" t="inlineStr">
         <is>
-          <t>用瓜皮煎汤饮服可解。</t>
+          <t>用鳝鱼血加麝香少许，左歪涂右侧，右歪涂左侧，口眼复正后，将鳝血洗去。</t>
         </is>
       </c>
     </row>
@@ -76793,12 +76793,12 @@
       </c>
       <c r="B4497" t="inlineStr">
         <is>
-          <t>口眼歪斜</t>
+          <t>内痔出血</t>
         </is>
       </c>
       <c r="C4497" t="inlineStr">
         <is>
-          <t>用鳝鱼血加麝香少许，左歪涂右侧，右歪涂左侧，口眼复正后，将鳝血洗去。</t>
+          <t>煮食鳝鱼可治。</t>
         </is>
       </c>
     </row>
@@ -76810,46 +76810,46 @@
       </c>
       <c r="B4498" t="inlineStr">
         <is>
-          <t>内痔出血</t>
+          <t>湿风恶气</t>
         </is>
       </c>
       <c r="C4498" t="inlineStr">
         <is>
-          <t>煮食鳝鱼可治。</t>
+          <t>用鳝鱼作汤，空腹饱食，食后暖卧让汗出，有效。</t>
         </is>
       </c>
     </row>
     <row r="4499">
       <c r="A4499" t="inlineStr">
         <is>
-          <t>鳝鱼</t>
+          <t>黄大豆</t>
         </is>
       </c>
       <c r="B4499" t="inlineStr">
         <is>
-          <t>湿风恶气</t>
+          <t>宽中下气，利大肠，消水胀肿毒</t>
         </is>
       </c>
       <c r="C4499" t="inlineStr">
         <is>
-          <t>用鳝鱼作汤，空腹饱食，食后暖卧让汗出，有效。</t>
+          <t>研末，调热水，涂痘后痈。</t>
         </is>
       </c>
     </row>
     <row r="4500">
       <c r="A4500" t="inlineStr">
         <is>
-          <t>黄大豆</t>
+          <t>蚺蛇</t>
         </is>
       </c>
       <c r="B4500" t="inlineStr">
         <is>
-          <t>宽中下气，利大肠，消水胀肿毒</t>
+          <t>狂犬咬伤</t>
         </is>
       </c>
       <c r="C4500" t="inlineStr">
         <is>
-          <t>研末，调热水，涂痘后痈。</t>
+          <t>用蛇肉研末，水送服五分。一天服三次，若无蚺蛇，用他蛇代亦可。</t>
         </is>
       </c>
     </row>
@@ -76861,12 +76861,12 @@
       </c>
       <c r="B4501" t="inlineStr">
         <is>
-          <t>狂犬咬伤</t>
+          <t>小儿疳痢（枯瘦喜睡，坐则闭目，饮食无味）</t>
         </is>
       </c>
       <c r="C4501" t="inlineStr">
         <is>
-          <t>用蛇肉研末，水送服五分。一天服三次，若无蚺蛇，用他蛇代亦可。</t>
+          <t>用蚺蛇胆如豆大两片，煮通草汁研化，随意饮服。</t>
         </is>
       </c>
     </row>
@@ -76878,12 +76878,12 @@
       </c>
       <c r="B4502" t="inlineStr">
         <is>
-          <t>小儿疳痢（枯瘦喜睡，坐则闭目，饮食无味）</t>
+          <t>痔疮肿痛</t>
         </is>
       </c>
       <c r="C4502" t="inlineStr">
         <is>
-          <t>用蚺蛇胆如豆大两片，煮通草汁研化，随意饮服。</t>
+          <t>用蚺蛇胆研细，调香油涂搽，立效。</t>
         </is>
       </c>
     </row>
@@ -76895,46 +76895,46 @@
       </c>
       <c r="B4503" t="inlineStr">
         <is>
-          <t>痔疮肿痛</t>
+          <t>诸同瘫痪，筋挛骨痛，疠风疥癣等</t>
         </is>
       </c>
       <c r="C4503" t="inlineStr">
         <is>
-          <t>用蚺蛇胆研细，调香油涂搽，立效。</t>
+          <t>用蚺蛇肉一斤、羌活一两、糯米二斗，加曲酿酒，每随量温饮数杯。忌风及房事。</t>
         </is>
       </c>
     </row>
     <row r="4504">
       <c r="A4504" t="inlineStr">
         <is>
-          <t>蚺蛇</t>
+          <t>豇豆</t>
         </is>
       </c>
       <c r="B4504" t="inlineStr">
         <is>
-          <t>诸同瘫痪，筋挛骨痛，疠风疥癣等</t>
+          <t>理中有益气，补肾健胃</t>
         </is>
       </c>
       <c r="C4504" t="inlineStr">
         <is>
-          <t>用蚺蛇肉一斤、羌活一两、糯米二斗，加曲酿酒，每随量温饮数杯。忌风及房事。</t>
+          <t>治吐逆泄痢、小便频数。</t>
         </is>
       </c>
     </row>
     <row r="4505">
       <c r="A4505" t="inlineStr">
         <is>
-          <t>豇豆</t>
+          <t>酱</t>
         </is>
       </c>
       <c r="B4505" t="inlineStr">
         <is>
-          <t>理中有益气，补肾健胃</t>
+          <t>疬疡</t>
         </is>
       </c>
       <c r="C4505" t="inlineStr">
         <is>
-          <t>治吐逆泄痢、小便频数。</t>
+          <t>用酱清调石硫磺细末，每日涂搽。</t>
         </is>
       </c>
     </row>
@@ -76946,12 +76946,12 @@
       </c>
       <c r="B4506" t="inlineStr">
         <is>
-          <t>疬疡</t>
+          <t>妊娠尿血</t>
         </is>
       </c>
       <c r="C4506" t="inlineStr">
         <is>
-          <t>用酱清调石硫磺细末，每日涂搽。</t>
+          <t>用豆酱一大碗，熬干，加生地黄二两，研为末。每服二钱，米汤送下。</t>
         </is>
       </c>
     </row>
@@ -76963,12 +76963,12 @@
       </c>
       <c r="B4507" t="inlineStr">
         <is>
-          <t>妊娠尿血</t>
+          <t>妊娠下血</t>
         </is>
       </c>
       <c r="C4507" t="inlineStr">
         <is>
-          <t>用豆酱一大碗，熬干，加生地黄二两，研为末。每服二钱，米汤送下。</t>
+          <t>有酱二升，去汁，取豆，炒过，研为末。每服一匙，酒送下。一天服三次。</t>
         </is>
       </c>
     </row>
@@ -76980,12 +76980,12 @@
       </c>
       <c r="B4508" t="inlineStr">
         <is>
-          <t>妊娠下血</t>
+          <t>汤火伤</t>
         </is>
       </c>
       <c r="C4508" t="inlineStr">
         <is>
-          <t>有酱二升，去汁，取豆，炒过，研为末。每服一匙，酒送下。一天服三次。</t>
+          <t>用酱涂。</t>
         </is>
       </c>
     </row>
@@ -76997,29 +76997,29 @@
       </c>
       <c r="B4509" t="inlineStr">
         <is>
-          <t>汤火伤</t>
+          <t>中砒毒</t>
         </is>
       </c>
       <c r="C4509" t="inlineStr">
         <is>
-          <t>用酱涂。</t>
+          <t>用酱调水服。</t>
         </is>
       </c>
     </row>
     <row r="4510">
       <c r="A4510" t="inlineStr">
         <is>
-          <t>酱</t>
+          <t>紫参</t>
         </is>
       </c>
       <c r="B4510" t="inlineStr">
         <is>
-          <t>中砒毒</t>
+          <t>脸上酒刺</t>
         </is>
       </c>
       <c r="C4510" t="inlineStr">
         <is>
-          <t>用酱调水服。</t>
+          <t>用紫参、丹参、人参、苦参、沙参和成一两，共为末，加胡桃仁捣烂，和成丸子，如梧子大。每服三十丸，茶送下。</t>
         </is>
       </c>
     </row>
@@ -77031,12 +77031,12 @@
       </c>
       <c r="B4511" t="inlineStr">
         <is>
-          <t>脸上酒刺</t>
+          <t>吐血不止</t>
         </is>
       </c>
       <c r="C4511" t="inlineStr">
         <is>
-          <t>用紫参、丹参、人参、苦参、沙参和成一两，共为末，加胡桃仁捣烂，和成丸子，如梧子大。每服三十丸，茶送下。</t>
+          <t>用紫参、人参、阿胶（炒），等分为末。每服一钱，乌梅汤送下。又方：与上方基本相同，但减去人参。换为甘草，以糯米汤送下。</t>
         </is>
       </c>
     </row>
@@ -77048,29 +77048,29 @@
       </c>
       <c r="B4512" t="inlineStr">
         <is>
-          <t>吐血不止</t>
+          <t>下痢</t>
         </is>
       </c>
       <c r="C4512" t="inlineStr">
         <is>
-          <t>用紫参、人参、阿胶（炒），等分为末。每服一钱，乌梅汤送下。又方：与上方基本相同，但减去人参。换为甘草，以糯米汤送下。</t>
+          <t>用紫参半斤，加水五升，煎成二升。再加入甘草二两，煎至半升，分三次服。此方名“紫参汤”。</t>
         </is>
       </c>
     </row>
     <row r="4513">
       <c r="A4513" t="inlineStr">
         <is>
-          <t>紫参</t>
+          <t>榧实</t>
         </is>
       </c>
       <c r="B4513" t="inlineStr">
         <is>
-          <t>下痢</t>
+          <t>令发不落</t>
         </is>
       </c>
       <c r="C4513" t="inlineStr">
         <is>
-          <t>用紫参半斤，加水五升，煎成二升。再加入甘草二两，煎至半升，分三次服。此方名“紫参汤”。</t>
+          <t>用榧子三个、胡桃二个、侧柏叶一两，捣烂浸雪水中，梳头发。</t>
         </is>
       </c>
     </row>
@@ -77082,12 +77082,12 @@
       </c>
       <c r="B4514" t="inlineStr">
         <is>
-          <t>令发不落</t>
+          <t>杀体内寄生虫</t>
         </is>
       </c>
       <c r="C4514" t="inlineStr">
         <is>
-          <t>用榧子三个、胡桃二个、侧柏叶一两，捣烂浸雪水中，梳头发。</t>
+          <t>用榧子一百枚，去皮，炒熟吃。胃弱的人，用量减半。</t>
         </is>
       </c>
     </row>
@@ -77099,29 +77099,29 @@
       </c>
       <c r="B4515" t="inlineStr">
         <is>
-          <t>杀体内寄生虫</t>
+          <t>突然吐血</t>
         </is>
       </c>
       <c r="C4515" t="inlineStr">
         <is>
-          <t>用榧子一百枚，去皮，炒熟吃。胃弱的人，用量减半。</t>
+          <t>先吃蒸饼两、三个，以榧子为末，开水送服三钱。一天服三次。</t>
         </is>
       </c>
     </row>
     <row r="4516">
       <c r="A4516" t="inlineStr">
         <is>
-          <t>榧实</t>
+          <t>连翘</t>
         </is>
       </c>
       <c r="B4516" t="inlineStr">
         <is>
-          <t>突然吐血</t>
+          <t>瘰疬结核</t>
         </is>
       </c>
       <c r="C4516" t="inlineStr">
         <is>
-          <t>先吃蒸饼两、三个，以榧子为末，开水送服三钱。一天服三次。</t>
+          <t>用连翘、脂订等分为末，随时吞服。</t>
         </is>
       </c>
     </row>
@@ -77133,12 +77133,12 @@
       </c>
       <c r="B4517" t="inlineStr">
         <is>
-          <t>瘰疬结核</t>
+          <t>痈疸肿毒</t>
         </is>
       </c>
       <c r="C4517" t="inlineStr">
         <is>
-          <t>用连翘、脂订等分为末，随时吞服。</t>
+          <t>用连翘草及根各一升，加水一斗六升，煮成三升服。出汗为见效。</t>
         </is>
       </c>
     </row>
@@ -77150,29 +77150,29 @@
       </c>
       <c r="B4518" t="inlineStr">
         <is>
-          <t>痈疸肿毒</t>
+          <t>痔疮肿痛</t>
         </is>
       </c>
       <c r="C4518" t="inlineStr">
         <is>
-          <t>用连翘草及根各一升，加水一斗六升，煮成三升服。出汗为见效。</t>
+          <t>用连翘煎汤熏洗，后以绿矾加麝香少许敷贴。</t>
         </is>
       </c>
     </row>
     <row r="4519">
       <c r="A4519" t="inlineStr">
         <is>
-          <t>连翘</t>
+          <t>黄颡鱼</t>
         </is>
       </c>
       <c r="B4519" t="inlineStr">
         <is>
-          <t>痔疮肿痛</t>
+          <t>瘰疬溃坏</t>
         </is>
       </c>
       <c r="C4519" t="inlineStr">
         <is>
-          <t>用连翘煎汤熏洗，后以绿矾加麝香少许敷贴。</t>
+          <t>用黄颡鱼破开，纳入蓖麻子二十粒扎定。烧存性，研为末，香油调敷。</t>
         </is>
       </c>
     </row>
@@ -77184,29 +77184,29 @@
       </c>
       <c r="B4520" t="inlineStr">
         <is>
-          <t>瘰疬溃坏</t>
+          <t>水肿</t>
         </is>
       </c>
       <c r="C4520" t="inlineStr">
         <is>
-          <t>用黄颡鱼破开，纳入蓖麻子二十粒扎定。烧存性，研为末，香油调敷。</t>
+          <t>用黄颡鱼三尾、绿豆一斤、大蒜三瓣，水煮烂，去鱼食豆，以煮汁调商陆末一钱服下。有人把此主用诗记下：“一头黄颡八须鱼，绿豆同煎一合余。白煮作羹成顿服，管教水肿自消除”。</t>
         </is>
       </c>
     </row>
     <row r="4521">
       <c r="A4521" t="inlineStr">
         <is>
-          <t>黄颡鱼</t>
+          <t>野菊</t>
         </is>
       </c>
       <c r="B4521" t="inlineStr">
         <is>
-          <t>水肿</t>
+          <t>瘰疬末破</t>
         </is>
       </c>
       <c r="C4521" t="inlineStr">
         <is>
-          <t>用黄颡鱼三尾、绿豆一斤、大蒜三瓣，水煮烂，去鱼食豆，以煮汁调商陆末一钱服下。有人把此主用诗记下：“一头黄颡八须鱼，绿豆同煎一合余。白煮作羹成顿服，管教水肿自消除”。</t>
+          <t>用野菊花根捣烂，煎酒内服；以药渣敷患处。</t>
         </is>
       </c>
     </row>
@@ -77218,12 +77218,12 @@
       </c>
       <c r="B4522" t="inlineStr">
         <is>
-          <t>瘰疬末破</t>
+          <t>天泡湿疮</t>
         </is>
       </c>
       <c r="C4522" t="inlineStr">
         <is>
-          <t>用野菊花根捣烂，煎酒内服；以药渣敷患处。</t>
+          <t>用野菊花根、枣木，共煎汤洗患处。</t>
         </is>
       </c>
     </row>
@@ -77235,29 +77235,29 @@
       </c>
       <c r="B4523" t="inlineStr">
         <is>
-          <t>天泡湿疮</t>
+          <t>无名肿毒</t>
         </is>
       </c>
       <c r="C4523" t="inlineStr">
         <is>
-          <t>用野菊花根、枣木，共煎汤洗患处。</t>
+          <t>用野菊花连茎捣烂，酒煎，乘热服，让汗发出；另以药渣敷患处。又方：野菊花茎叶、苍耳草各一把，共捣烂，加入酒一碗，绞取汁取；仍以药渣敷患处。要出汗才好。又方：夏日采苍耳叶，秋日采野菊花，共研为末。每服三钱，酒送下。</t>
         </is>
       </c>
     </row>
     <row r="4524">
       <c r="A4524" t="inlineStr">
         <is>
-          <t>野菊</t>
+          <t>石胡荽</t>
         </is>
       </c>
       <c r="B4524" t="inlineStr">
         <is>
-          <t>无名肿毒</t>
+          <t>目疾，翳障（目赤肿胀，羞明昏暗，隐涩疼痛，眵泪风痒，鼻塞头痛，外翳扳睛）</t>
         </is>
       </c>
       <c r="C4524" t="inlineStr">
         <is>
-          <t>用野菊花连茎捣烂，酒煎，乘热服，让汗发出；另以药渣敷患处。又方：野菊花茎叶、苍耳草各一把，共捣烂，加入酒一碗，绞取汁取；仍以药渣敷患处。要出汗才好。又方：夏日采苍耳叶，秋日采野菊花，共研为末。每服三钱，酒送下。</t>
+          <t>用石胡荽（晒干）二钱，青黛、川芎各一钱，共研为末。先含水一口，取药末如米大一小撮嗅入鼻内，以泪出为度。有的配方中减去青黛。此方名为“碧云散”。</t>
         </is>
       </c>
     </row>
@@ -77269,12 +77269,12 @@
       </c>
       <c r="B4525" t="inlineStr">
         <is>
-          <t>目疾，翳障（目赤肿胀，羞明昏暗，隐涩疼痛，眵泪风痒，鼻塞头痛，外翳扳睛）</t>
+          <t>脾寒疟疾</t>
         </is>
       </c>
       <c r="C4525" t="inlineStr">
         <is>
-          <t>用石胡荽（晒干）二钱，青黛、川芎各一钱，共研为末。先含水一口，取药末如米大一小撮嗅入鼻内，以泪出为度。有的配方中减去青黛。此方名为“碧云散”。</t>
+          <t>用石胡荽一把，捣取汁半碗，加酒半碗服下，甚效。</t>
         </is>
       </c>
     </row>
@@ -77286,12 +77286,12 @@
       </c>
       <c r="B4526" t="inlineStr">
         <is>
-          <t>脾寒疟疾</t>
+          <t>塞鼻治翳</t>
         </is>
       </c>
       <c r="C4526" t="inlineStr">
         <is>
-          <t>用石胡荽一把，捣取汁半碗，加酒半碗服下，甚效。</t>
+          <t>治法总结为诗歌一首：赤眼之余翳忽生，草中鹅不食为名，塞入鼻内频频换，三日之间复旧明。</t>
         </is>
       </c>
     </row>
@@ -77303,12 +77303,12 @@
       </c>
       <c r="B4527" t="inlineStr">
         <is>
-          <t>塞鼻治翳</t>
+          <t>湿毒胫疮</t>
         </is>
       </c>
       <c r="C4527" t="inlineStr">
         <is>
-          <t>治法总结为诗歌一首：赤眼之余翳忽生，草中鹅不食为名，塞入鼻内频频换，三日之间复旧明。</t>
+          <t>夏季采石胡荽，晒收为末，每取末五钱、汞粉五分，加桐油调成膏。先以茶洗净患处，然后贴膏包好。将有黄水流出。五、六日病愈。</t>
         </is>
       </c>
     </row>
@@ -77320,12 +77320,12 @@
       </c>
       <c r="B4528" t="inlineStr">
         <is>
-          <t>湿毒胫疮</t>
+          <t>痰喘</t>
         </is>
       </c>
       <c r="C4528" t="inlineStr">
         <is>
-          <t>夏季采石胡荽，晒收为末，每取末五钱、汞粉五分，加桐油调成膏。先以茶洗净患处，然后贴膏包好。将有黄水流出。五、六日病愈。</t>
+          <t>用石胡荽左杨汁，和酒服。</t>
         </is>
       </c>
     </row>
@@ -77337,12 +77337,12 @@
       </c>
       <c r="B4529" t="inlineStr">
         <is>
-          <t>痰喘</t>
+          <t>牙痛</t>
         </is>
       </c>
       <c r="C4529" t="inlineStr">
         <is>
-          <t>用石胡荽左杨汁，和酒服。</t>
+          <t>用棉裹鹅不食草，怀干研末，嗅入与牙痛同侧的鼻孔中。</t>
         </is>
       </c>
     </row>
@@ -77354,12 +77354,12 @@
       </c>
       <c r="B4530" t="inlineStr">
         <is>
-          <t>牙痛</t>
+          <t>痔疮肿痛</t>
         </is>
       </c>
       <c r="C4530" t="inlineStr">
         <is>
-          <t>用棉裹鹅不食草，怀干研末，嗅入与牙痛同侧的鼻孔中。</t>
+          <t>用石胡荽捣烂敷贴。</t>
         </is>
       </c>
     </row>
@@ -77371,29 +77371,29 @@
       </c>
       <c r="B4531" t="inlineStr">
         <is>
-          <t>痔疮肿痛</t>
+          <t>肿毒</t>
         </is>
       </c>
       <c r="C4531" t="inlineStr">
         <is>
-          <t>用石胡荽捣烂敷贴。</t>
+          <t>用石胡荽一把、穿山甲（浇存性）七分、当归尾三钱，共捣烂，加酒一碗，绞汁服，以渣敷患处。</t>
         </is>
       </c>
     </row>
     <row r="4532">
       <c r="A4532" t="inlineStr">
         <is>
-          <t>石胡荽</t>
+          <t>苘麻</t>
         </is>
       </c>
       <c r="B4532" t="inlineStr">
         <is>
-          <t>肿毒</t>
+          <t>目生翳膜</t>
         </is>
       </c>
       <c r="C4532" t="inlineStr">
         <is>
-          <t>用石胡荽一把、穿山甲（浇存性）七分、当归尾三钱，共捣烂，加酒一碗，绞汁服，以渣敷患处。</t>
+          <t>用白麻子，去壳，放入猪肝薄片中，慢慢灸熟，研细，加醋和成丸子，如梧子大。每服三十丸，开水送下。又方：用苘麻子装袋中，蒸熟，晒干研末，加蜜做成丸子，温水送下。</t>
         </is>
       </c>
     </row>
@@ -77405,29 +77405,29 @@
       </c>
       <c r="B4533" t="inlineStr">
         <is>
-          <t>目生翳膜</t>
+          <t>眼疾</t>
         </is>
       </c>
       <c r="C4533" t="inlineStr">
         <is>
-          <t>用白麻子，去壳，放入猪肝薄片中，慢慢灸熟，研细，加醋和成丸子，如梧子大。每服三十丸，开水送下。又方：用苘麻子装袋中，蒸熟，晒干研末，加蜜做成丸子，温水送下。</t>
+          <t>和茼麻子一升，研为末，放入猪肝的切片中，灸熟，切成细末。每服少量，陈米汤送下。一天服三次。</t>
         </is>
       </c>
     </row>
     <row r="4534">
       <c r="A4534" t="inlineStr">
         <is>
-          <t>苘麻</t>
+          <t>衣鱼</t>
         </is>
       </c>
       <c r="B4534" t="inlineStr">
         <is>
-          <t>眼疾</t>
+          <t>目中浮翳</t>
         </is>
       </c>
       <c r="C4534" t="inlineStr">
         <is>
-          <t>和茼麻子一升，研为末，放入猪肝的切片中，灸熟，切成细末。每服少量，陈米汤送下。一天服三次。</t>
+          <t>取书中衣鱼末，点少许在翳上。一天点二次。</t>
         </is>
       </c>
     </row>
@@ -77439,12 +77439,12 @@
       </c>
       <c r="B4535" t="inlineStr">
         <is>
-          <t>目中浮翳</t>
+          <t>小便不通</t>
         </is>
       </c>
       <c r="C4535" t="inlineStr">
         <is>
-          <t>取书中衣鱼末，点少许在翳上。一天点二次。</t>
+          <t>有衣鱼、浓石乱发，等分为散。每服半匙，水送下。一天服三次，此方名“白鱼散”。</t>
         </is>
       </c>
     </row>
@@ -77456,12 +77456,12 @@
       </c>
       <c r="B4536" t="inlineStr">
         <is>
-          <t>小便不通</t>
+          <t>小儿疾</t>
         </is>
       </c>
       <c r="C4536" t="inlineStr">
         <is>
-          <t>有衣鱼、浓石乱发，等分为散。每服半匙，水送下。一天服三次，此方名“白鱼散”。</t>
+          <t>用衣鱼七个、竹茹一把，加酒一升，煎成二合，温服。此方名“白鱼散”。</t>
         </is>
       </c>
     </row>
@@ -77473,29 +77473,29 @@
       </c>
       <c r="B4537" t="inlineStr">
         <is>
-          <t>小儿疾</t>
+          <t>小儿天吊（眼向上翻）</t>
         </is>
       </c>
       <c r="C4537" t="inlineStr">
         <is>
-          <t>用衣鱼七个、竹茹一把，加酒一升，煎成二合，温服。此方名“白鱼散”。</t>
+          <t>用衣鱼干十个、湿者五个，加乳汁研匀灌下。</t>
         </is>
       </c>
     </row>
     <row r="4538">
       <c r="A4538" t="inlineStr">
         <is>
-          <t>衣鱼</t>
+          <t>婴奥</t>
         </is>
       </c>
       <c r="B4538" t="inlineStr">
         <is>
-          <t>小儿天吊（眼向上翻）</t>
+          <t>目中障翳</t>
         </is>
       </c>
       <c r="C4538" t="inlineStr">
         <is>
-          <t>用衣鱼干十个、湿者五个，加乳汁研匀灌下。</t>
+          <t>取婴奥藤以水浸过，吹气滴嗔入眼中，热翳及赤白障可以消去。</t>
         </is>
       </c>
     </row>
@@ -77507,12 +77507,12 @@
       </c>
       <c r="B4539" t="inlineStr">
         <is>
-          <t>目中障翳</t>
+          <t>热淋</t>
         </is>
       </c>
       <c r="C4539" t="inlineStr">
         <is>
-          <t>取婴奥藤以水浸过，吹气滴嗔入眼中，热翳及赤白障可以消去。</t>
+          <t>用野葡萄根七钱、葛根三钱，加水一碗，煎至七成，再加童便三成，空心温服。</t>
         </is>
       </c>
     </row>
@@ -77524,29 +77524,29 @@
       </c>
       <c r="B4540" t="inlineStr">
         <is>
-          <t>热淋</t>
+          <t>肿毒</t>
         </is>
       </c>
       <c r="C4540" t="inlineStr">
         <is>
-          <t>用野葡萄根七钱、葛根三钱，加水一碗，煎至七成，再加童便三成，空心温服。</t>
+          <t>用野葡萄根晒干，研为末。加水调涂。</t>
         </is>
       </c>
     </row>
     <row r="4541">
       <c r="A4541" t="inlineStr">
         <is>
-          <t>婴奥</t>
+          <t>鹰</t>
         </is>
       </c>
       <c r="B4541" t="inlineStr">
         <is>
-          <t>肿毒</t>
+          <t>奶癖（小儿膈下的硬块）</t>
         </is>
       </c>
       <c r="C4541" t="inlineStr">
         <is>
-          <t>用野葡萄根晒干，研为末。加水调涂。</t>
+          <t>用黄鹰炒一钱、密陀僧一两、硫磺一分、丁香二十一个，共研为末，每服二、三分，三岁以上小儿服半钱，用乳汁或白面汤调下。待排出青黑物后，好换服补药。以醋石榴皮（炙黑）半两、一分、木香一分、麝香半钱，共研为末。每服一钱，薄酒调下。连进二服。</t>
         </is>
       </c>
     </row>
@@ -77558,12 +77558,12 @@
       </c>
       <c r="B4542" t="inlineStr">
         <is>
-          <t>奶癖（小儿膈下的硬块）</t>
+          <t>食鲠</t>
         </is>
       </c>
       <c r="C4542" t="inlineStr">
         <is>
-          <t>用黄鹰炒一钱、密陀僧一两、硫磺一分、丁香二十一个，共研为末，每服二、三分，三岁以上小儿服半钱，用乳汁或白面汤调下。待排出青黑物后，好换服补药。以醋石榴皮（炙黑）半两、一分、木香一分、麝香半钱，共研为末。每服一钱，薄酒调下。连进二服。</t>
+          <t>用鹰屎烧成灰，水送服一匙。</t>
         </is>
       </c>
     </row>
@@ -77575,46 +77575,46 @@
       </c>
       <c r="B4543" t="inlineStr">
         <is>
-          <t>食鲠</t>
+          <t>消灭瘢痕</t>
         </is>
       </c>
       <c r="C4543" t="inlineStr">
         <is>
-          <t>用鹰屎烧成灰，水送服一匙。</t>
+          <t>用鹰屎二两、僵蚕一两半，共研为末，调蜜敷涂。又方：用鹰屎、白附子各一两，共研为末，调醋敷含。一天三、五次，痕灭为止。</t>
         </is>
       </c>
     </row>
     <row r="4544">
       <c r="A4544" t="inlineStr">
         <is>
-          <t>鹰</t>
+          <t>铁线草</t>
         </is>
       </c>
       <c r="B4544" t="inlineStr">
         <is>
-          <t>消灭瘢痕</t>
+          <t>男女诸风</t>
         </is>
       </c>
       <c r="C4544" t="inlineStr">
         <is>
-          <t>用鹰屎二两、僵蚕一两半，共研为末，调蜜敷涂。又方：用鹰屎、白附子各一两，共研为末，调醋敷含。一天三、五次，痕灭为止。</t>
+          <t>用铁线草根五钱、五加皮一两、防风二钱，共研为末；另取一斤重的乌骨鸡一只，水内淹死（按：这是为了留血），去毛肠，砍为肉块，加入药末混匀，倒适量麻油炒肉块成黄色；再随人量加酒把鸡煮熟。病人先以排风藤煎浓汤洗浴头、身，然后饮酒吃鸡，发现粘汁即愈。如不洗浴，则须发出风丹才见药效。对妇人产后风，有特效。</t>
         </is>
       </c>
     </row>
     <row r="4545">
       <c r="A4545" t="inlineStr">
         <is>
-          <t>铁线草</t>
+          <t>凝水石</t>
         </is>
       </c>
       <c r="B4545" t="inlineStr">
         <is>
-          <t>男女诸风</t>
+          <t>男女转脬，小便困难</t>
         </is>
       </c>
       <c r="C4545" t="inlineStr">
         <is>
-          <t>用铁线草根五钱、五加皮一两、防风二钱，共研为末；另取一斤重的乌骨鸡一只，水内淹死（按：这是为了留血），去毛肠，砍为肉块，加入药末混匀，倒适量麻油炒肉块成黄色；再随人量加酒把鸡煮熟。病人先以排风藤煎浓汤洗浴头、身，然后饮酒吃鸡，发现粘汁即愈。如不洗浴，则须发出风丹才见药效。对妇人产后风，有特效。</t>
+          <t>用寒水石（按：此处指凝水石）二两、滑石一两、葵子一合，共研为末，加水一斗，煮成五升。每服一升。</t>
         </is>
       </c>
     </row>
@@ -77626,12 +77626,12 @@
       </c>
       <c r="B4546" t="inlineStr">
         <is>
-          <t>男女转脬，小便困难</t>
+          <t>汤火灼伤</t>
         </is>
       </c>
       <c r="C4546" t="inlineStr">
         <is>
-          <t>用寒水石（按：此处指凝水石）二两、滑石一两、葵子一合，共研为末，加水一斗，煮成五升。每服一升。</t>
+          <t>用凝水石烧过，研细，敷伤处。</t>
         </is>
       </c>
     </row>
@@ -77643,12 +77643,12 @@
       </c>
       <c r="B4547" t="inlineStr">
         <is>
-          <t>汤火灼伤</t>
+          <t>小儿丹毒（皮肤热赤）</t>
         </is>
       </c>
       <c r="C4547" t="inlineStr">
         <is>
-          <t>用凝水石烧过，研细，敷伤处。</t>
+          <t>用凝水石半两、白土一分，共研为末，米醋调涂。</t>
         </is>
       </c>
     </row>
@@ -77660,46 +77660,46 @@
       </c>
       <c r="B4548" t="inlineStr">
         <is>
-          <t>小儿丹毒（皮肤热赤）</t>
+          <t>牙龈出血，有洞</t>
         </is>
       </c>
       <c r="C4548" t="inlineStr">
         <is>
-          <t>用凝水石半两、白土一分，共研为末，米醋调涂。</t>
+          <t>用凝水石粉三两、丹砂二钱，甘草、脑子各少许，共研为末，干敷。</t>
         </is>
       </c>
     </row>
     <row r="4549">
       <c r="A4549" t="inlineStr">
         <is>
-          <t>凝水石</t>
+          <t>列当</t>
         </is>
       </c>
       <c r="B4549" t="inlineStr">
         <is>
-          <t>牙龈出血，有洞</t>
+          <t>男子五劳七伤、阳痿等症</t>
         </is>
       </c>
       <c r="C4549" t="inlineStr">
         <is>
-          <t>用凝水石粉三两、丹砂二钱，甘草、脑子各少许，共研为末，干敷。</t>
+          <t>用列当二斤，捣烂筛净。</t>
         </is>
       </c>
     </row>
     <row r="4550">
       <c r="A4550" t="inlineStr">
         <is>
-          <t>列当</t>
+          <t>半边莲</t>
         </is>
       </c>
       <c r="B4550" t="inlineStr">
         <is>
-          <t>男子五劳七伤、阳痿等症</t>
+          <t>疟疾</t>
         </is>
       </c>
       <c r="C4550" t="inlineStr">
         <is>
-          <t>用列当二斤，捣烂筛净。</t>
+          <t>用半边莲、雄黄各二钱，共捣成泥，放碗内，盖好，等颜色变青后，加饭做成丸子，如梧子大。每服九丸，空心服，盐汤送下。</t>
         </is>
       </c>
     </row>
@@ -77711,7 +77711,7 @@
       </c>
       <c r="B4551" t="inlineStr">
         <is>
-          <t>疟疾</t>
+          <t>气喘</t>
         </is>
       </c>
       <c r="C4551" t="inlineStr">
@@ -77728,29 +77728,29 @@
       </c>
       <c r="B4552" t="inlineStr">
         <is>
-          <t>气喘</t>
+          <t>蛇咬伤</t>
         </is>
       </c>
       <c r="C4552" t="inlineStr">
         <is>
-          <t>用半边莲、雄黄各二钱，共捣成泥，放碗内，盖好，等颜色变青后，加饭做成丸子，如梧子大。每服九丸，空心服，盐汤送下。</t>
+          <t>用半边莲捣烂，取汁饮下。药渣敷伤处。</t>
         </is>
       </c>
     </row>
     <row r="4553">
       <c r="A4553" t="inlineStr">
         <is>
-          <t>半边莲</t>
+          <t>砒石</t>
         </is>
       </c>
       <c r="B4553" t="inlineStr">
         <is>
-          <t>蛇咬伤</t>
+          <t>疟疾</t>
         </is>
       </c>
       <c r="C4553" t="inlineStr">
         <is>
-          <t>用半边莲捣烂，取汁饮下。药渣敷伤处。</t>
+          <t>用砒石一钱、绿豆粉一两，共研为末，加水调成丸子，如绿豆大。铅丹为衣，阴干。发病日，五更起来，以冷水送服五至七丸。又方：砒石（醋煮过）、硫磺、绿豆，等分为末，包成若干个小包，每包分量约一粒豆子大。每服一包，空心服，新汲水上。这是一个很有效的治疟方。</t>
         </is>
       </c>
     </row>
@@ -77762,12 +77762,12 @@
       </c>
       <c r="B4554" t="inlineStr">
         <is>
-          <t>疟疾</t>
+          <t>项上瘰疬</t>
         </is>
       </c>
       <c r="C4554" t="inlineStr">
         <is>
-          <t>用砒石一钱、绿豆粉一两，共研为末，加水调成丸子，如绿豆大。铅丹为衣，阴干。发病日，五更起来，以冷水送服五至七丸。又方：砒石（醋煮过）、硫磺、绿豆，等分为末，包成若干个小包，每包分量约一粒豆子大。每服一包，空心服，新汲水上。这是一个很有效的治疟方。</t>
+          <t>用砒黄研细，加浓墨做成丸子，如梧子大，炒干，收存备用。用时，以针挑破瘰疬，将药半丸贴上。</t>
         </is>
       </c>
     </row>
@@ -77779,12 +77779,12 @@
       </c>
       <c r="B4555" t="inlineStr">
         <is>
-          <t>项上瘰疬</t>
+          <t>休息下痢（病一、二年不愈，人衰瘦不堪）</t>
         </is>
       </c>
       <c r="C4555" t="inlineStr">
         <is>
-          <t>用砒黄研细，加浓墨做成丸子，如梧子大，炒干，收存备用。用时，以针挑破瘰疬，将药半丸贴上。</t>
+          <t>用砒霜、铅丹各半两，共投入已熔化的黄蜡中，柳条搅拌，条焦则换，六、七条之后，取出做成丸子，如梧子大（小儿服者只作成黍米大）。冷水送下。</t>
         </is>
       </c>
     </row>
@@ -77796,12 +77796,12 @@
       </c>
       <c r="B4556" t="inlineStr">
         <is>
-          <t>休息下痢（病一、二年不愈，人衰瘦不堪）</t>
+          <t>中风痰壅（四肢不收，昏愦若醉）</t>
         </is>
       </c>
       <c r="C4556" t="inlineStr">
         <is>
-          <t>用砒霜、铅丹各半两，共投入已熔化的黄蜡中，柳条搅拌，条焦则换，六、七条之后，取出做成丸子，如梧子大（小儿服者只作成黍米大）。冷水送下。</t>
+          <t>用砒霜一粒如绿豆大，研细。先以清水送服少许，再饮热水，大吐即愈。如不吐，可再服。</t>
         </is>
       </c>
     </row>
@@ -77813,29 +77813,29 @@
       </c>
       <c r="B4557" t="inlineStr">
         <is>
-          <t>中风痰壅（四肢不收，昏愦若醉）</t>
+          <t>走马牙疳</t>
         </is>
       </c>
       <c r="C4557" t="inlineStr">
         <is>
-          <t>用砒霜一粒如绿豆大，研细。先以清水送服少许，再饮热水，大吐即愈。如不吐，可再服。</t>
+          <t>用砒石、铜绿，等分为末，摊纸上贴患处。极有效。</t>
         </is>
       </c>
     </row>
     <row r="4558">
       <c r="A4558" t="inlineStr">
         <is>
-          <t>砒石</t>
+          <t>人中黄</t>
         </is>
       </c>
       <c r="B4558" t="inlineStr">
         <is>
-          <t>走马牙疳</t>
+          <t>呕血吐痰，心烦骨蒸</t>
         </is>
       </c>
       <c r="C4558" t="inlineStr">
         <is>
-          <t>用砒石、铜绿，等分为末，摊纸上贴患处。极有效。</t>
+          <t>用人中黄为末。每取三钱，加茜根汁、竹沥、姜汁和匀服下。</t>
         </is>
       </c>
     </row>
@@ -77847,29 +77847,29 @@
       </c>
       <c r="B4559" t="inlineStr">
         <is>
-          <t>呕血吐痰，心烦骨蒸</t>
+          <t>热病发狂</t>
         </is>
       </c>
       <c r="C4559" t="inlineStr">
         <is>
-          <t>用人中黄为末。每取三钱，加茜根汁、竹沥、姜汁和匀服下。</t>
+          <t>用人中内放罐中，泥封固，煅半日，去火毒后研为末，水送服三钱，病未退，可再服。</t>
         </is>
       </c>
     </row>
     <row r="4560">
       <c r="A4560" t="inlineStr">
         <is>
-          <t>人中黄</t>
+          <t>郁李</t>
         </is>
       </c>
       <c r="B4560" t="inlineStr">
         <is>
-          <t>热病发狂</t>
+          <t>皮肤血汗</t>
         </is>
       </c>
       <c r="C4560" t="inlineStr">
         <is>
-          <t>用人中内放罐中，泥封固，煅半日，去火毒后研为末，水送服三钱，病未退，可再服。</t>
+          <t>用郁李仁（去皮，研细）一钱，鹅梨捣汁调下。</t>
         </is>
       </c>
     </row>
@@ -77881,12 +77881,12 @@
       </c>
       <c r="B4561" t="inlineStr">
         <is>
-          <t>皮肤血汗</t>
+          <t>小儿惊痰实，二便不通</t>
         </is>
       </c>
       <c r="C4561" t="inlineStr">
         <is>
-          <t>用郁李仁（去皮，研细）一钱，鹅梨捣汁调下。</t>
+          <t>用大黄（酒浸后炒过）、郁李仁（去皮，研为末）各一钱，滑石末一两，一起捣和成丸子，如黍米大。二岁小儿服三丸，其他儿童根据情况加减，开水送下。</t>
         </is>
       </c>
     </row>
@@ -77898,12 +77898,12 @@
       </c>
       <c r="B4562" t="inlineStr">
         <is>
-          <t>小儿惊痰实，二便不通</t>
+          <t>心腹胀满，二便不通，气急喘息，脚气浮肿</t>
         </is>
       </c>
       <c r="C4562" t="inlineStr">
         <is>
-          <t>用大黄（酒浸后炒过）、郁李仁（去皮，研为末）各一钱，滑石末一两，一起捣和成丸子，如黍米大。二岁小儿服三丸，其他儿童根据情况加减，开水送下。</t>
+          <t>用郁李仁十二分，捣烂，水磨取汁，薏苡三合，捣如粟大。一同煮粥吃下。</t>
         </is>
       </c>
     </row>
@@ -77915,29 +77915,29 @@
       </c>
       <c r="B4563" t="inlineStr">
         <is>
-          <t>心腹胀满，二便不通，气急喘息，脚气浮肿</t>
+          <t>肿满气急，睡卧不得</t>
         </is>
       </c>
       <c r="C4563" t="inlineStr">
         <is>
-          <t>用郁李仁十二分，捣烂，水磨取汁，薏苡三合，捣如粟大。一同煮粥吃下。</t>
+          <t>用郁李仁一合，捣成末，和面作饼吃，吃下即可通便，气泄出后即愈。</t>
         </is>
       </c>
     </row>
     <row r="4564">
       <c r="A4564" t="inlineStr">
         <is>
-          <t>郁李</t>
+          <t>海金沙</t>
         </is>
       </c>
       <c r="B4564" t="inlineStr">
         <is>
-          <t>肿满气急，睡卧不得</t>
+          <t>脾湿肿满（腹胀如鼓，气喘，不能俯卧）</t>
         </is>
       </c>
       <c r="C4564" t="inlineStr">
         <is>
-          <t>用郁李仁一合，捣成末，和面作饼吃，吃下即可通便，气泄出后即愈。</t>
+          <t>用海金沙三钱，白术四两、甘草半两、黑牵牛头一两半，共研为末。每服一钱，水送下。能泻为好。此方名“海金沙散”。</t>
         </is>
       </c>
     </row>
@@ -77949,12 +77949,12 @@
       </c>
       <c r="B4565" t="inlineStr">
         <is>
-          <t>脾湿肿满（腹胀如鼓，气喘，不能俯卧）</t>
+          <t>热淋急痛</t>
         </is>
       </c>
       <c r="C4565" t="inlineStr">
         <is>
-          <t>用海金沙三钱，白术四两、甘草半两、黑牵牛头一两半，共研为末。每服一钱，水送下。能泻为好。此方名“海金沙散”。</t>
+          <t>用海沙草阴干，研末。每服二钱，煎生甘草汤调上。药中加滑石亦可。</t>
         </is>
       </c>
     </row>
@@ -77966,12 +77966,12 @@
       </c>
       <c r="B4566" t="inlineStr">
         <is>
-          <t>热淋急痛</t>
+          <t>小便不通，脐下闷满</t>
         </is>
       </c>
       <c r="C4566" t="inlineStr">
         <is>
-          <t>用海沙草阴干，研末。每服二钱，煎生甘草汤调上。药中加滑石亦可。</t>
+          <t>用海金沙一两、腊南茶半两、一起捣碎。每服三钱，生姜、甘草煎汤送下。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -77983,12 +77983,12 @@
       </c>
       <c r="B4567" t="inlineStr">
         <is>
-          <t>小便不通，脐下闷满</t>
+          <t>小便膏淋如油</t>
         </is>
       </c>
       <c r="C4567" t="inlineStr">
         <is>
-          <t>用海金沙一两、腊南茶半两、一起捣碎。每服三钱，生姜、甘草煎汤送下。一天服二次。</t>
+          <t>用海金沙、滑石各一两，甘草梢二钱半，共研为末。每服二钱，麦门冬煎汤服。一天服二次。</t>
         </is>
       </c>
     </row>
@@ -78000,46 +78000,46 @@
       </c>
       <c r="B4568" t="inlineStr">
         <is>
-          <t>小便膏淋如油</t>
+          <t>血淋</t>
         </is>
       </c>
       <c r="C4568" t="inlineStr">
         <is>
-          <t>用海金沙、滑石各一两，甘草梢二钱半，共研为末。每服二钱，麦门冬煎汤服。一天服二次。</t>
+          <t>用海金沙研为末。每服一钱，用沙糖水送下。</t>
         </is>
       </c>
     </row>
     <row r="4569">
       <c r="A4569" t="inlineStr">
         <is>
-          <t>海金沙</t>
+          <t>苜蓿</t>
         </is>
       </c>
       <c r="B4569" t="inlineStr">
         <is>
-          <t>血淋</t>
+          <t>脾胃间邪热气、小肠各种热毒</t>
         </is>
       </c>
       <c r="C4569" t="inlineStr">
         <is>
-          <t>用海金沙研为末。每服一钱，用沙糖水送下。</t>
+          <t>用根捣汁煎饮，可治沙石淋痛。</t>
         </is>
       </c>
     </row>
     <row r="4570">
       <c r="A4570" t="inlineStr">
         <is>
-          <t>苜蓿</t>
+          <t>雉</t>
         </is>
       </c>
       <c r="B4570" t="inlineStr">
         <is>
-          <t>脾胃间邪热气、小肠各种热毒</t>
+          <t>脾虚下痢，日夜不止</t>
         </is>
       </c>
       <c r="C4570" t="inlineStr">
         <is>
-          <t>用根捣汁煎饮，可治沙石淋痛。</t>
+          <t>用野鸡一只，治净，加桔皮、葱、椒等五味，作成馄饨，空心吃下。</t>
         </is>
       </c>
     </row>
@@ -78051,12 +78051,12 @@
       </c>
       <c r="B4571" t="inlineStr">
         <is>
-          <t>脾虚下痢，日夜不止</t>
+          <t>消渴饮水，小便频数</t>
         </is>
       </c>
       <c r="C4571" t="inlineStr">
         <is>
-          <t>用野鸡一只，治净，加桔皮、葱、椒等五味，作成馄饨，空心吃下。</t>
+          <t>用野鸡一只，加五味煮汤喝，肉亦可食。</t>
         </is>
       </c>
     </row>
@@ -78068,29 +78068,29 @@
       </c>
       <c r="B4572" t="inlineStr">
         <is>
-          <t>消渴饮水，小便频数</t>
+          <t>心腹胀满</t>
         </is>
       </c>
       <c r="C4572" t="inlineStr">
         <is>
-          <t>用野鸡一只，加五味煮汤喝，肉亦可食。</t>
+          <t>用野鸡一只、茴香（炒）、马芹子（炒）、川椒（炒）、陈皮、生姜吃下。吃鸡的这一天，早上服喜禾散，辰时服此方，得午时服导气枳壳丸。</t>
         </is>
       </c>
     </row>
     <row r="4573">
       <c r="A4573" t="inlineStr">
         <is>
-          <t>雉</t>
+          <t>景天</t>
         </is>
       </c>
       <c r="B4573" t="inlineStr">
         <is>
-          <t>心腹胀满</t>
+          <t>漆沧作痒</t>
         </is>
       </c>
       <c r="C4573" t="inlineStr">
         <is>
-          <t>用野鸡一只、茴香（炒）、马芹子（炒）、川椒（炒）、陈皮、生姜吃下。吃鸡的这一天，早上服喜禾散，辰时服此方，得午时服导气枳壳丸。</t>
+          <t>揉景天涂搽。</t>
         </is>
       </c>
     </row>
@@ -78102,12 +78102,12 @@
       </c>
       <c r="B4574" t="inlineStr">
         <is>
-          <t>漆沧作痒</t>
+          <t>热毒丹疮</t>
         </is>
       </c>
       <c r="C4574" t="inlineStr">
         <is>
-          <t>揉景天涂搽。</t>
+          <t>用景天捣汁涂搽。一昼夜宜搽一、二十次。</t>
         </is>
       </c>
     </row>
@@ -78119,12 +78119,12 @@
       </c>
       <c r="B4575" t="inlineStr">
         <is>
-          <t>热毒丹疮</t>
+          <t>小儿惊风</t>
         </is>
       </c>
       <c r="C4575" t="inlineStr">
         <is>
-          <t>用景天捣汁涂搽。一昼夜宜搽一、二十次。</t>
+          <t>用景天（干）半两、麻黄、丹参、白术各二钱半，共研为末。每服半钱，浆水调服。三、四岁的小儿可服一钱。</t>
         </is>
       </c>
     </row>
@@ -78136,12 +78136,12 @@
       </c>
       <c r="B4576" t="inlineStr">
         <is>
-          <t>小儿惊风</t>
+          <t>眼中生翳，涩痛难开</t>
         </is>
       </c>
       <c r="C4576" t="inlineStr">
         <is>
-          <t>用景天（干）半两、麻黄、丹参、白术各二钱半，共研为末。每服半钱，浆水调服。三、四岁的小儿可服一钱。</t>
+          <t>用景天捣汁，一天点三、五次。</t>
         </is>
       </c>
     </row>
@@ -78153,29 +78153,29 @@
       </c>
       <c r="B4577" t="inlineStr">
         <is>
-          <t>眼中生翳，涩痛难开</t>
+          <t>婴儿风疹及疮毒</t>
         </is>
       </c>
       <c r="C4577" t="inlineStr">
         <is>
-          <t>用景天捣汁，一天点三、五次。</t>
+          <t>用景天苗叶五两和盐三两，同研细，绞取汁，以热手抹涂。一天两次。</t>
         </is>
       </c>
     </row>
     <row r="4578">
       <c r="A4578" t="inlineStr">
         <is>
-          <t>景天</t>
+          <t>芥</t>
         </is>
       </c>
       <c r="B4578" t="inlineStr">
         <is>
-          <t>婴儿风疹及疮毒</t>
+          <t>漆疮</t>
         </is>
       </c>
       <c r="C4578" t="inlineStr">
         <is>
-          <t>用景天苗叶五两和盐三两，同研细，绞取汁，以热手抹涂。一天两次。</t>
+          <t>芥菜煎汤洗之。</t>
         </is>
       </c>
     </row>
@@ -78187,29 +78187,29 @@
       </c>
       <c r="B4579" t="inlineStr">
         <is>
-          <t>漆疮</t>
+          <t>牙龈肿烂</t>
         </is>
       </c>
       <c r="C4579" t="inlineStr">
         <is>
-          <t>芥菜煎汤洗之。</t>
+          <t>用芥菜秆烧存性，研为末，频敷患处即愈。</t>
         </is>
       </c>
     </row>
     <row r="4580">
       <c r="A4580" t="inlineStr">
         <is>
-          <t>芥</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4580" t="inlineStr">
         <is>
-          <t>牙龈肿烂</t>
+          <t>病孩仰向后</t>
         </is>
       </c>
       <c r="C4580" t="inlineStr">
         <is>
-          <t>用芥菜秆烧存性，研为末，频敷患处即愈。</t>
+          <t>以灯火照灼其囟门和两眉间的上下方。</t>
         </is>
       </c>
     </row>
@@ -78221,488 +78221,488 @@
       </c>
       <c r="B4581" t="inlineStr">
         <is>
-          <t>其他如鱼油、禽兽油、菜子油、棉子油、桐油、豆油、石脑油（即石油原油）等所点燃的灯火，都对眼睛有害，不能用来治病</t>
+          <t>小儿眼睛翻上不下</t>
         </is>
       </c>
       <c r="C4581" t="inlineStr">
         <is>
-          <t>小儿的凉风、昏迷、搐搦（抽筋）、窜视（眼珠隐在上眼睑里）等症及头风胀痛等，都可用灯火治疗。在小儿诸惊中，病孩仰向后者，以灯火照灼其囟门和两眉间的上下方；眼睛翻上不下者，应照灼脐的上下；不省人事的，应照灼手足心和胸部；手紧握、目往上翻者，应照灼囟门部位和两手心；口吐白沫者，应照灼口部和手足心。头风胀痛，可用灯心蘸麻油在头额太阳穴处照灼。外痔肿痛，则照灼患处。婴儿初生，因冒寒，气断欲绝，这时勿剪断脐带，急烘絮把婴儿包好，同时烘热胞衣，又将灯盏放在婴儿脐下来回移动，令热气进入腹内，自然气回苏醒。灯火亦治搅肠沙（手足冷，肚子痛，身上出红点）。用灯草蘸油点火灼触红点，有效。</t>
+          <t>用灯火照灼脐的上下。</t>
         </is>
       </c>
     </row>
     <row r="4582">
       <c r="A4582" t="inlineStr">
         <is>
-          <t>陟厘</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4582" t="inlineStr">
         <is>
-          <t>强胃气，止泄痢</t>
+          <t>小儿不省人事</t>
         </is>
       </c>
       <c r="C4582" t="inlineStr">
         <is>
-          <t>捣烂可涂治丹毒游疹。</t>
+          <t>用灯火照灼手足心和胸部。</t>
         </is>
       </c>
     </row>
     <row r="4583">
       <c r="A4583" t="inlineStr">
         <is>
-          <t>大麦</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4583" t="inlineStr">
         <is>
-          <t>蠼螋尿疮</t>
+          <t>小儿手紧握、目往上翻</t>
         </is>
       </c>
       <c r="C4583" t="inlineStr">
         <is>
-          <t>用大麦嚼敷，一天三次。</t>
+          <t>用灯火照灼囟门部位和两手心。</t>
         </is>
       </c>
     </row>
     <row r="4584">
       <c r="A4584" t="inlineStr">
         <is>
-          <t>大麦</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4584" t="inlineStr">
         <is>
-          <t>食饱烦胀</t>
+          <t>小儿口吐白沫</t>
         </is>
       </c>
       <c r="C4584" t="inlineStr">
         <is>
-          <t>用大麦面熬香，每服一匙，开水送下。</t>
+          <t>用灯火照灼口部和手足心。</t>
         </is>
       </c>
     </row>
     <row r="4585">
       <c r="A4585" t="inlineStr">
         <is>
-          <t>大麦</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4585" t="inlineStr">
         <is>
-          <t>汤火伤</t>
+          <t>小儿头风胀痛</t>
         </is>
       </c>
       <c r="C4585" t="inlineStr">
         <is>
-          <t>用大麦炒黑，研为末，搽伤处。</t>
+          <t>可用灯心蘸麻油在头额太阳穴处照灼。</t>
         </is>
       </c>
     </row>
     <row r="4586">
       <c r="A4586" t="inlineStr">
         <is>
-          <t>大麦</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4586" t="inlineStr">
         <is>
-          <t>小便不通</t>
+          <t>小儿外痔肿痛</t>
         </is>
       </c>
       <c r="C4586" t="inlineStr">
         <is>
-          <t>用陈大麦秸煎浓汁一次服。</t>
+          <t>用灯火照灼患处。</t>
         </is>
       </c>
     </row>
     <row r="4587">
       <c r="A4587" t="inlineStr">
         <is>
-          <t>无患子</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4587" t="inlineStr">
         <is>
-          <t>去风明目</t>
+          <t>婴儿初生，因冒寒，气断欲绝</t>
         </is>
       </c>
       <c r="C4587" t="inlineStr">
         <is>
-          <t>用无患子皮、皂角、胡饼、草菖蒲，同捶碎，加浆水调作弹子大，取以泡汤洗头，能去风明目。</t>
+          <t>这时勿剪断脐带，急烘絮把婴儿包好，同时烘热胞衣，又将灯盏放在婴儿脐下来回移动，令热气进入腹内，自然气回苏醒。</t>
         </is>
       </c>
     </row>
     <row r="4588">
       <c r="A4588" t="inlineStr">
         <is>
-          <t>无患子</t>
+          <t>灯火</t>
         </is>
       </c>
       <c r="B4588" t="inlineStr">
         <is>
-          <t>洗面去斑</t>
+          <t>搅肠沙（手足冷，肚子痛，身上出红点）</t>
         </is>
       </c>
       <c r="C4588" t="inlineStr">
         <is>
-          <t>有无患子上捣烂，加白面和为丸，每日取以洗面，去垢及斑，甚效。</t>
+          <t>用灯草蘸油点火灼触红点，有效。</t>
         </is>
       </c>
     </row>
     <row r="4589">
       <c r="A4589" t="inlineStr">
         <is>
-          <t>无患子</t>
+          <t>陟厘</t>
         </is>
       </c>
       <c r="B4589" t="inlineStr">
         <is>
-          <t>牙齿肿痛</t>
+          <t>强胃气，止泄痢</t>
         </is>
       </c>
       <c r="C4589" t="inlineStr">
         <is>
-          <t>用肥珠子一两，大黄、香附各一两，青盐半两，泥土固封，火煅，研细。每日取以擦牙。</t>
+          <t>捣烂可涂治丹毒游疹。</t>
         </is>
       </c>
     </row>
     <row r="4590">
       <c r="A4590" t="inlineStr">
         <is>
-          <t>蝌蚪</t>
+          <t>大麦</t>
         </is>
       </c>
       <c r="B4590" t="inlineStr">
         <is>
-          <t>染须发</t>
+          <t>蠼螋尿疮</t>
         </is>
       </c>
       <c r="C4590" t="inlineStr">
         <is>
-          <t>用蝌蚪、黑桑椹各半斤瓶中封固，百日化泥，取涂须发，永黑如漆。</t>
+          <t>用大麦嚼敷，一天三次。</t>
         </is>
       </c>
     </row>
     <row r="4591">
       <c r="A4591" t="inlineStr">
         <is>
-          <t>蝌蚪</t>
+          <t>大麦</t>
         </is>
       </c>
       <c r="B4591" t="inlineStr">
         <is>
-          <t>热疮、疥疮</t>
+          <t>食饱烦胀</t>
         </is>
       </c>
       <c r="C4591" t="inlineStr">
         <is>
-          <t>用蝌蚪捣烂敷涂。</t>
+          <t>用大麦面熬香，每服一匙，开水送下。</t>
         </is>
       </c>
     </row>
     <row r="4592">
       <c r="A4592" t="inlineStr">
         <is>
-          <t>葡萄</t>
+          <t>大麦</t>
         </is>
       </c>
       <c r="B4592" t="inlineStr">
         <is>
-          <t>热淋涩痛</t>
+          <t>汤火伤</t>
         </is>
       </c>
       <c r="C4592" t="inlineStr">
         <is>
-          <t>取葡萄捣取自然汁，生藕捣取自然汁，生地黄捣取自然汁，各五合，再加白沙蜜五合，和匀，每次温服一碗。</t>
+          <t>用大麦炒黑，研为末，搽伤处。</t>
         </is>
       </c>
     </row>
     <row r="4593">
       <c r="A4593" t="inlineStr">
         <is>
-          <t>葡萄</t>
+          <t>大麦</t>
         </is>
       </c>
       <c r="B4593" t="inlineStr">
         <is>
-          <t>水肿</t>
+          <t>小便不通</t>
         </is>
       </c>
       <c r="C4593" t="inlineStr">
         <is>
-          <t>用葡萄嫩心十四个、蝼蛄七个（去头尾），同研烂，露七日，晒干研为末。每服半钱，淡酒调下。暑天服此方，效果更好。</t>
+          <t>用陈大麦秸煎浓汁一次服。</t>
         </is>
       </c>
     </row>
     <row r="4594">
       <c r="A4594" t="inlineStr">
         <is>
-          <t>葡萄</t>
+          <t>无患子</t>
         </is>
       </c>
       <c r="B4594" t="inlineStr">
         <is>
-          <t>胎上冲心</t>
+          <t>去风明目</t>
         </is>
       </c>
       <c r="C4594" t="inlineStr">
         <is>
-          <t>用葡萄汤饮服，好不上冲。</t>
+          <t>用无患子皮、皂角、胡饼、草菖蒲，同捶碎，加浆水调作弹子大，取以泡汤洗头，能去风明目。</t>
         </is>
       </c>
     </row>
     <row r="4595">
       <c r="A4595" t="inlineStr">
         <is>
-          <t>螳螂桑螵蛸</t>
+          <t>无患子</t>
         </is>
       </c>
       <c r="B4595" t="inlineStr">
         <is>
-          <t>妊娠遗尿不禁</t>
+          <t>洗面去斑</t>
         </is>
       </c>
       <c r="C4595" t="inlineStr">
         <is>
-          <t>用桑螵蛸十二枚。研为末，分二次服，米汤送下。</t>
+          <t>有无患子上捣烂，加白面和为丸，每日取以洗面，去垢及斑，甚效。</t>
         </is>
       </c>
     </row>
     <row r="4596">
       <c r="A4596" t="inlineStr">
         <is>
-          <t>螳螂桑螵蛸</t>
+          <t>无患子</t>
         </is>
       </c>
       <c r="B4596" t="inlineStr">
         <is>
-          <t>小便不通</t>
+          <t>牙齿肿痛</t>
         </is>
       </c>
       <c r="C4596" t="inlineStr">
         <is>
-          <t>用桑螵蛸（炙黄）三十枚、黄芩二两，水煎，分二次服下。</t>
+          <t>用肥珠子一两，大黄、香附各一两，青盐半两，泥土固封，火煅，研细。每日取以擦牙。</t>
         </is>
       </c>
     </row>
     <row r="4597">
       <c r="A4597" t="inlineStr">
         <is>
-          <t>螳螂桑螵蛸</t>
+          <t>蝌蚪</t>
         </is>
       </c>
       <c r="B4597" t="inlineStr">
         <is>
-          <t>咽喉肿塞</t>
+          <t>染须发</t>
         </is>
       </c>
       <c r="C4597" t="inlineStr">
         <is>
-          <t>用桑上螳螂窠一两，烧灰。马屁勃半两，研匀，加蜜做成丸子，如梧子大。每服三、五丸，煎犀角汤送下。</t>
+          <t>用蝌蚪、黑桑椹各半斤瓶中封固，百日化泥，取涂须发，永黑如漆。</t>
         </is>
       </c>
     </row>
     <row r="4598">
       <c r="A4598" t="inlineStr">
         <is>
-          <t>螳螂桑螵蛸</t>
+          <t>蝌蚪</t>
         </is>
       </c>
       <c r="B4598" t="inlineStr">
         <is>
-          <t>遗精白浊，盗汗虚劳</t>
+          <t>热疮、疥疮</t>
         </is>
       </c>
       <c r="C4598" t="inlineStr">
         <is>
-          <t>用桑螵蛸（炙）、白龙骨，等分为末。每服二钱，空心服，盐汤磅送下。</t>
+          <t>用蝌蚪捣烂敷涂。</t>
         </is>
       </c>
     </row>
     <row r="4599">
       <c r="A4599" t="inlineStr">
         <is>
-          <t>蟹</t>
+          <t>葡萄</t>
         </is>
       </c>
       <c r="B4599" t="inlineStr">
         <is>
-          <t>杀莨菪毒，解鳝鱼毒、漆毒，治疟及黄疸，捣成膏兴疥疮、癣疮</t>
+          <t>热淋涩痛</t>
         </is>
       </c>
       <c r="C4599" t="inlineStr">
         <is>
-          <t>捣出汁滴耳聋。</t>
+          <t>取葡萄捣取自然汁，生藕捣取自然汁，生地黄捣取自然汁，各五合，再加白沙蜜五合，和匀，每次温服一碗。</t>
         </is>
       </c>
     </row>
     <row r="4600">
       <c r="A4600" t="inlineStr">
         <is>
-          <t>锦地罗</t>
+          <t>葡萄</t>
         </is>
       </c>
       <c r="B4600" t="inlineStr">
         <is>
-          <t>山岚、瘴毒、疮毒及其他中毒</t>
+          <t>水肿</t>
         </is>
       </c>
       <c r="C4600" t="inlineStr">
         <is>
-          <t>用锦地罗根研细，每服一茶匙，酒送下。</t>
+          <t>用葡萄嫩心十四个、蝼蛄七个（去头尾），同研烂，露七日，晒干研为末。每服半钱，淡酒调下。暑天服此方，效果更好。</t>
         </is>
       </c>
     </row>
     <row r="4601">
       <c r="A4601" t="inlineStr">
         <is>
-          <t>铁落</t>
+          <t>葡萄</t>
         </is>
       </c>
       <c r="B4601" t="inlineStr">
         <is>
-          <t>善怒发狂，惊邪癫</t>
+          <t>胎上冲心</t>
         </is>
       </c>
       <c r="C4601" t="inlineStr">
         <is>
-          <t>用铁落煎水服。</t>
+          <t>用葡萄汤饮服，好不上冲。</t>
         </is>
       </c>
     </row>
     <row r="4602">
       <c r="A4602" t="inlineStr">
         <is>
-          <t>铁落</t>
+          <t>螳螂桑螵蛸</t>
         </is>
       </c>
       <c r="B4602" t="inlineStr">
         <is>
-          <t>小儿丹毒</t>
+          <t>妊娠遗尿不禁</t>
         </is>
       </c>
       <c r="C4602" t="inlineStr">
         <is>
-          <t>用铁落研细，调猪油涂搽。</t>
+          <t>用桑螵蛸十二枚。研为末，分二次服，米汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4603">
       <c r="A4603" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>螳螂桑螵蛸</t>
         </is>
       </c>
       <c r="B4603" t="inlineStr">
         <is>
-          <t>伤寒劳复（身热，尿赤如血色）</t>
+          <t>小便不通</t>
         </is>
       </c>
       <c r="C4603" t="inlineStr">
         <is>
-          <t>用胡黄连一两、山栀子二两（去壳），加蜜半两拌匀，炒至微焦，研细，再加猪胆汗做成丸子，如梧子大。每服十丸。另取生姜二片、乌梅一个，浸在三合童便中，半日后，去渣留尿，加温，饭后将药丸送下。</t>
+          <t>用桑螵蛸（炙黄）三十枚、黄芩二两，水煎，分二次服下。</t>
         </is>
       </c>
     </row>
     <row r="4604">
       <c r="A4604" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>螳螂桑螵蛸</t>
         </is>
       </c>
       <c r="B4604" t="inlineStr">
         <is>
-          <t>吐血、鼻出血</t>
+          <t>咽喉肿塞</t>
         </is>
       </c>
       <c r="C4604" t="inlineStr">
         <is>
-          <t>用胡黄连、生地黄，等分为末，加猪胆汁和成丸子，如梧子大。临睡时服五十丸，茅花汤送下。</t>
+          <t>用桑上螳螂窠一两，烧灰。马屁勃半两，研匀，加蜜做成丸子，如梧子大。每服三、五丸，煎犀角汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4605">
       <c r="A4605" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>螳螂桑螵蛸</t>
         </is>
       </c>
       <c r="B4605" t="inlineStr">
         <is>
-          <t>小儿潮湿、盗汗</t>
+          <t>遗精白浊，盗汗虚劳</t>
         </is>
       </c>
       <c r="C4605" t="inlineStr">
         <is>
-          <t>用胡黄连、柴胡，等分研细，加炼蜜做成丸子，如芡子大。每服一至五丸，按年岁加减。丸子先用酒少许化开，再加水煮开多次后用药渣同服。</t>
+          <t>用桑螵蛸（炙）、白龙骨，等分为末。每服二钱，空心服，盐汤磅送下。</t>
         </is>
       </c>
     </row>
     <row r="4606">
       <c r="A4606" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>蟹</t>
         </is>
       </c>
       <c r="B4606" t="inlineStr">
         <is>
-          <t>小儿疳热（肚胀，潮热，发焦</t>
+          <t>杀莨菪毒，解鳝鱼毒、漆毒，治疟及黄疸，捣成膏兴疥疮、癣疮</t>
         </is>
       </c>
       <c r="C4606" t="inlineStr">
         <is>
-          <t>不可用大黄、黄芩等伤胃的药物）。用胡黄连半两、灵脂一两，共研为末，加入雄猪胆汁做成丸子，如绿豆大。每服一、二十丸，米汤送下。</t>
+          <t>捣出汁滴耳聋。</t>
         </is>
       </c>
     </row>
     <row r="4607">
       <c r="A4607" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>锦地罗</t>
         </is>
       </c>
       <c r="B4607" t="inlineStr">
         <is>
-          <t>小儿疳泻，冷热不调</t>
+          <t>山岚、瘴毒、疮毒及其他中毒</t>
         </is>
       </c>
       <c r="C4607" t="inlineStr">
         <is>
-          <t>用胡黄连半两、棉姜一两（炮过），共研为末。每服半钱，甘草汤送下。</t>
+          <t>用锦地罗根研细，每服一茶匙，酒送下。</t>
         </is>
       </c>
     </row>
     <row r="4608">
       <c r="A4608" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>铁落</t>
         </is>
       </c>
       <c r="B4608" t="inlineStr">
         <is>
-          <t>小儿黄疸</t>
+          <t>善怒发狂，惊邪癫</t>
         </is>
       </c>
       <c r="C4608" t="inlineStr">
         <is>
-          <t>用胡黄连、川黄连各一两，共研为末。另取黄瓜一个，挖去瓤子，把药放进去。瓜外用面裹一层，煨熟，剥掉面层，捣烂药瓜做成丸子，如绿豆大。按年龄大小酌给药量，温水送下。</t>
+          <t>用铁落煎水服。</t>
         </is>
       </c>
     </row>
     <row r="4609">
       <c r="A4609" t="inlineStr">
         <is>
-          <t>胡黄连</t>
+          <t>铁落</t>
         </is>
       </c>
       <c r="B4609" t="inlineStr">
         <is>
-          <t>血痢不止</t>
+          <t>小儿丹毒</t>
         </is>
       </c>
       <c r="C4609" t="inlineStr">
         <is>
-          <t>用胡黄连、乌梅肉、灶下土，等分为末，茶送下。</t>
+          <t>用铁落研细，调猪油涂搽。</t>
         </is>
       </c>
     </row>
@@ -78714,12 +78714,12 @@
       </c>
       <c r="B4610" t="inlineStr">
         <is>
-          <t>婴儿眼睛发红</t>
+          <t>伤寒劳复（身热，尿赤如血色）</t>
         </is>
       </c>
       <c r="C4610" t="inlineStr">
         <is>
-          <t>用胡黄连研细，加茶调匀，涂手足心。</t>
+          <t>用胡黄连一两、山栀子二两（去壳），加蜜半两拌匀，炒至微焦，研细，再加猪胆汗做成丸子，如梧子大。每服十丸。另取生姜二片、乌梅一个，浸在三合童便中，半日后，去渣留尿，加温，饭后将药丸送下。</t>
         </is>
       </c>
     </row>
@@ -78731,12 +78731,12 @@
       </c>
       <c r="B4611" t="inlineStr">
         <is>
-          <t>痈疽疮肿</t>
+          <t>吐血、鼻出血</t>
         </is>
       </c>
       <c r="C4611" t="inlineStr">
         <is>
-          <t>用胡黄连、穿山甲（烧存性），等分为末，加茶或鸡蛋清调搽。疮已溃或未溃都可用此方。</t>
+          <t>用胡黄连、生地黄，等分为末，加猪胆汁和成丸子，如梧子大。临睡时服五十丸，茅花汤送下。</t>
         </is>
       </c>
     </row>
@@ -78748,284 +78748,284 @@
       </c>
       <c r="B4612" t="inlineStr">
         <is>
-          <t>痔疮疼肿难忍</t>
+          <t>小儿潮湿、盗汗</t>
         </is>
       </c>
       <c r="C4612" t="inlineStr">
         <is>
-          <t>用胡黄连末和鹅胆汁调匀涂患处。</t>
+          <t>用胡黄连、柴胡，等分研细，加炼蜜做成丸子，如芡子大。每服一至五丸，按年岁加减。丸子先用酒少许化开，再加水煮开多次后用药渣同服。</t>
         </is>
       </c>
     </row>
     <row r="4613">
       <c r="A4613" t="inlineStr">
         <is>
-          <t>夏冰</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4613" t="inlineStr">
         <is>
-          <t>伤寒阳毒，热盛昏迷</t>
+          <t>小儿疳热（肚胀，潮热，发焦</t>
         </is>
       </c>
       <c r="C4613" t="inlineStr">
         <is>
-          <t>用冰一块放在胸部有效。</t>
+          <t>不可用大黄、黄芩等伤胃的药物）。用胡黄连半两、灵脂一两，共研为末，加入雄猪胆汁做成丸子，如绿豆大。每服一、二十丸，米汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4614">
       <c r="A4614" t="inlineStr">
         <is>
-          <t>夏冰</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4614" t="inlineStr">
         <is>
-          <t>身上瘢痕</t>
+          <t>小儿疳泻，冷热不调</t>
         </is>
       </c>
       <c r="C4614" t="inlineStr">
         <is>
-          <t>用夏冰时时熨抹，能消去。</t>
+          <t>用胡黄连半两、棉姜一两（炮过），共研为末。每服半钱，甘草汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4615">
       <c r="A4615" t="inlineStr">
         <is>
-          <t>海藻</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4615" t="inlineStr">
         <is>
-          <t>蛇盘瘰疬，头项交接</t>
+          <t>小儿黄疸</t>
         </is>
       </c>
       <c r="C4615" t="inlineStr">
         <is>
-          <t>用海藻（荞面炒）、白僵蚕（炒），等分为末，加白梅汤调成丸子，如梧子大。每服六十丸，米汤送下。毒气必泄。</t>
+          <t>用胡黄连、川黄连各一两，共研为末。另取黄瓜一个，挖去瓤子，把药放进去。瓜外用面裹一层，煨熟，剥掉面层，捣烂药瓜做成丸子，如绿豆大。按年龄大小酌给药量，温水送下。</t>
         </is>
       </c>
     </row>
     <row r="4616">
       <c r="A4616" t="inlineStr">
         <is>
-          <t>海藻</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4616" t="inlineStr">
         <is>
-          <t>项下瘰疬</t>
+          <t>血痢不止</t>
         </is>
       </c>
       <c r="C4616" t="inlineStr">
         <is>
-          <t>用海藻一斤，装薄布袋中，泡酒二升。每服二合，一天服三次。药渣晒干，研为末，每服一匙。一天服三次，此酒名“海藻酒”连服几剂，即消瘰疬。</t>
+          <t>用胡黄连、乌梅肉、灶下土，等分为末，茶送下。</t>
         </is>
       </c>
     </row>
     <row r="4617">
       <c r="A4617" t="inlineStr">
         <is>
-          <t>续随子</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4617" t="inlineStr">
         <is>
-          <t>蛇咬伤</t>
+          <t>婴儿眼睛发红</t>
         </is>
       </c>
       <c r="C4617" t="inlineStr">
         <is>
-          <t>用续随子仁七粒、重台六分，捣烂，筛过，制成散剂，酒送服一匙，另用唾液调药末涂伤处。</t>
+          <t>用胡黄连研细，加茶调匀，涂手足心。</t>
         </is>
       </c>
     </row>
     <row r="4618">
       <c r="A4618" t="inlineStr">
         <is>
-          <t>续随子</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4618" t="inlineStr">
         <is>
-          <t>水肿</t>
+          <t>痈疽疮肿</t>
         </is>
       </c>
       <c r="C4618" t="inlineStr">
         <is>
-          <t>用续随子一两，去壳，研细，压去油，再研细，分作七付，每治一人有一付。男子有酒下，女子用荆芥汤下。五更现服，不久，腹泻，但天大亮后泻自停。可另服厚朴汤补身体，习盐、醋一在昊，病即不复发。</t>
+          <t>用胡黄连、穿山甲（烧存性），等分为末，加茶或鸡蛋清调搽。疮已溃或未溃都可用此方。</t>
         </is>
       </c>
     </row>
     <row r="4619">
       <c r="A4619" t="inlineStr">
         <is>
-          <t>续随子</t>
+          <t>胡黄连</t>
         </is>
       </c>
       <c r="B4619" t="inlineStr">
         <is>
-          <t>小便不通</t>
+          <t>痔疮疼肿难忍</t>
         </is>
       </c>
       <c r="C4619" t="inlineStr">
         <is>
-          <t>用续随了（去皮）一两、铅丹半两，同炒，加蜜捣成团，装瓶中，埋阴焉得虎子。春末前取出，研为末，加蜜做成丸子，如梧子大。每服二、三十丸，木通汤化药送下。如病急，亦可临时合药。</t>
+          <t>用胡黄连末和鹅胆汁调匀涂患处。</t>
         </is>
       </c>
     </row>
     <row r="4620">
       <c r="A4620" t="inlineStr">
         <is>
-          <t>续随子</t>
+          <t>夏冰</t>
         </is>
       </c>
       <c r="B4620" t="inlineStr">
         <is>
-          <t>症块</t>
+          <t>伤寒阳毒，热盛昏迷</t>
         </is>
       </c>
       <c r="C4620" t="inlineStr">
         <is>
-          <t>用续随子三十枚、腻粉二钱、青黛（炒）一钱，共研为末加糯米饭和成丸子，如芡子大。每服一丸，打破，以大枣一枚烧熟，去皮核后，和药一起嚼烂，冷茶送下。半夜后泻出积聚恶物即见药效。</t>
+          <t>用冰一块放在胸部有效。</t>
         </is>
       </c>
     </row>
     <row r="4621">
       <c r="A4621" t="inlineStr">
         <is>
-          <t>半天河</t>
+          <t>夏冰</t>
         </is>
       </c>
       <c r="B4621" t="inlineStr">
         <is>
-          <t>身上长白斑</t>
+          <t>身上瘢痕</t>
         </is>
       </c>
       <c r="C4621" t="inlineStr">
         <is>
-          <t>可取树木孔中的水来洗，捣烂桂末和唾液敷上，有效。</t>
+          <t>用夏冰时时熨抹，能消去。</t>
         </is>
       </c>
     </row>
     <row r="4622">
       <c r="A4622" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>海藻</t>
         </is>
       </c>
       <c r="B4622" t="inlineStr">
         <is>
-          <t>石淋</t>
+          <t>蛇盘瘰疬，头项交接</t>
         </is>
       </c>
       <c r="C4622" t="inlineStr">
         <is>
-          <t>用瞿麦子捣为末，每服一匙，酒送下。一天服三次，三日后可下石。</t>
+          <t>用海藻（荞面炒）、白僵蚕（炒），等分为末，加白梅汤调成丸子，如梧子大。每服六十丸，米汤送下。毒气必泄。</t>
         </is>
       </c>
     </row>
     <row r="4623">
       <c r="A4623" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>海藻</t>
         </is>
       </c>
       <c r="B4623" t="inlineStr">
         <is>
-          <t>下焦结热（小便淋闭或有血出，或大小便出血）</t>
+          <t>项下瘰疬</t>
         </is>
       </c>
       <c r="C4623" t="inlineStr">
         <is>
-          <t>用瞿麦穗一两、甘草（炙）七钱五分、山栀子仁（炒）五钱，共研为末。每次取七钱，加连须葱头七个、灯心草五十根、生姜五片、水二碗，煎至七成，随时饮服。此方名“立效散”。</t>
+          <t>用海藻一斤，装薄布袋中，泡酒二升。每服二合，一天服三次。药渣晒干，研为末，每服一匙。一天服三次，此酒名“海藻酒”连服几剂，即消瘰疬。</t>
         </is>
       </c>
     </row>
     <row r="4624">
       <c r="A4624" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>续随子</t>
         </is>
       </c>
       <c r="B4624" t="inlineStr">
         <is>
-          <t>小便不利</t>
+          <t>蛇咬伤</t>
         </is>
       </c>
       <c r="C4624" t="inlineStr">
         <is>
-          <t>用瞿麦二钱半，栝楼根二两，大附子一个，茯苓、山芋各三两，共研为末，加蜜和丸，如梧子大。每服三丸，一天服三次，如无效。每服可加至七、八丸，以小便通畅、腹中温暖为见效。</t>
+          <t>用续随子仁七粒、重台六分，捣烂，筛过，制成散剂，酒送服一匙，另用唾液调药末涂伤处。</t>
         </is>
       </c>
     </row>
     <row r="4625">
       <c r="A4625" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>续随子</t>
         </is>
       </c>
       <c r="B4625" t="inlineStr">
         <is>
-          <t>咽喉骨鲠</t>
+          <t>水肿</t>
         </is>
       </c>
       <c r="C4625" t="inlineStr">
         <is>
-          <t>用瞿麦研末，每服一匙，水送下。一天服二次。</t>
+          <t>用续随子一两，去壳，研细，压去油，再研细，分作七付，每治一人有一付。男子有酒下，女子用荆芥汤下。五更现服，不久，腹泻，但天大亮后泻自停。可另服厚朴汤补身体，习盐、醋一在昊，病即不复发。</t>
         </is>
       </c>
     </row>
     <row r="4626">
       <c r="A4626" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>续随子</t>
         </is>
       </c>
       <c r="B4626" t="inlineStr">
         <is>
-          <t>眼睛红肿、生疮</t>
+          <t>小便不通</t>
         </is>
       </c>
       <c r="C4626" t="inlineStr">
         <is>
-          <t>用瞿麦炒黄、研细。以鹅涎调匀涂眼边。用瞿麦捣汁涂眼亦有效。</t>
+          <t>用续随了（去皮）一两、铅丹半两，同炒，加蜜捣成团，装瓶中，埋阴焉得虎子。春末前取出，研为末，加蜜做成丸子，如梧子大。每服二、三十丸，木通汤化药送下。如病急，亦可临时合药。</t>
         </is>
       </c>
     </row>
     <row r="4627">
       <c r="A4627" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>续随子</t>
         </is>
       </c>
       <c r="B4627" t="inlineStr">
         <is>
-          <t>鱼脐疔疮（按：此疮初起时，隆肿狭长，一端有白色突出点，形状象鱼脐，因此得名</t>
+          <t>症块</t>
         </is>
       </c>
       <c r="C4627" t="inlineStr">
         <is>
-          <t>是一种险症）。用瞿麦烧灰，调油敷患处。</t>
+          <t>用续随子三十枚、腻粉二钱、青黛（炒）一钱，共研为末加糯米饭和成丸子，如芡子大。每服一丸，打破，以大枣一枚烧熟，去皮核后，和药一起嚼烂，冷茶送下。半夜后泻出积聚恶物即见药效。</t>
         </is>
       </c>
     </row>
     <row r="4628">
       <c r="A4628" t="inlineStr">
         <is>
-          <t>瞿麦</t>
+          <t>半天河</t>
         </is>
       </c>
       <c r="B4628" t="inlineStr">
         <is>
-          <t>竹木入肉</t>
+          <t>身上长白斑</t>
         </is>
       </c>
       <c r="C4628" t="inlineStr">
         <is>
-          <t>用瞿麦研为末，每服一匙，一天服三次，或用瞿麦煮汁服。一天服三次。</t>
+          <t>可取树木孔中的水来洗，捣烂桂末和唾液敷上，有效。</t>
         </is>
       </c>
     </row>
@@ -79037,1081 +79037,1200 @@
       </c>
       <c r="B4629" t="inlineStr">
         <is>
-          <t>子死腹中，或发作后几天还生不下</t>
+          <t>石淋</t>
         </is>
       </c>
       <c r="C4629" t="inlineStr">
         <is>
-          <t>用瞿麦煮成浓汁服下。</t>
+          <t>用瞿麦子捣为末，每服一匙，酒送下。一天服三次，三日后可下石。</t>
         </is>
       </c>
     </row>
     <row r="4630">
       <c r="A4630" t="inlineStr">
         <is>
-          <t>水蛇</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4630" t="inlineStr">
         <is>
-          <t>手指天蛇毒疮。</t>
+          <t>下焦结热（小便淋闭或有血出，或大小便出血）</t>
         </is>
       </c>
       <c r="C4630" t="inlineStr">
         <is>
-          <t>用水蛇一条，截去头尾，取中间如手指长一段，刮去骨肉，以蛇皮包手指上几天后即愈。</t>
+          <t>用瞿麦穗一两、甘草（炙）七钱五分、山栀子仁（炒）五钱，共研为末。每次取七钱，加连须葱头七个、灯心草五十根、生姜五片、水二碗，煎至七成，随时饮服。此方名“立效散”。</t>
         </is>
       </c>
     </row>
     <row r="4631">
       <c r="A4631" t="inlineStr">
         <is>
-          <t>水蛇</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4631" t="inlineStr">
         <is>
-          <t>消渴烦热</t>
+          <t>小便不利</t>
         </is>
       </c>
       <c r="C4631" t="inlineStr">
         <is>
-          <t>用活水蛇一条，削去皮，炙黄为末，蜗牛五十个，水浸五日，取涎汁加蛇肉末、天花粉末，一起煎稠，再加麝香一分，和粟饭做成丸子，如绿豆大。每服十丸，姜汤送下。</t>
+          <t>用瞿麦二钱半，栝楼根二两，大附子一个，茯苓、山芋各三两，共研为末，加蜜和丸，如梧子大。每服三丸，一天服三次，如无效。每服可加至七、八丸，以小便通畅、腹中温暖为见效。</t>
         </is>
       </c>
     </row>
     <row r="4632">
       <c r="A4632" t="inlineStr">
         <is>
-          <t>水蛇</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4632" t="inlineStr">
         <is>
-          <t>小儿骨疮</t>
+          <t>咽喉骨鲠</t>
         </is>
       </c>
       <c r="C4632" t="inlineStr">
         <is>
-          <t>用《海上方》的治法：“小儿骨痛不堪言，出血流脓实可，寻取水蛇皮一个，烧灰油抹敷疮边。”。</t>
+          <t>用瞿麦研末，每服一匙，水送下。一天服二次。</t>
         </is>
       </c>
     </row>
     <row r="4633">
       <c r="A4633" t="inlineStr">
         <is>
-          <t>螺旋草</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4633" t="inlineStr">
         <is>
-          <t>手指肿痛</t>
+          <t>眼睛红肿、生疮</t>
         </is>
       </c>
       <c r="C4633" t="inlineStr">
         <is>
-          <t>用镜面草捣烂涂搽。</t>
+          <t>用瞿麦炒黄、研细。以鹅涎调匀涂眼边。用瞿麦捣汁涂眼亦有效。</t>
         </is>
       </c>
     </row>
     <row r="4634">
       <c r="A4634" t="inlineStr">
         <is>
-          <t>螺旋草</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4634" t="inlineStr">
         <is>
-          <t>吐血、鼻血</t>
+          <t>鱼脐疔疮（按：此疮初起时，隆肿狭长，一端有白色突出点，形状象鱼脐，因此得名</t>
         </is>
       </c>
       <c r="C4634" t="inlineStr">
         <is>
-          <t>用镜面草，洗净。捣烂，泡酒服。</t>
+          <t>是一种险症）。用瞿麦烧灰，调油敷患处。</t>
         </is>
       </c>
     </row>
     <row r="4635">
       <c r="A4635" t="inlineStr">
         <is>
-          <t>螺旋草</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4635" t="inlineStr">
         <is>
-          <t>小儿头疮</t>
+          <t>竹木入肉</t>
         </is>
       </c>
       <c r="C4635" t="inlineStr">
         <is>
-          <t>用镜面草晒干为末，加轻粉、麻油敷搽，有效。</t>
+          <t>用瞿麦研为末，每服一匙，一天服三次，或用瞿麦煮汁服。一天服三次。</t>
         </is>
       </c>
     </row>
     <row r="4636">
       <c r="A4636" t="inlineStr">
         <is>
-          <t>泽泻</t>
+          <t>瞿麦</t>
         </is>
       </c>
       <c r="B4636" t="inlineStr">
         <is>
-          <t>暑天吐泻（头晕，渴饮，小便不利）</t>
+          <t>子死腹中，或发作后几天还生不下</t>
         </is>
       </c>
       <c r="C4636" t="inlineStr">
         <is>
-          <t>用泽泻、白术，白茯苓各三钱，加水一碗、姜五片、类灯心十根，煎至八成，温服。</t>
+          <t>用瞿麦煮成浓汁服下。</t>
         </is>
       </c>
     </row>
     <row r="4637">
       <c r="A4637" t="inlineStr">
         <is>
-          <t>泽泻</t>
+          <t>水蛇</t>
         </is>
       </c>
       <c r="B4637" t="inlineStr">
         <is>
-          <t>水湿肿胀</t>
+          <t>手指天蛇毒疮。</t>
         </is>
       </c>
       <c r="C4637" t="inlineStr">
         <is>
-          <t>用白术、泽泻各一两，做成丸子。每服三钱，茯苓汤送下。</t>
+          <t>用水蛇一条，截去头尾，取中间如手指长一段，刮去骨肉，以蛇皮包手指上几天后即愈。</t>
         </is>
       </c>
     </row>
     <row r="4638">
       <c r="A4638" t="inlineStr">
         <is>
-          <t>石南</t>
+          <t>水蛇</t>
         </is>
       </c>
       <c r="B4638" t="inlineStr">
         <is>
-          <t>鼠瘘不合</t>
+          <t>消渴烦热</t>
         </is>
       </c>
       <c r="C4638" t="inlineStr">
         <is>
-          <t>用石南、生地黄、茯苓、黄蘖、雌黄、等分为末，每天敷患处两次。</t>
+          <t>用活水蛇一条，削去皮，炙黄为末，蜗牛五十个，水浸五日，取涎汁加蛇肉末、天花粉末，一起煎稠，再加麝香一分，和粟饭做成丸子，如绿豆大。每服十丸，姜汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4639">
       <c r="A4639" t="inlineStr">
         <is>
-          <t>石南</t>
+          <t>水蛇</t>
         </is>
       </c>
       <c r="B4639" t="inlineStr">
         <is>
-          <t>小儿通睛（小儿误跌或头脑受伤，致使瞳仁不正，观东则见西，观西则见东）</t>
+          <t>小儿骨疮</t>
         </is>
       </c>
       <c r="C4639" t="inlineStr">
         <is>
-          <t>用石南一两、藜芦三分、瓜丁五至七个，共研为末。每次吹少许入鼻中，一天三次。内服牛黄平肝的药物，此方名“石南散”。</t>
+          <t>用《海上方》的治法：“小儿骨痛不堪言，出血流脓实可，寻取水蛇皮一个，烧灰油抹敷疮边。”。</t>
         </is>
       </c>
     </row>
     <row r="4640">
       <c r="A4640" t="inlineStr">
         <is>
-          <t>大戟</t>
+          <t>螺旋草</t>
         </is>
       </c>
       <c r="B4640" t="inlineStr">
         <is>
-          <t>水病肿满</t>
+          <t>手指肿痛</t>
         </is>
       </c>
       <c r="C4640" t="inlineStr">
         <is>
-          <t>用大戟、当归、橘皮各一两，切碎，加水二升，煮取七俣，一次服下，病重者，再服一次可愈。病愈后，一年之内须慎饮食，不吃刺激性大的东西。</t>
+          <t>用镜面草捣烂涂搽。</t>
         </is>
       </c>
     </row>
     <row r="4641">
       <c r="A4641" t="inlineStr">
         <is>
-          <t>大戟</t>
+          <t>螺旋草</t>
         </is>
       </c>
       <c r="B4641" t="inlineStr">
         <is>
-          <t>水肿喘包</t>
+          <t>吐血、鼻血</t>
         </is>
       </c>
       <c r="C4641" t="inlineStr">
         <is>
-          <t>用大戟（炒）二两、干姜（炮）半两，共研为末，每服三钱，姜汤送下。以大小便通畅为度。</t>
+          <t>用镜面草，洗净。捣烂，泡酒服。</t>
         </is>
       </c>
     </row>
     <row r="4642">
       <c r="A4642" t="inlineStr">
         <is>
-          <t>大戟</t>
+          <t>螺旋草</t>
         </is>
       </c>
       <c r="B4642" t="inlineStr">
         <is>
-          <t>水肿腹大（或遍身浮肿）</t>
+          <t>小儿头疮</t>
         </is>
       </c>
       <c r="C4642" t="inlineStr">
         <is>
-          <t>用枣一半，放锅内，上面盖着大戟的根、苗，不加盖煮熟，随时取枣吃下，枣尽病愈。又方：大戟、白牵牛、木香，等分为末。每取一钱，纳入剖开的猪肾中，用湿纸包好煨熟，空心吃下。</t>
+          <t>用镜面草晒干为末，加轻粉、麻油敷搽，有效。</t>
         </is>
       </c>
     </row>
     <row r="4643">
       <c r="A4643" t="inlineStr">
         <is>
-          <t>大戟</t>
+          <t>泽泻</t>
         </is>
       </c>
       <c r="B4643" t="inlineStr">
         <is>
-          <t>牙痛</t>
+          <t>暑天吐泻（头晕，渴饮，小便不利）</t>
         </is>
       </c>
       <c r="C4643" t="inlineStr">
         <is>
-          <t>把大戟放口中齿痛处，咬定。止痛效果好。</t>
+          <t>用泽泻、白术，白茯苓各三钱，加水一碗、姜五片、类灯心十根，煎至八成，温服。</t>
         </is>
       </c>
     </row>
     <row r="4644">
       <c r="A4644" t="inlineStr">
         <is>
-          <t>林檎</t>
+          <t>泽泻</t>
         </is>
       </c>
       <c r="B4644" t="inlineStr">
         <is>
-          <t>水痢不止</t>
+          <t>水湿肿胀</t>
         </is>
       </c>
       <c r="C4644" t="inlineStr">
         <is>
-          <t>用林檎半熟者十枚，加水二升，煎成一升，连林檎一起吃下。</t>
+          <t>用白术、泽泻各一两，做成丸子。每服三钱，茯苓汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4645">
       <c r="A4645" t="inlineStr">
         <is>
-          <t>林檎</t>
+          <t>石南</t>
         </is>
       </c>
       <c r="B4645" t="inlineStr">
         <is>
-          <t>小儿闪癖（头发竖立，发黄，全身瘦弱）</t>
+          <t>鼠瘘不合</t>
         </is>
       </c>
       <c r="C4645" t="inlineStr">
         <is>
-          <t>用干林檎脯研为末和醋涂患处。</t>
+          <t>用石南、生地黄、茯苓、黄蘖、雌黄、等分为末，每天敷患处两次。</t>
         </is>
       </c>
     </row>
     <row r="4646">
       <c r="A4646" t="inlineStr">
         <is>
-          <t>林檎</t>
+          <t>石南</t>
         </is>
       </c>
       <c r="B4646" t="inlineStr">
         <is>
-          <t>小儿下痢</t>
+          <t>小儿通睛（小儿误跌或头脑受伤，致使瞳仁不正，观东则见西，观西则见东）</t>
         </is>
       </c>
       <c r="C4646" t="inlineStr">
         <is>
-          <t>用林檎、构子同捣汁，任意饮服。</t>
+          <t>用石南一两、藜芦三分、瓜丁五至七个，共研为末。每次吹少许入鼻中，一天三次。内服牛黄平肝的药物，此方名“石南散”。</t>
         </is>
       </c>
     </row>
     <row r="4647">
       <c r="A4647" t="inlineStr">
         <is>
-          <t>龙眼</t>
+          <t>大戟</t>
         </is>
       </c>
       <c r="B4647" t="inlineStr">
         <is>
-          <t>思虑过度，劳伤心脾，健忘怔忡，虚烦不眠，自汗惊悸</t>
+          <t>水病肿满</t>
         </is>
       </c>
       <c r="C4647" t="inlineStr">
         <is>
-          <t>用龙眼肉、酸枣仁（炒）、黄芪（炙）、白术（焙）、茯神各一两，木香半两、炙甘草二钱半，切细。各药配齐后，每服五钱，加姜三惩、枣一枚、水二盅煎成一盅，温服。此方名“归脾汤”。</t>
+          <t>用大戟、当归、橘皮各一两，切碎，加水二升，煮取七俣，一次服下，病重者，再服一次可愈。病愈后，一年之内须慎饮食，不吃刺激性大的东西。</t>
         </is>
       </c>
     </row>
     <row r="4648">
       <c r="A4648" t="inlineStr">
         <is>
-          <t>野猪</t>
+          <t>大戟</t>
         </is>
       </c>
       <c r="B4648" t="inlineStr">
         <is>
-          <t>素无服乳</t>
+          <t>水肿喘包</t>
         </is>
       </c>
       <c r="C4648" t="inlineStr">
         <is>
-          <t>野猪脂炼净后，酒送服。一天服三次，令妇人多乳。</t>
+          <t>用大戟（炒）二两、干姜（炮）半两，共研为末，每服三钱，姜汤送下。以大小便通畅为度。</t>
         </is>
       </c>
     </row>
     <row r="4649">
       <c r="A4649" t="inlineStr">
         <is>
-          <t>枸橼</t>
+          <t>大戟</t>
         </is>
       </c>
       <c r="B4649" t="inlineStr">
         <is>
-          <t>痰气咳嗽</t>
+          <t>水肿腹大（或遍身浮肿）</t>
         </is>
       </c>
       <c r="C4649" t="inlineStr">
         <is>
-          <t>煮酒饮。</t>
+          <t>用枣一半，放锅内，上面盖着大戟的根、苗，不加盖煮熟，随时取枣吃下，枣尽病愈。又方：大戟、白牵牛、木香，等分为末。每取一钱，纳入剖开的猪肾中，用湿纸包好煨熟，空心吃下。</t>
         </is>
       </c>
     </row>
     <row r="4650">
       <c r="A4650" t="inlineStr">
         <is>
-          <t>枸橼</t>
+          <t>大戟</t>
         </is>
       </c>
       <c r="B4650" t="inlineStr">
         <is>
-          <t>心下气痛</t>
+          <t>牙痛</t>
         </is>
       </c>
       <c r="C4650" t="inlineStr">
         <is>
-          <t>煎汤饮。</t>
+          <t>把大戟放口中齿痛处，咬定。止痛效果好。</t>
         </is>
       </c>
     </row>
     <row r="4651">
       <c r="A4651" t="inlineStr">
         <is>
-          <t>犀</t>
+          <t>林檎</t>
         </is>
       </c>
       <c r="B4651" t="inlineStr">
         <is>
-          <t>吐血不止</t>
+          <t>水痢不止</t>
         </is>
       </c>
       <c r="C4651" t="inlineStr">
         <is>
-          <t>用鹅肝或鸭肝、犀角、生桔梗一两为末。每服二钱，酒送下。</t>
+          <t>用林檎半熟者十枚，加水二升，煎成一升，连林檎一起吃下。</t>
         </is>
       </c>
     </row>
     <row r="4652">
       <c r="A4652" t="inlineStr">
         <is>
-          <t>犀</t>
+          <t>林檎</t>
         </is>
       </c>
       <c r="B4652" t="inlineStr">
         <is>
-          <t>下痢鲜血</t>
+          <t>小儿闪癖（头发竖立，发黄，全身瘦弱）</t>
         </is>
       </c>
       <c r="C4652" t="inlineStr">
         <is>
-          <t>用犀角、地榆、生地黄各一两，共研为末，加蜜炼丸，如弹子大。每取一丸，加水一升，煎至五保，去渣，温服。</t>
+          <t>用干林檎脯研为末和醋涂患处。</t>
         </is>
       </c>
     </row>
     <row r="4653">
       <c r="A4653" t="inlineStr">
         <is>
-          <t>犀</t>
+          <t>林檎</t>
         </is>
       </c>
       <c r="B4653" t="inlineStr">
         <is>
-          <t>消毒解热</t>
+          <t>小儿下痢</t>
         </is>
       </c>
       <c r="C4653" t="inlineStr">
         <is>
-          <t>用生犀角尖，磨水取浓汁，频频饮服。</t>
+          <t>用林檎、构子同捣汁，任意饮服。</t>
         </is>
       </c>
     </row>
     <row r="4654">
       <c r="A4654" t="inlineStr">
         <is>
-          <t>犀</t>
+          <t>龙眼</t>
         </is>
       </c>
       <c r="B4654" t="inlineStr">
         <is>
-          <t>小儿惊（嚼舌，翻眼，不知人事）</t>
+          <t>思虑过度，劳伤心脾，健忘怔忡，虚烦不眠，自汗惊悸</t>
         </is>
       </c>
       <c r="C4654" t="inlineStr">
         <is>
-          <t>用犀角磨水取浓汁服下，立效。服犀角末亦可。</t>
+          <t>用龙眼肉、酸枣仁（炒）、黄芪（炙）、白术（焙）、茯神各一两，木香半两、炙甘草二钱半，切细。各药配齐后，每服五钱，加姜三惩、枣一枚、水二盅煎成一盅，温服。此方名“归脾汤”。</t>
         </is>
       </c>
     </row>
     <row r="4655">
       <c r="A4655" t="inlineStr">
         <is>
-          <t>金星石</t>
+          <t>野猪</t>
         </is>
       </c>
       <c r="B4655" t="inlineStr">
         <is>
-          <t>吐血咳血</t>
+          <t>素无服乳</t>
         </is>
       </c>
       <c r="C4655" t="inlineStr">
         <is>
-          <t>用金星石、银星石、玄精石、不灰木、阳起石、云母石各等分。取坩锅一个，铺冬月水牛粪一、二寸，铺约一层，铺灰二寸，又铺药一层，如此重复铺好，最后盖上灰，加盖封牢。在炭火中煅一天一夜，还要埋在土中一夜，然后去灰留药块，共研细，每药一两，加龙脑、麝香各半钱、阿胶二钱半，炒过。每服一钱，糯米汤送下。一天服三次。</t>
+          <t>野猪脂炼净后，酒送服。一天服三次，令妇人多乳。</t>
         </is>
       </c>
     </row>
     <row r="4656">
       <c r="A4656" t="inlineStr">
         <is>
-          <t>雷丸</t>
+          <t>枸橼</t>
         </is>
       </c>
       <c r="B4656" t="inlineStr">
         <is>
-          <t>下寸白虫（绦虫）</t>
+          <t>痰气咳嗽</t>
         </is>
       </c>
       <c r="C4656" t="inlineStr">
         <is>
-          <t>和雷丸，水浸，去皮，切细，焙为末。五更时，吃炙肉少许，随即以稀粥送服药末一匙，上半月服药，效果轻好。</t>
+          <t>煮酒饮。</t>
         </is>
       </c>
     </row>
     <row r="4657">
       <c r="A4657" t="inlineStr">
         <is>
-          <t>雷丸</t>
+          <t>枸橼</t>
         </is>
       </c>
       <c r="B4657" t="inlineStr">
         <is>
-          <t>小儿出汗，有热</t>
+          <t>心下气痛</t>
         </is>
       </c>
       <c r="C4657" t="inlineStr">
         <is>
-          <t>用雷丸四两，研为末，加粉半斤，拌匀扑身上。</t>
+          <t>煎汤饮。</t>
         </is>
       </c>
     </row>
     <row r="4658">
       <c r="A4658" t="inlineStr">
         <is>
-          <t>昆布</t>
+          <t>犀</t>
         </is>
       </c>
       <c r="B4658" t="inlineStr">
         <is>
-          <t>项下渐肿成瘿</t>
+          <t>吐血不止</t>
         </is>
       </c>
       <c r="C4658" t="inlineStr">
         <is>
-          <t>用昆布、海藻，等分为末，加蜜做成丸子，如杏核大。随时含咽。</t>
+          <t>用鹅肝或鸭肝、犀角、生桔梗一两为末。每服二钱，酒送下。</t>
         </is>
       </c>
     </row>
     <row r="4659">
       <c r="A4659" t="inlineStr">
         <is>
-          <t>昆布</t>
+          <t>犀</t>
         </is>
       </c>
       <c r="B4659" t="inlineStr">
         <is>
-          <t>瘿气结核，瘰疬肿硬</t>
+          <t>下痢鲜血</t>
         </is>
       </c>
       <c r="C4659" t="inlineStr">
         <is>
-          <t>用昆布一两，洗其咸汁，晒干为末。每取一钱，以棉裹好，放醋中浸过，口含咽汁味尽即换。</t>
+          <t>用犀角、地榆、生地黄各一两，共研为末，加蜜炼丸，如弹子大。每取一丸，加水一升，煎至五保，去渣，温服。</t>
         </is>
       </c>
     </row>
     <row r="4660">
       <c r="A4660" t="inlineStr">
         <is>
-          <t>荭草</t>
+          <t>犀</t>
         </is>
       </c>
       <c r="B4660" t="inlineStr">
         <is>
-          <t>消渴、去热、明目益气、亦治瘰疬、痞块</t>
+          <t>消毒解热</t>
         </is>
       </c>
       <c r="C4660" t="inlineStr">
         <is>
-          <t>荭草的花能散血、消积、止痛。</t>
+          <t>用生犀角尖，磨水取浓汁，频频饮服。</t>
         </is>
       </c>
     </row>
     <row r="4661">
       <c r="A4661" t="inlineStr">
         <is>
-          <t>鳅鱼</t>
+          <t>犀</t>
         </is>
       </c>
       <c r="B4661" t="inlineStr">
         <is>
-          <t>消渴饮水</t>
+          <t>小儿惊（嚼舌，翻眼，不知人事）</t>
         </is>
       </c>
       <c r="C4661" t="inlineStr">
         <is>
-          <t>用泥鳅十条，阴干，去头尾，烧灰，加干荷叶等分，共研为末。每服二钱，水调下。一天服三次，此方名“沃焦散”。</t>
+          <t>用犀角磨水取浓汁服下，立效。服犀角末亦可。</t>
         </is>
       </c>
     </row>
     <row r="4662">
       <c r="A4662" t="inlineStr">
         <is>
-          <t>鳅鱼</t>
+          <t>金星石</t>
         </is>
       </c>
       <c r="B4662" t="inlineStr">
         <is>
-          <t>阳痿</t>
+          <t>吐血咳血</t>
         </is>
       </c>
       <c r="C4662" t="inlineStr">
         <is>
-          <t>煮食泥鳅可治。</t>
+          <t>用金星石、银星石、玄精石、不灰木、阳起石、云母石各等分。取坩锅一个，铺冬月水牛粪一、二寸，铺约一层，铺灰二寸，又铺药一层，如此重复铺好，最后盖上灰，加盖封牢。在炭火中煅一天一夜，还要埋在土中一夜，然后去灰留药块，共研细，每药一两，加龙脑、麝香各半钱、阿胶二钱半，炒过。每服一钱，糯米汤送下。一天服三次。</t>
         </is>
       </c>
     </row>
     <row r="4663">
       <c r="A4663" t="inlineStr">
         <is>
-          <t>徐长卿</t>
+          <t>雷丸</t>
         </is>
       </c>
       <c r="B4663" t="inlineStr">
         <is>
-          <t>小便不通</t>
+          <t>下寸白虫（绦虫）</t>
         </is>
       </c>
       <c r="C4663" t="inlineStr">
         <is>
-          <t>用徐长卿（灸过）半两，茅根三分，木通、冬葵子各一两，滑石二两，槟榔一分，瞿麦穗半两。每服五钱，水煎，再加朴硝一钱，温服。此方名“徐长卿汤”。</t>
+          <t>和雷丸，水浸，去皮，切细，焙为末。五更时，吃炙肉少许，随即以稀粥送服药末一匙，上半月服药，效果轻好。</t>
         </is>
       </c>
     </row>
     <row r="4664">
       <c r="A4664" t="inlineStr">
         <is>
-          <t>徐长卿</t>
+          <t>雷丸</t>
         </is>
       </c>
       <c r="B4664" t="inlineStr">
         <is>
-          <t>晕车晕船</t>
+          <t>小儿出汗，有热</t>
         </is>
       </c>
       <c r="C4664" t="inlineStr">
         <is>
-          <t>用徐长卿、石长生、车前子、车下李根等分捣碎，取半合装在袋子里悬衣带上。徐长卿亦治疫疾、邪恶气、温疟等。</t>
+          <t>用雷丸四两，研为末，加粉半斤，拌匀扑身上。</t>
         </is>
       </c>
     </row>
     <row r="4665">
       <c r="A4665" t="inlineStr">
         <is>
-          <t>水芹</t>
+          <t>昆布</t>
         </is>
       </c>
       <c r="B4665" t="inlineStr">
         <is>
-          <t>小便出血</t>
+          <t>项下渐肿成瘿</t>
         </is>
       </c>
       <c r="C4665" t="inlineStr">
         <is>
-          <t>有水芹捣汁，一天服六、七合。</t>
+          <t>用昆布、海藻，等分为末，加蜜做成丸子，如杏核大。随时含咽。</t>
         </is>
       </c>
     </row>
     <row r="4666">
       <c r="A4666" t="inlineStr">
         <is>
-          <t>水芹</t>
+          <t>昆布</t>
         </is>
       </c>
       <c r="B4666" t="inlineStr">
         <is>
-          <t>小便淋痛</t>
+          <t>瘿气结核，瘰疬肿硬</t>
         </is>
       </c>
       <c r="C4666" t="inlineStr">
         <is>
-          <t>用水芹菜（有白根者）去叶，捣取汁，水冲服。</t>
+          <t>用昆布一两，洗其咸汁，晒干为末。每取一钱，以棉裹好，放醋中浸过，口含咽汁味尽即换。</t>
         </is>
       </c>
     </row>
     <row r="4667">
       <c r="A4667" t="inlineStr">
         <is>
-          <t>藁本</t>
+          <t>荭草</t>
         </is>
       </c>
       <c r="B4667" t="inlineStr">
         <is>
-          <t>小儿疥癣</t>
+          <t>消渴、去热、明目益气、亦治瘰疬、痞块</t>
         </is>
       </c>
       <c r="C4667" t="inlineStr">
         <is>
-          <t>可用藁本煎汤洗，并搓洗换下来的衣服。头屑多，可用藁本、白芷，等分为末，夜间干擦头发，清晨梳去，头屑自除。</t>
+          <t>荭草的花能散血、消积、止痛。</t>
         </is>
       </c>
     </row>
     <row r="4668">
       <c r="A4668" t="inlineStr">
         <is>
-          <t>竹黄</t>
+          <t>鳅鱼</t>
         </is>
       </c>
       <c r="B4668" t="inlineStr">
         <is>
-          <t>小儿惊风发热</t>
+          <t>消渴饮水</t>
         </is>
       </c>
       <c r="C4668" t="inlineStr">
         <is>
-          <t>用竹黄二钱、雄黄、牵牛（研末）各一钱，共研匀，加面糊成丸子，如粟米大。每服三至五丸，薄荷汤送下发。</t>
+          <t>用泥鳅十条，阴干，去头尾，烧灰，加干荷叶等分，共研为末。每服二钱，水调下。一天服三次，此方名“沃焦散”。</t>
         </is>
       </c>
     </row>
     <row r="4669">
       <c r="A4669" t="inlineStr">
         <is>
-          <t>梧桐</t>
+          <t>鳅鱼</t>
         </is>
       </c>
       <c r="B4669" t="inlineStr">
         <is>
-          <t>小儿口疮</t>
+          <t>阳痿</t>
         </is>
       </c>
       <c r="C4669" t="inlineStr">
         <is>
-          <t>用梧桐子和鸡蛋烧存性，研为末，敷搽患处。</t>
+          <t>煮食泥鳅可治。</t>
         </is>
       </c>
     </row>
     <row r="4670">
       <c r="A4670" t="inlineStr">
         <is>
-          <t>猕猴</t>
+          <t>徐长卿</t>
         </is>
       </c>
       <c r="B4670" t="inlineStr">
         <is>
-          <t>小儿脐风撮口及急惊风</t>
+          <t>小便不通</t>
         </is>
       </c>
       <c r="C4670" t="inlineStr">
         <is>
-          <t>用猕猴屎烧为末，和生蜜少许灌下。</t>
+          <t>用徐长卿（灸过）半两，茅根三分，木通、冬葵子各一两，滑石二两，槟榔一分，瞿麦穗半两。每服五钱，水煎，再加朴硝一钱，温服。此方名“徐长卿汤”。</t>
         </is>
       </c>
     </row>
     <row r="4671">
       <c r="A4671" t="inlineStr">
         <is>
-          <t>石龙子</t>
+          <t>徐长卿</t>
         </is>
       </c>
       <c r="B4671" t="inlineStr">
         <is>
-          <t>小儿阴肿</t>
+          <t>晕车晕船</t>
         </is>
       </c>
       <c r="C4671" t="inlineStr">
         <is>
-          <t>用晰蜴一具，烧成灰，酒送服。</t>
+          <t>用徐长卿、石长生、车前子、车下李根等分捣碎，取半合装在袋子里悬衣带上。徐长卿亦治疫疾、邪恶气、温疟等。</t>
         </is>
       </c>
     </row>
     <row r="4672">
       <c r="A4672" t="inlineStr">
         <is>
-          <t>石龙子</t>
+          <t>水芹</t>
         </is>
       </c>
       <c r="B4672" t="inlineStr">
         <is>
-          <t>药物流产</t>
+          <t>小便出血</t>
         </is>
       </c>
       <c r="C4672" t="inlineStr">
         <is>
-          <t>用晰蜴肝、蛇脱皮等分，苦酒均匀，擦妊发脐上及左右，令温暖，能使生胎产下。</t>
+          <t>有水芹捣汁，一天服六、七合。</t>
         </is>
       </c>
     </row>
     <row r="4673">
       <c r="A4673" t="inlineStr">
         <is>
-          <t>石龙子</t>
+          <t>水芹</t>
         </is>
       </c>
       <c r="B4673" t="inlineStr">
         <is>
-          <t>诸瘘不愈</t>
+          <t>小便淋痛</t>
         </is>
       </c>
       <c r="C4673" t="inlineStr">
         <is>
-          <t>用晰蜴（炙）三个、地胆（炒）三二具、斑蝥（炒）四十个。共研为末，加蜜做成丸子，如小豆在。每服二丸，开水送下。</t>
+          <t>用水芹菜（有白根者）去叶，捣取汁，水冲服。</t>
         </is>
       </c>
     </row>
     <row r="4674">
       <c r="A4674" t="inlineStr">
         <is>
-          <t>石耳</t>
+          <t>藁本</t>
         </is>
       </c>
       <c r="B4674" t="inlineStr">
         <is>
-          <t>泻血脱肛</t>
+          <t>小儿疥癣</t>
         </is>
       </c>
       <c r="C4674" t="inlineStr">
         <is>
-          <t>有石耳五两（炒）、白枯矾一两、密陀僧半两，共研为末，加蒸饼做成丸子，如梧子在。每服二十丸，米汤送下。</t>
+          <t>可用藁本煎汤洗，并搓洗换下来的衣服。头屑多，可用藁本、白芷，等分为末，夜间干擦头发，清晨梳去，头屑自除。</t>
         </is>
       </c>
     </row>
     <row r="4675">
       <c r="A4675" t="inlineStr">
         <is>
-          <t>神针火</t>
+          <t>竹黄</t>
         </is>
       </c>
       <c r="B4675" t="inlineStr">
         <is>
-          <t>心腹冷痛，风寒湿痹，附骨阻疽等</t>
+          <t>小儿惊风发热</t>
         </is>
       </c>
       <c r="C4675" t="inlineStr">
         <is>
-          <t>凡在筋骨隐痛者，针刺后，火气直达患处，疗效显着。</t>
+          <t>用竹黄二钱、雄黄、牵牛（研末）各一钱，共研匀，加面糊成丸子，如粟米大。每服三至五丸，薄荷汤送下发。</t>
         </is>
       </c>
     </row>
     <row r="4676">
       <c r="A4676" t="inlineStr">
         <is>
-          <t>秋石</t>
+          <t>梧桐</t>
         </is>
       </c>
       <c r="B4676" t="inlineStr">
         <is>
-          <t>虚劳冷疾，小便频数，漏精白浊</t>
+          <t>小儿口疮</t>
         </is>
       </c>
       <c r="C4676" t="inlineStr">
         <is>
-          <t>制成的方剂有秋石还元丹、阴阳二炼丹、秋冰乳粉丸、直指秋石丸、秋石交感丹、秋石四精丸、秋石精丸等。</t>
+          <t>用梧桐子和鸡蛋烧存性，研为末，敷搽患处。</t>
         </is>
       </c>
     </row>
     <row r="4677">
       <c r="A4677" t="inlineStr">
         <is>
-          <t>金牙石</t>
+          <t>猕猴</t>
         </is>
       </c>
       <c r="B4677" t="inlineStr">
         <is>
-          <t>虚劳湿冷</t>
+          <t>小儿脐风撮口及急惊风</t>
         </is>
       </c>
       <c r="C4677" t="inlineStr">
         <is>
-          <t>缓弱，不能行走。用金牙石、细辛、莽草、防风、地肤子、地黄、附子、菌蓣、续断、蜀椒、蒴根各四两，独活一斤。共药十二味。金牙石捣碎后，单独装在一个小袋子中，其余十一味，切成薄片，合装入一大袋子里。两袋同浸酒内，密封四日。取酒温服，一天服两次。这种药酒叫做“小金牙酒”。</t>
+          <t>用猕猴屎烧为末，和生蜜少许灌下。</t>
         </is>
       </c>
     </row>
     <row r="4678">
       <c r="A4678" t="inlineStr">
         <is>
-          <t>吊</t>
+          <t>石龙子</t>
         </is>
       </c>
       <c r="B4678" t="inlineStr">
         <is>
-          <t>阳萎</t>
+          <t>小儿阴肿</t>
         </is>
       </c>
       <c r="C4678" t="inlineStr">
         <is>
-          <t>用紫梢花、生龙骨各二钱，麝香少许，共研为末，加蜜做成丸子，如梧子大。每服二十丸，烧酒送下。哪欲解作除药力，可饮生姜甘草汤。</t>
+          <t>用晰蜴一具，烧成灰，酒送服。</t>
         </is>
       </c>
     </row>
     <row r="4679">
       <c r="A4679" t="inlineStr">
         <is>
-          <t>吊</t>
+          <t>石龙子</t>
         </is>
       </c>
       <c r="B4679" t="inlineStr">
         <is>
-          <t>阴痒生疮</t>
+          <t>药物流产</t>
         </is>
       </c>
       <c r="C4679" t="inlineStr">
         <is>
-          <t>用紫梢花一两、胡椒半两，煎汤温洗，数次即愈。</t>
+          <t>用晰蜴肝、蛇脱皮等分，苦酒均匀，擦妊发脐上及左右，令温暖，能使生胎产下。</t>
         </is>
       </c>
     </row>
     <row r="4680">
       <c r="A4680" t="inlineStr">
         <is>
-          <t>仙茅</t>
+          <t>石龙子</t>
         </is>
       </c>
       <c r="B4680" t="inlineStr">
         <is>
-          <t>阳痿精寒，腰膝风冷，筋骨痿痹等症</t>
+          <t>诸瘘不愈</t>
         </is>
       </c>
       <c r="C4680" t="inlineStr">
         <is>
-          <t>古方中有“仙茅丸”，能壮筋骨、益精神、明目、黑须发。其配方及服法如下：仙茅二斤，放入淘糯米水中浸五天，取出刮锉，阴干。另用苍术二斤，放入淘米水中浸五天，取出刮皮，焙干。取这样制过的仙茅、苍术各一斤，与枸杞子一斤，车前十二两，白茯苓（去皮）、茴香（炒）、柏子仁（去壳）各八两，生地黄（焙）、熟地黄（焙各四两）一起研细，加酒煮糊做成丸子，如梧子大。每服五十丸，饭前服，温酒送下。一天服二次。</t>
+          <t>用晰蜴（炙）三个、地胆（炒）三二具、斑蝥（炒）四十个。共研为末，加蜜做成丸子，如小豆在。每服二丸，开水送下。</t>
         </is>
       </c>
     </row>
     <row r="4681">
       <c r="A4681" t="inlineStr">
         <is>
-          <t>阿月浑子</t>
+          <t>石耳</t>
         </is>
       </c>
       <c r="B4681" t="inlineStr">
         <is>
-          <t>阴囊湿</t>
+          <t>泻血脱肛</t>
         </is>
       </c>
       <c r="C4681" t="inlineStr">
         <is>
-          <t>木皮煎汁洗浴，可治。</t>
+          <t>有石耳五两（炒）、白枯矾一两、密陀僧半两，共研为末，加蒸饼做成丸子，如梧子在。每服二十丸，米汤送下。</t>
         </is>
       </c>
     </row>
     <row r="4682">
       <c r="A4682" t="inlineStr">
         <is>
-          <t>见肿消</t>
+          <t>神针火</t>
         </is>
       </c>
       <c r="B4682" t="inlineStr">
         <is>
-          <t>痈肿、狗咬</t>
+          <t>心腹冷痛，风寒湿痹，附骨阻疽等</t>
         </is>
       </c>
       <c r="C4682" t="inlineStr">
         <is>
-          <t>用见肿消捣烂敷贴。</t>
+          <t>凡在筋骨隐痛者，针刺后，火气直达患处，疗效显着。</t>
         </is>
       </c>
     </row>
     <row r="4683">
       <c r="A4683" t="inlineStr">
         <is>
-          <t>见肿消</t>
+          <t>秋石</t>
         </is>
       </c>
       <c r="B4683" t="inlineStr">
         <is>
-          <t>肿毒</t>
+          <t>虚劳冷疾，小便频数，漏精白浊</t>
         </is>
       </c>
       <c r="C4683" t="inlineStr">
         <is>
-          <t>用见肿消草、生白芨、生白蔹、土大黄、生大蓟根、野荣麻根，共捣成饼，加硭硝一钱，和匀，贴患处。贴时留头，药干即换。用再加金线重楼及山慈姑更好。</t>
+          <t>制成的方剂有秋石还元丹、阴阳二炼丹、秋冰乳粉丸、直指秋石丸、秋石交感丹、秋石四精丸、秋石精丸等。</t>
         </is>
       </c>
     </row>
     <row r="4684">
       <c r="A4684" t="inlineStr">
         <is>
-          <t>土蜂</t>
+          <t>金牙石</t>
         </is>
       </c>
       <c r="B4684" t="inlineStr">
         <is>
-          <t>痈肿疮毒</t>
+          <t>虚劳湿冷</t>
         </is>
       </c>
       <c r="C4684" t="inlineStr">
         <is>
-          <t>用土蜂房一个、蛇蜕一条，黄泥封固，煅存性，研为末。每服一钱，空心服，酒送下。有腹痛反应，不必疑虑。</t>
+          <t>缓弱，不能行走。用金牙石、细辛、莽草、防风、地肤子、地黄、附子、菌蓣、续断、蜀椒、蒴根各四两，独活一斤。共药十二味。金牙石捣碎后，单独装在一个小袋子中，其余十一味，切成薄片，合装入一大袋子里。两袋同浸酒内，密封四日。取酒温服，一天服两次。这种药酒叫做“小金牙酒”。</t>
         </is>
       </c>
     </row>
     <row r="4685">
       <c r="A4685" t="inlineStr">
         <is>
-          <t>土蜂</t>
+          <t>吊</t>
         </is>
       </c>
       <c r="B4685" t="inlineStr">
         <is>
-          <t>蜘蛛咬疮</t>
+          <t>阳萎</t>
         </is>
       </c>
       <c r="C4685" t="inlineStr">
         <is>
-          <t>用土蜂烧为末，调油敷涂。</t>
+          <t>用紫梢花、生龙骨各二钱，麝香少许，共研为末，加蜜做成丸子，如梧子大。每服二十丸，烧酒送下。哪欲解作除药力，可饮生姜甘草汤。</t>
         </is>
       </c>
     </row>
     <row r="4686">
       <c r="A4686" t="inlineStr">
         <is>
-          <t>局箬</t>
+          <t>吊</t>
         </is>
       </c>
       <c r="B4686" t="inlineStr">
         <is>
-          <t>痈肿风毒（磨浆敷涂）</t>
+          <t>阴痒生疮</t>
         </is>
       </c>
       <c r="C4686" t="inlineStr">
         <is>
-          <t>亦治消竭。</t>
+          <t>用紫梢花一两、胡椒半两，煎汤温洗，数次即愈。</t>
         </is>
       </c>
     </row>
     <row r="4687">
       <c r="A4687" t="inlineStr">
         <is>
-          <t>南烛</t>
+          <t>仙茅</t>
         </is>
       </c>
       <c r="B4687" t="inlineStr">
         <is>
-          <t>枝叶止泄除睡，强筋益气力</t>
+          <t>阳痿精寒，腰膝风冷，筋骨痿痹等症</t>
         </is>
       </c>
       <c r="C4687" t="inlineStr">
         <is>
-          <t>子亦强筋益气，固精驻颜。</t>
+          <t>古方中有“仙茅丸”，能壮筋骨、益精神、明目、黑须发。其配方及服法如下：仙茅二斤，放入淘糯米水中浸五天，取出刮锉，阴干。另用苍术二斤，放入淘米水中浸五天，取出刮皮，焙干。取这样制过的仙茅、苍术各一斤，与枸杞子一斤，车前十二两，白茯苓（去皮）、茴香（炒）、柏子仁（去壳）各八两，生地黄（焙）、熟地黄（焙各四两）一起研细，加酒煮糊做成丸子，如梧子大。每服五十丸，饭前服，温酒送下。一天服二次。</t>
         </is>
       </c>
     </row>
     <row r="4688">
       <c r="A4688" t="inlineStr">
         <is>
-          <t>土墼</t>
+          <t>阿月浑子</t>
         </is>
       </c>
       <c r="B4688" t="inlineStr">
         <is>
-          <t>治妇女鳖瘕（肿起如盘，不能躺卧，好象有鳖伏在身上一般），头上诸疮，红肿痰核等</t>
+          <t>阴囊湿</t>
         </is>
       </c>
       <c r="C4688" t="inlineStr">
         <is>
-          <t>用土研成细末，调菜油涂搽。肿渐消去，或破口流脓，病自痊愈。</t>
+          <t>木皮煎汁洗浴，可治。</t>
         </is>
       </c>
     </row>
     <row r="4689">
       <c r="A4689" t="inlineStr">
         <is>
-          <t>土墼</t>
+          <t>见肿消</t>
         </is>
       </c>
       <c r="B4689" t="inlineStr">
         <is>
-          <t>治头上白秃瘌痢</t>
+          <t>痈肿、狗咬</t>
         </is>
       </c>
       <c r="C4689" t="inlineStr">
         <is>
-          <t>用土四两、百草霜一两、雄黄一两、胆矾六钱、榆皮三钱、轻粉一钱，共研为末，猪胆汁调匀，剃头后涂搽。</t>
+          <t>用见肿消捣烂敷贴。</t>
         </is>
       </c>
     </row>
     <row r="4690">
       <c r="A4690" t="inlineStr">
         <is>
-          <t>蚁垤土</t>
+          <t>见肿消</t>
         </is>
       </c>
       <c r="B4690" t="inlineStr">
         <is>
-          <t>治孤刺疮</t>
+          <t>肿毒</t>
         </is>
       </c>
       <c r="C4690" t="inlineStr">
         <is>
-          <t>取土七粒和醋涂搽。死胎在腹，或胞衣不下。取蚁垤土三升，装布袋中，拓在产女胸下，死胎或胞衣自出。</t>
+          <t>用见肿消草、生白芨、生白蔹、土大黄、生大蓟根、野荣麻根，共捣成饼，加硭硝一钱，和匀，贴患处。贴时留头，药干即换。用再加金线重楼及山慈姑更好。</t>
         </is>
       </c>
     </row>
     <row r="4691">
       <c r="A4691" t="inlineStr">
         <is>
-          <t>流水</t>
+          <t>土蜂</t>
         </is>
       </c>
       <c r="B4691" t="inlineStr">
         <is>
-          <t>治目不得瞑（阻虚阳盛，睡不着，眼睛闭不住）</t>
+          <t>痈肿疮毒</t>
         </is>
       </c>
       <c r="C4691" t="inlineStr">
         <is>
-          <t>用劳水五升、高粱米一升、半夏五合，小火慢煮，煮到只剩一升水时，去滓，饮汁，每饮一小杯。一日三次。治汗后奔豚（误服发汗药，引起小肚子胀痛，有气上冲，“如豕之奔突”，故名奔豚）：。</t>
+          <t>用土蜂房一个、蛇蜕一条，黄泥封固，煅存性，研为末。每服一钱，空心服，酒送下。有腹痛反应，不必疑虑。</t>
         </is>
       </c>
     </row>
     <row r="4692">
       <c r="A4692" t="inlineStr">
         <is>
+          <t>土蜂</t>
+        </is>
+      </c>
+      <c r="B4692" t="inlineStr">
+        <is>
+          <t>蜘蛛咬疮</t>
+        </is>
+      </c>
+      <c r="C4692" t="inlineStr">
+        <is>
+          <t>用土蜂烧为末，调油敷涂。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4693">
+      <c r="A4693" t="inlineStr">
+        <is>
+          <t>局箬</t>
+        </is>
+      </c>
+      <c r="B4693" t="inlineStr">
+        <is>
+          <t>痈肿风毒（磨浆敷涂）</t>
+        </is>
+      </c>
+      <c r="C4693" t="inlineStr">
+        <is>
+          <t>亦治消竭。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4694">
+      <c r="A4694" t="inlineStr">
+        <is>
+          <t>南烛</t>
+        </is>
+      </c>
+      <c r="B4694" t="inlineStr">
+        <is>
+          <t>枝叶止泄除睡，强筋益气力</t>
+        </is>
+      </c>
+      <c r="C4694" t="inlineStr">
+        <is>
+          <t>子亦强筋益气，固精驻颜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4695">
+      <c r="A4695" t="inlineStr">
+        <is>
+          <t>土墼</t>
+        </is>
+      </c>
+      <c r="B4695" t="inlineStr">
+        <is>
+          <t>治妇女鳖瘕（肿起如盘，不能躺卧，好象有鳖伏在身上一般），头上诸疮，红肿痰核等</t>
+        </is>
+      </c>
+      <c r="C4695" t="inlineStr">
+        <is>
+          <t>用土研成细末，调菜油涂搽。肿渐消去，或破口流脓，病自痊愈。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4696">
+      <c r="A4696" t="inlineStr">
+        <is>
+          <t>土墼</t>
+        </is>
+      </c>
+      <c r="B4696" t="inlineStr">
+        <is>
+          <t>治头上白秃瘌痢</t>
+        </is>
+      </c>
+      <c r="C4696" t="inlineStr">
+        <is>
+          <t>用土四两、百草霜一两、雄黄一两、胆矾六钱、榆皮三钱、轻粉一钱，共研为末，猪胆汁调匀，剃头后涂搽。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4697">
+      <c r="A4697" t="inlineStr">
+        <is>
+          <t>蚁垤土</t>
+        </is>
+      </c>
+      <c r="B4697" t="inlineStr">
+        <is>
+          <t>治孤刺疮</t>
+        </is>
+      </c>
+      <c r="C4697" t="inlineStr">
+        <is>
+          <t>取土七粒和醋涂搽。死胎在腹，或胞衣不下。取蚁垤土三升，装布袋中，拓在产女胸下，死胎或胞衣自出。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4698">
+      <c r="A4698" t="inlineStr">
+        <is>
+          <t>流水</t>
+        </is>
+      </c>
+      <c r="B4698" t="inlineStr">
+        <is>
+          <t>治目不得瞑（阻虚阳盛，睡不着，眼睛闭不住）</t>
+        </is>
+      </c>
+      <c r="C4698" t="inlineStr">
+        <is>
+          <t>用劳水五升、高粱米一升、半夏五合，小火慢煮，煮到只剩一升水时，去滓，饮汁，每饮一小杯。一日三次。治汗后奔豚（误服发汗药，引起小肚子胀痛，有气上冲，“如豕之奔突”，故名奔豚）：。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4699">
+      <c r="A4699" t="inlineStr">
+        <is>
           <t>赤箭（天麻）</t>
         </is>
       </c>
-      <c r="B4692" t="inlineStr">
+      <c r="B4699" t="inlineStr">
         <is>
           <t>诸风湿痹、四肢拘挛、瘫患不随、眩晕头痛等症</t>
         </is>
       </c>
-      <c r="C4692" t="inlineStr">
+      <c r="C4699" t="inlineStr">
         <is>
           <t>李时珍说：“天麻乃肝经气分之药。.......眼黑头眩，风虚内作，非天麻不能治。天订乃定风草，故为治风之神药。今有久服天麻药，遍身发出红丹者，是其祛风之验也。”凡欲消风化痰、清利头目、宽胸利膈以及治疗头晕、多睡、肢节痛、偏头风、鼻痈、面肿等症，都要服“天麻丸”。配方及服法：天麻半两、芎二两，共研为末，炼蜜做成丸子，如芡子大。每次嚼服一丸，饭后服，茶或酒送下。[附]还筒子（天麻子）「主治」定风补虚，功同天麻。</t>
         </is>
